--- a/nl_sql_results/nltosql-perfect_subsetter-snails-Native-oracle-nlsqlmodel_gpt-4.1.xlsx
+++ b/nl_sql_results/nltosql-perfect_subsetter-snails-Native-oracle-nlsqlmodel_gpt-4.1.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) turtleCount  from tblFieldDataTurtleMeasurements where age = '5' </t>
+          <t xml:space="preserve">select count(*) turtleCount  from tblFieldDataTurtleMeasurements where age = '5'  </t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -542,7 +542,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">select locationID, count(*) turtleCount from tblFieldDataTurtleMeasurements group by locationID </t>
+          <t xml:space="preserve">select locationID, count(*) turtleCount from tblFieldDataTurtleMeasurements group by locationID  </t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -581,7 +581,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(weight) turtleWeight from tblFieldDataTurtleMeasurements </t>
+          <t xml:space="preserve">select avg(weight) turtleWeight from tblFieldDataTurtleMeasurements  </t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -615,20 +615,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SELECT LocationID
+          <t>SELECT DISTINCT LocationID
 FROM tblFieldDataSnakeDataCollection
 INTERSECT
-SELECT LocationID
+SELECT DISTINCT LocationID
 FROM tblFieldDataTurtleMeasurements</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct t.locationID from tblFieldDataTurtleMeasurements t join tblFieldDataSnakeDataCollection s on t.LocationID = s.LocationID </t>
+          <t xml:space="preserve">select distinct t.locationID from tblFieldDataTurtleMeasurements t join tblFieldDataSnakeDataCollection s on t.LocationID = s.LocationID  </t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
@@ -663,7 +663,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">select locationID, count(distinct [trap_#]) trapCount from tblFieldDataMinnowTrapSurveys group by locationID </t>
+          <t xml:space="preserve">select locationID, count(distinct [trap_#]) trapCount from tblFieldDataMinnowTrapSurveys group by locationID  </t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -704,7 +704,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">select locationid, sum(count) minnowCountSum from tblFieldDataMinnowTrapSurveys group by LocationID </t>
+          <t xml:space="preserve">select locationid, sum(count) minnowCountSum from tblFieldDataMinnowTrapSurveys group by LocationID  </t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -743,7 +743,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">select locationID, [Trap_#], sum(count) minnowCountSum from tblFieldDataMinnowTrapSurveys group by locationID, [Trap_#] </t>
+          <t xml:space="preserve">select locationID, [Trap_#], sum(count) minnowCountSum from tblFieldDataMinnowTrapSurveys group by locationID, [Trap_#]  </t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -785,7 +785,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">select stage, sum(count) minnowCountSum from tblFieldDataMinnowTrapSurveys where locationID = 'ASIS_HERPS_20H' group by stage </t>
+          <t xml:space="preserve">select stage, sum(count) minnowCountSum from tblFieldDataMinnowTrapSurveys where locationID = 'ASIS_HERPS_20H' group by stage  </t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -826,7 +826,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(tempc) avgTemp from tblFieldDataWaterProperties where locationId in ( 	select locationId  	from tblFieldDataAmphibianCallCounts ) </t>
+          <t xml:space="preserve">select avg(tempc) avgTemp from tblFieldDataWaterProperties where locationId in ( 	select locationId  	from tblFieldDataAmphibianCallCounts )  </t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -871,7 +871,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(tempc) avgTempC, avg(salinity) avgSalinity, avg(conductivity) avgConduct, avg(pH) avgPH from tblFieldDataWaterProperties w, tblFieldDataTurtleTrapSurveys t where w. recordid in ( 	select recordid from tblFieldDataTurtleTrapSurveys )  </t>
+          <t xml:space="preserve">select avg(tempc) avgTempC, avg(salinity) avgSalinity, avg(conductivity) avgConduct, avg(pH) avgPH from tblFieldDataWaterProperties w, tblFieldDataTurtleTrapSurveys t where w. recordid in ( 	select recordid from tblFieldDataTurtleTrapSurveys )   </t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -908,12 +908,12 @@
           <t>SELECT m.RecordID, m.Comments
 FROM tblFieldDataTurtleMeasurements m
 JOIN tblFieldDataTurtleTrapSurveys t ON m.RecordID = t.RecordID
-WHERE m.Sex IS NOT NULL AND t.Sex IS NOT NULL AND m.Sex != t.Sex</t>
+WHERE m.Sex IS NOT NULL AND t.Sex IS NOT NULL AND m.Sex &lt;&gt; t.Sex</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">select t.RecordID, m.comments from tblFieldDataTurtleTrapSurveys t join tblFieldDataTurtleMeasurements m on t.RecordID = m.RecordID  	and m.sex &lt;&gt; t.sex </t>
+          <t xml:space="preserve">select t.RecordID, m.comments from tblFieldDataTurtleTrapSurveys t join tblFieldDataTurtleMeasurements m on t.RecordID = m.RecordID  	and m.sex &lt;&gt; t.sex  </t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -954,7 +954,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">select sex, max(weight) heaviestWeight from tblFieldDataTurtleMeasurements group by sex </t>
+          <t xml:space="preserve">select sex, max(weight) heaviestWeight from tblFieldDataTurtleMeasurements group by sex  </t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -986,21 +986,25 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SELECT MAX(SVL) AS highest_svl FROM tblFieldDataSnakeDataCollection</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 svl  from tblFieldDataSnakeDataCollection order by svl desc </t>
+          <t xml:space="preserve">select  svl  from tblFieldDataSnakeDataCollection order by svl desc limit 1 </t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-1</v>
+        <v>170</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1034,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">select sex, avg(weight) avgWeight, avg(svl) avgSvl from tblFieldDataSnakeDataCollection group by sex </t>
+          <t xml:space="preserve">select sex, avg(weight) avgWeight, avg(svl) avgSvl from tblFieldDataSnakeDataCollection group by sex  </t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1071,7 +1075,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">select [Species_Code], avg(TLength) avgTLength, avg(Weight) avgWeight from tblFieldDataSnakeDataCollection group by [Species_Code] </t>
+          <t xml:space="preserve">select [Species_Code], avg(TLength) avgTLength, avg(Weight) avgWeight from tblFieldDataSnakeDataCollection group by [Species_Code]  </t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1114,7 +1118,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">select [Agency/Title], count(distinct recordID) from tblFieldDataTurtleMeasurements t join tlinkObservers ol on t.EventID = ol.EventID join Observer_LU o on o.obsinits = ol.obsinits group by [Agency/Title] </t>
+          <t xml:space="preserve">select [Agency/Title], count(distinct recordID) from tblFieldDataTurtleMeasurements t join tlinkObservers ol on t.EventID = ol.EventID join Observer_LU o on o.obsinits = ol.obsinits group by [Agency/Title]  </t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1159,7 +1163,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">select e.Eventid  from tblEvents e join tblEventDataHerps ed on e.eventid = ed.EventID join tlinkObservers ol on ed.EventID = ol.EventID join Observer_LU o on ol.ObsInits = o.ObsInits where year = 2004  	and firstName = 'allison' 	and lastName = 'turner' </t>
+          <t xml:space="preserve">select e.Eventid  from tblEvents e join tblEventDataHerps ed on e.eventid = ed.EventID join tlinkObservers ol on ed.EventID = ol.EventID join Observer_LU o on ol.ObsInits = o.ObsInits where year = 2004  	and firstName = 'allison' 	and lastName = 'turner'  </t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1201,7 +1205,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct o.ObsInits, firstName, lastName  from tlinkObservers ol join Observer_LU o on ol.ObsInits = o.ObsInits join tblFieldDataTurtleMeasurements tm on tm.EventID = ol.EventID </t>
+          <t xml:space="preserve">select distinct o.ObsInits, firstName, lastName  from tlinkObservers ol join Observer_LU o on ol.ObsInits = o.ObsInits join tblFieldDataTurtleMeasurements tm on tm.EventID = ol.EventID  </t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1241,7 +1245,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct [species_code]) speciesCount from tblFieldDataGreenCardObservations </t>
+          <t xml:space="preserve">select count(distinct [species_code]) speciesCount from tblFieldDataGreenCardObservations  </t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1291,7 +1295,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve">select l.locationId, avg(UTMX) X, avg(UTMY) Y from tblFieldDataTimeConstrainedSearches df join tblLocationsPoints l on df.LocationID = l.LocationID group by l.locationId </t>
+          <t xml:space="preserve">select l.locationId, avg(UTMX) X, avg(UTMY) Y from tblFieldDataTimeConstrainedSearches df join tblLocationsPoints l on df.LocationID = l.LocationID group by l.locationId  </t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1333,7 +1337,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">select description, count(*) minnowCount from tlustage s join tblFieldDataMinnowTrapSurveys m on s.stage = m.stage group by description </t>
+          <t xml:space="preserve">select description, count(*) minnowCount from tlustage s join tblFieldDataMinnowTrapSurveys m on s.stage = m.stage group by description  </t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1374,7 +1378,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">select AbundanceID, AbundanceText from tblAbundance_LU where Abundance = 'Occasional' </t>
+          <t xml:space="preserve">select AbundanceID, AbundanceText from tblAbundance_LU where Abundance = 'Occasional'  </t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1415,7 +1419,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct LocationID  from tblFieldDataCoverBoard where type = 'Wood' </t>
+          <t xml:space="preserve">select distinct LocationID  from tblFieldDataCoverBoard where type = 'Wood'  </t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1454,7 +1458,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve">select [Board_#], type  from tblFieldDataCoverBoard cb join tblLocations l on cb.LocationID = l.LocationID where siteid = '18CB1' and [Board_#] &lt;&gt; 0 </t>
+          <t xml:space="preserve">select [Board_#], type  from tblFieldDataCoverBoard cb join tblLocations l on cb.LocationID = l.LocationID where siteid = '18CB1' and [Board_#] &lt;&gt; 0  </t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1499,7 +1503,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(AirTemp) as avgTemp  from tblFieldDataCoverBoard cb join tblEventDataHerps ev on cb.EventID = ev.EventID join tblLocations l on cb.LocationID = l.LocationID where Type = 'Metal' and SiteId = '30CB2' and weather = 'cloudy' </t>
+          <t xml:space="preserve">select avg(AirTemp) as avgTemp  from tblFieldDataCoverBoard cb join tblEventDataHerps ev on cb.EventID = ev.EventID join tblLocations l on cb.LocationID = l.LocationID where Type = 'Metal' and SiteId = '30CB2' and weather = 'cloudy'  </t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1533,7 +1537,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SELECT Behavior, COUNT(*) AS RecordCount
+          <t>SELECT Behavior, COUNT(*) AS record_count
 FROM tblFieldDataSnakeDataCollection
 WHERE CaptureMethod = 'coverboard'
 GROUP BY Behavior</t>
@@ -1541,7 +1545,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve">select behavior, count(*) as recordCount from tblFieldDataSnakeDataCollection where capturemethod = 'coverboard' group by behavior </t>
+          <t xml:space="preserve">select behavior, count(*) as recordCount from tblFieldDataSnakeDataCollection where capturemethod = 'coverboard' group by behavior  </t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1582,7 +1586,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Behavior, CaptureMethod  from tblFieldDataSnakeDataCollection where notes like '%rafters%' </t>
+          <t xml:space="preserve">select Behavior, CaptureMethod  from tblFieldDataSnakeDataCollection where notes like '%rafters%'  </t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1621,7 +1625,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PointID, SnakeID, [Board_#], UTMX, UTMY from tblFieldDataCoverBoard cb join tblLocations l on cb.LocationID = l.LocationID join tblLocationsPoints lp on l.LocationID = lp.LocationID where Recapture = 'new' and siteid = '18CB1' </t>
+          <t xml:space="preserve">select PointID, SnakeID, [Board_#], UTMX, UTMY from tblFieldDataCoverBoard cb join tblLocations l on cb.LocationID = l.LocationID join tblLocationsPoints lp on l.LocationID = lp.LocationID where Recapture = 'new' and siteid = '18CB1'  </t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1655,18 +1659,18 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SELECT DISTINCT ObsInits
+          <t>SELECT DISTINCT tlinkObservers.ObsInits
 FROM tlinkObservers
-WHERE EventID IN (SELECT EventID FROM tblFieldDataCoverBoard)</t>
+JOIN tblFieldDataCoverBoard ON tlinkObservers.EventID = tblFieldDataCoverBoard.EventID</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct o.ObsInits from Observer_LU o join tlinkObservers tlo on o.ObsInits = tlo.ObsInits join tblEvents e on tlo.EventID = e.EventID join tblFieldDataCoverBoard cb on e.EventID = cb.EventID </t>
+          <t xml:space="preserve">select distinct o.ObsInits from Observer_LU o join tlinkObservers tlo on o.ObsInits = tlo.ObsInits join tblEvents e on tlo.EventID = e.EventID join tblFieldDataCoverBoard cb on e.EventID = cb.EventID  </t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="H30" t="b">
         <v>1</v>
@@ -1696,24 +1700,18 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SELECT 
-    Weather, 
-    COUNT(*) AS event_count, 
-    AVG(AirTemp) AS avg_air_temp, 
-    AVG(WaterTemp) AS avg_water_temp
-FROM 
-    tblEventDataHerps
-GROUP BY 
-    Weather</t>
+          <t>SELECT Weather, COUNT(*) AS event_count, AVG(AirTemp) AS avg_air_temp, AVG(WaterTemp) AS avg_water_temp
+FROM tblEventDataHerps
+GROUP BY Weather</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve">select weather, count(*) eventCount, avg(airtemp) avgAirTemp, avg(watertemp) avgWaterTemp  from tblEventDataHerps group by weather </t>
+          <t xml:space="preserve">select weather, count(*) eventCount, avg(airtemp) avgAirTemp, avg(watertemp) avgWaterTemp  from tblEventDataHerps group by weather  </t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="H31" t="b">
         <v>1</v>
@@ -1743,14 +1741,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SELECT ObsInits, AVG(AirTemp) AS avg_air_temp
+          <t>SELECT ObsInits, AVG(AirTemp) AS AvgAirTemp
 FROM tblEventDataHerps
 GROUP BY ObsInits</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve">select o.ObsInits, avg(airtemp) avgAirTemp from Observer_LU o join tlinkObservers tlo on o.ObsInits = tlo.ObsInits join tblEventDataHerps e on tlo.EventID = e.EventID group by o.ObsInits </t>
+          <t xml:space="preserve">select o.ObsInits, avg(airtemp) avgAirTemp from Observer_LU o join tlinkObservers tlo on o.ObsInits = tlo.ObsInits join tblEventDataHerps e on tlo.EventID = e.EventID group by o.ObsInits  </t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1784,14 +1782,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SELECT Weather, AVG(AirTemp) AS avg_air_temp
+          <t>SELECT Weather, AVG(AirTemp) AS AvgAirTemp
 FROM tblEventDataHerps
 GROUP BY Weather</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve">select weather, avg(airtemp) avgAirTemp  from tblEventDataHerps group by weather </t>
+          <t xml:space="preserve">select weather, avg(airtemp) avgAirTemp  from tblEventDataHerps group by weather  </t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1830,7 +1828,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve">select description  from tluProject where project = 'WQ' </t>
+          <t xml:space="preserve">select description  from tluProject where project = 'WQ'  </t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1869,7 +1867,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve">select parktype  from tluParkCode where parkcode = 'ASIS' </t>
+          <t xml:space="preserve">select parktype  from tluParkCode where parkcode = 'ASIS'  </t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -1908,7 +1906,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve">select text  from tluEvidenceCode where [evidence_code] = 'DOR' </t>
+          <t xml:space="preserve">select text  from tluEvidenceCode where [evidence_code] = 'DOR'  </t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -1949,7 +1947,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve">select habitat, description  from tluMicroHabitat where habitat in ('Temporary Pond', 'Permanent Pond') </t>
+          <t xml:space="preserve">select habitat, description  from tluMicroHabitat where habitat in ('Temporary Pond', 'Permanent Pond')  </t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -1990,7 +1988,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve">select [trap_type], count(*) recordCount from tblFieldDataTurtleTrapSurveys group by [Trap_Type] </t>
+          <t xml:space="preserve">select [trap_type], count(*) recordCount from tblFieldDataTurtleTrapSurveys group by [Trap_Type]  </t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -2031,7 +2029,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct t.locationid from tblLocations l join tblFieldDataTurtleTrapSurveys t on l.LocationID = t.LocationID where [trap_type] = 'crab' </t>
+          <t xml:space="preserve">select distinct t.locationid from tblLocations l join tblFieldDataTurtleTrapSurveys t on l.LocationID = t.LocationID where [trap_type] = 'crab'  </t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -2080,7 +2078,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve">select sex, avg([carapace_length]) avgCarLen, avg([carapace_width]) avgCarWid,  			avg([plastron_length]) avgPlasLen, avg([plastron_width]) avgPlasWid, 			avg(weight) avgWeight from tblFieldDataTurtleMeasurements group by sex </t>
+          <t xml:space="preserve">select sex, avg([carapace_length]) avgCarLen, avg([carapace_width]) avgCarWid,  			avg([plastron_length]) avgPlasLen, avg([plastron_width]) avgPlasWid, 			avg(weight) avgWeight from tblFieldDataTurtleMeasurements group by sex  </t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -2121,7 +2119,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) gravidCount from tblFieldDataTurtleMeasurements where gravid = 1 </t>
+          <t xml:space="preserve">select count(*) gravidCount from tblFieldDataTurtleMeasurements where gravid = 1  </t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -2157,16 +2155,16 @@
         <is>
           <t>SELECT DISTINCT tlu_PlantSpecies.SpeciesCode, tlu_PlantSpecies.genus, tlu_PlantSpecies.subgenus, tlu_PlantSpecies.CommonName
 FROM tlu_PlantSpecies
-INNER JOIN tbl_Nests ON tlu_PlantSpecies.SpeciesCode = tbl_Nests.SpCode</t>
+JOIN tbl_Nests ON tlu_PlantSpecies.SpeciesCode = tbl_Nests.SpCode</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct CommonName, SpCode, genus, subgenus  from tbl_Nests join tlu_PlantSpecies on tbl_Nests.SpCode = tlu_PlantSpecies.SpeciesCode order by CommonName </t>
+          <t xml:space="preserve">select distinct CommonName, SpCode, genus, subgenus  from tbl_Nests join tlu_PlantSpecies on tbl_Nests.SpCode = tlu_PlantSpecies.SpeciesCode order by CommonName  </t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
@@ -2204,7 +2202,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct CommonName  from tlu_PlantSpecies where SpeciesCode not in ( 	select distinct SpCode from tbl_Nests 	) </t>
+          <t xml:space="preserve">select distinct CommonName  from tlu_PlantSpecies where SpeciesCode not in ( 	select distinct SpCode from tbl_Nests 	)  </t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -2236,21 +2234,30 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>SELECT ps.genus, COUNT(*) AS num_nested_subplots
+FROM tbl_Nests n
+JOIN tlu_PlantSpecies ps ON n.SpCode = ps.SpeciesCode
+GROUP BY ps.genus
+ORDER BY num_nested_subplots DESC
+LIMIT 5</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t xml:space="preserve">select TOP 5 genus, count(*) as NestCount  from tlu_PlantSpecies join tbl_Nests on tlu_PlantSpecies.SpeciesCode = tbl_Nests.SpCode group by genus order by NestCount desc </t>
+          <t xml:space="preserve">select  genus, count(*) as NestCount  from tlu_PlantSpecies join tbl_Nests on tlu_PlantSpecies.SpeciesCode = tbl_Nests.SpCode group by genus order by NestCount desc limit 5 </t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>-1</v>
+        <v>224</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -2273,17 +2280,16 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>SELECT DecayStage, Description
-FROM tlu_DecayStage</t>
+          <t>SELECT DecayStage, Description FROM tlu_DecayStage</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t xml:space="preserve">select *  from tlu_DecayStage </t>
+          <t xml:space="preserve">select *  from tlu_DecayStage  </t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -2318,7 +2324,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct Event_ID)  from tbl_Deadwood </t>
+          <t xml:space="preserve">select count(distinct Event_ID)  from tbl_Deadwood  </t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -2359,7 +2365,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Event_ID, count(*)  from tbl_Deadwood  group by Event_ID </t>
+          <t xml:space="preserve">select Event_ID, count(*)  from tbl_Deadwood  group by Event_ID  </t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -2408,18 +2414,18 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve">select DecayStage_Descr, count(*) as numLogs  from tbl_Deadwood join tlu_DecayStage on tbl_Deadwood.Decay = tlu_DecayStage.DecayStage_ID where Event_ID in ( 	select TOP 1 Event_ID from tbl_Deadwood group by Event_ID order by count(*) desc ) group by DecayStage_Descr </t>
+          <t xml:space="preserve">select DecayStage_Descr, count(*) as numLogs  from tbl_Deadwood join tlu_DecayStage on tbl_Deadwood.Decay = tlu_DecayStage.DecayStage_ID where Event_ID in ( 	select Event_ID from tbl_Deadwood group by Event_ID order by count(*) desc limit 1 ) group by DecayStage_Descr  </t>
         </is>
       </c>
       <c r="G48" t="n">
         <v>279</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -2458,7 +2464,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT e.Event_ID, Deadwood_Count, Nest_Count  FROM tbl_Events AS e JOIN (     SELECT Event_ID, COUNT(*) AS Deadwood_Count     FROM tbl_Deadwood     GROUP BY Event_ID ) AS dw ON e.Event_ID = dw.Event_ID JOIN (     SELECT Event_ID, COUNT(*) AS Nest_Count     FROM tbl_Nests     GROUP BY Event_ID ) AS ne ON e.Event_ID = ne.Event_ID order by Deadwood_Count desc </t>
+          <t xml:space="preserve">SELECT e.Event_ID, Deadwood_Count, Nest_Count  FROM tbl_Events AS e JOIN (     SELECT Event_ID, COUNT(*) AS Deadwood_Count     FROM tbl_Deadwood     GROUP BY Event_ID ) AS dw ON e.Event_ID = dw.Event_ID JOIN (     SELECT Event_ID, COUNT(*) AS Nest_Count     FROM tbl_Nests     GROUP BY Event_ID ) AS ne ON e.Event_ID = ne.Event_ID order by Deadwood_Count desc  </t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -2496,29 +2502,28 @@
 FROM tbl_Locations l
 JOIN tbl_Events e ON l.Location_ID = e.Location_ID
 WHERE e.Event_ID = (
-    SELECT e2.Event_ID
-    FROM tbl_Events e2
-    LEFT JOIN tbl_NestedSubplotObservations n ON e2.Event_ID = n.Event_ID
-    GROUP BY e2.Event_ID
-    ORDER BY COUNT(n.NestedSubplotObservation_ID) DESC
+    SELECT n.Event_ID
+    FROM tbl_Nests n
+    GROUP BY n.Event_ID
+    ORDER BY COUNT(*) DESC
     LIMIT 1
 )</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT Plot_ID, X_Coord, Y_Coord, Directions  from tbl_Locations l JOIN tbl_Events e on e.Location_ID = l.Location_ID WHERE e.Event_ID in ( 	SELECT TOP 1 Event_ID  	from tbl_Nests  	group by Event_ID  	order by count(*)  ) </t>
+          <t xml:space="preserve">SELECT Plot_ID, X_Coord, Y_Coord, Directions  from tbl_Locations l JOIN tbl_Events e on e.Location_ID = l.Location_ID WHERE e.Event_ID in ( 	SELECT Event_ID  	from tbl_Nests  	group by Event_ID  	order by count(*) limit 1  )  </t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2554,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(DBH) AvgDBH from tbl_Overstory o join tlu_PlantSpecies p on o.SpCode = p.SpeciesCode where genus = 'Acer' </t>
+          <t xml:space="preserve">select avg(DBH) AvgDBH from tbl_Overstory o join tlu_PlantSpecies p on o.SpCode = p.SpeciesCode where genus = 'Acer'  </t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -2584,18 +2589,18 @@
       <c r="E52" t="inlineStr">
         <is>
           <t>SELECT tlu_Can_Pos.CanPos_Name, COUNT(tbl_Overstory.CanPos) AS tree_count
-FROM tlu_Can_Pos
-LEFT JOIN tbl_Overstory ON tlu_Can_Pos.CanPos_Num = tbl_Overstory.CanPos
+FROM tbl_Overstory
+JOIN tlu_Can_Pos ON tbl_Overstory.CanPos = tlu_Can_Pos.CanPos_Num
 GROUP BY tlu_Can_Pos.CanPos_Name</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t xml:space="preserve">select CanPos_Name, count(*) as treeCount from tlu_Can_Pos p join tbl_Overstory o on p.CanPos_Num = o.CanPos group by CanPos_Name </t>
+          <t xml:space="preserve">select CanPos_Name, count(*) as treeCount from tlu_Can_Pos p join tbl_Overstory o on p.CanPos_Num = o.CanPos group by CanPos_Name  </t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
@@ -2634,7 +2639,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t xml:space="preserve">select CommonName, TreeTag from tlu_PlantSpecies s join tbl_Overstory o on s.SpeciesCode = o.SpCode join tlu_Tree_Cond c on o.TreeCond = c.TreeCond_Num where TreeCond_Text = 'down' </t>
+          <t xml:space="preserve">select CommonName, TreeTag from tlu_PlantSpecies s join tbl_Overstory o on s.SpeciesCode = o.SpCode join tlu_Tree_Cond c on o.TreeCond = c.TreeCond_Num where TreeCond_Text = 'down'  </t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -2668,7 +2673,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>SELECT spcode, COUNT(*) as sapling_count
+          <t>SELECT spcode, COUNT(*) AS sapling_count
 FROM tbl_Saplings
 GROUP BY spcode
 HAVING COUNT(*) &gt; 20</t>
@@ -2676,7 +2681,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t xml:space="preserve">select spcode, count(*) as saplingCount from tbl_Saplings group by spcode having count(*) &gt; 20 </t>
+          <t xml:space="preserve">select spcode, count(*) as saplingCount from tbl_Saplings group by spcode having count(*) &gt; 20  </t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -2717,7 +2722,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) as SaplingCount from tbl_Saplings where DClass3 &gt; 10 </t>
+          <t xml:space="preserve">select count(*) as SaplingCount from tbl_Saplings where DClass3 &gt; 10  </t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -2758,7 +2763,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SpCode, max(Density) seedlingDensity from tbl_Seedlings group by SpCode </t>
+          <t xml:space="preserve">select SpCode, max(Density) seedlingDensity from tbl_Seedlings group by SpCode  </t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -2797,7 +2802,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct Event_ID) EventCount from tbl_Seedlings </t>
+          <t xml:space="preserve">select count(distinct Event_ID) EventCount from tbl_Seedlings  </t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -2839,7 +2844,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t xml:space="preserve">select directions  from tbl_Tree_Tags t join tbl_Locations l on t.Location_ID = l.Location_ID where Tree_Tag_ID = 6 </t>
+          <t xml:space="preserve">select directions  from tbl_Tree_Tags t join tbl_Locations l on t.Location_ID = l.Location_ID where Tree_Tag_ID = 6  </t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -2880,7 +2885,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SiteDescription, Loc_Notes  from tbl_locations where Elevation &gt; 4000 </t>
+          <t xml:space="preserve">select SiteDescription, Loc_Notes  from tbl_locations where Elevation &gt; 4000  </t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -2922,8 +2927,7 @@
     tbl_Nests n
 JOIN 
     tlu_Cover_Cls c
-ON 
-    n.Cover = c.CoverClass_Num
+    ON n.Cover = c.CoverClass_Num
 GROUP BY 
     n.Event_ID,
     c.CoverClass_Text</t>
@@ -2931,11 +2935,11 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Event_ID, CoverClass_Text, count(*) NestCount from tlu_Cover_Cls cc join tbl_Nests n on cc.CoverClass_Num = n.Cover group by Event_ID, CoverClass_Text </t>
+          <t xml:space="preserve">select Event_ID, CoverClass_Text, count(*) NestCount from tlu_Cover_Cls cc join tbl_Nests n on cc.CoverClass_Num = n.Cover group by Event_ID, CoverClass_Text  </t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
@@ -2972,7 +2976,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Witness_Azimuth, Witness_stake from tbl_WitnessTrees where Witness_DBH &lt; 30 </t>
+          <t xml:space="preserve">select Witness_Azimuth, Witness_stake from tbl_WitnessTrees where Witness_DBH &lt; 30  </t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -3006,20 +3010,28 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>SELECT ps.genus, ps.species, COUNT(wt.Witness_SpCode) AS total_witness_trees
-FROM tlu_PlantSpecies ps
-LEFT JOIN tbl_WitnessTrees wt
-  ON ps.SpeciesCode = wt.Witness_SpCode
-GROUP BY ps.genus, ps.species</t>
+          <t>SELECT 
+    ps.genus, 
+    ps.species, 
+    COUNT(wt.Witness_SpCode) AS total_witness_trees
+FROM 
+    tlu_PlantSpecies ps
+LEFT JOIN 
+    tbl_WitnessTrees wt
+ON 
+    ps.SpeciesCode = wt.Witness_SpCode
+GROUP BY 
+    ps.genus, 
+    ps.species</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t xml:space="preserve">select genus, species, count(*) treeCount from tlu_PlantSpecies s join tbl_WitnessTrees w on s.SpeciesCode = w.Witness_SpCode group by genus, species </t>
+          <t xml:space="preserve">select genus, species, count(*) treeCount from tlu_PlantSpecies s join tbl_WitnessTrees w on s.SpeciesCode = w.Witness_SpCode group by genus, species  </t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -3058,7 +3070,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t xml:space="preserve">select ListedName, ValidName  from tlu_Roads_and_Trails rt join tbl_locations l on l.Trail = rt.ListedName join tbl_Events e on e.Location_ID = l.Location_ID where e.Event_ID = 2 </t>
+          <t xml:space="preserve">select ListedName, ValidName  from tlu_Roads_and_Trails rt join tbl_locations l on l.Trail = rt.ListedName join tbl_Events e on e.Location_ID = l.Location_ID where e.Event_ID = 2  </t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -3101,7 +3113,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t xml:space="preserve">select State, County, count(*) tagCount from tlu_PlaceNames pn join tbl_locations l on pn.id = l.PlaceNameID join tbl_Tree_Tags tg on l.Location_ID = tg.Location_ID group by State, County </t>
+          <t xml:space="preserve">select State, County, count(*) tagCount from tlu_PlaceNames pn join tbl_locations l on pn.id = l.PlaceNameID join tbl_Tree_Tags tg on l.Location_ID = tg.Location_ID group by State, County  </t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -3142,7 +3154,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> select Name, utmE, utmN   from tlu_PlaceNames  where county = 'Blount' </t>
+          <t xml:space="preserve"> select Name, utmE, utmN   from tlu_PlaceNames  where county = 'Blount'  </t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -3184,7 +3196,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t xml:space="preserve">select t.TopoPosition from tlu_topo_position t join tbl_Locations l on l.Topo_Position = t.ID where x_coord = 269647 and y_coord = 3943851 </t>
+          <t xml:space="preserve">select t.TopoPosition from tlu_topo_position t join tbl_Locations l on l.Topo_Position = t.ID where x_coord = 269647 and y_coord = 3943851  </t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -3223,7 +3235,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Cond_Num from tlu_live_dead where Cond_Text = 'Dead' </t>
+          <t xml:space="preserve">select Cond_Num from tlu_live_dead where Cond_Text = 'Dead'  </t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -3262,7 +3274,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t xml:space="preserve">select pres_text  from tlu_presence where pres_num = 3 </t>
+          <t xml:space="preserve">select pres_text  from tlu_presence where pres_num = 3  </t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -3301,7 +3313,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Datum  from tsys_App_Defaults  </t>
+          <t xml:space="preserve">select Datum  from tsys_App_Defaults   </t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -3346,7 +3358,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct genus, species, CommonName from tlu_PlantSpecies sp join tbl_Overstory os on sp.SpeciesCode = os.SpCode join tbl_Tree_Tags tt on tt.Tree_Tag_ID = os.TreeTag join tbl_locations l on l.Location_ID = tt.Location_ID join tlu_PlaceNames pn on pn.ID = l.PlaceNameID where county = 'Swain' </t>
+          <t xml:space="preserve">select distinct genus, species, CommonName from tlu_PlantSpecies sp join tbl_Overstory os on sp.SpeciesCode = os.SpCode join tbl_Tree_Tags tt on tt.Tree_Tag_ID = os.TreeTag join tbl_locations l on l.Location_ID = tt.Location_ID join tlu_PlaceNames pn on pn.ID = l.PlaceNameID where county = 'Swain'  </t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -3384,19 +3396,18 @@
 FROM tlu_PlantSpecies ps
 JOIN tbl_Overstory o ON ps.SpeciesCode = o.SpCode
 WHERE ps.SpeciesCode NOT IN (
-    SELECT s.SpCode
-    FROM tbl_Seedlings s
+    SELECT SpCode FROM tbl_Seedlings
 )
 GROUP BY ps.species, ps.CommonName</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t xml:space="preserve">select species, CommonName from tlu_PlantSpecies sp where exists( 	select overstory_id  	from tbl_Overstory  	where SpCode = sp.SpeciesCode ) and not exists ( 	select Seedlings_ID  	from tbl_Seedlings  	where SpCode = sp.SpeciesCode ) </t>
+          <t xml:space="preserve">select species, CommonName from tlu_PlantSpecies sp where exists( 	select overstory_id  	from tbl_Overstory  	where SpCode = sp.SpeciesCode ) and not exists ( 	select Seedlings_ID  	from tbl_Seedlings  	where SpCode = sp.SpeciesCode )  </t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
@@ -3431,7 +3442,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Xcoord, Ycoord  from tbl_Tree_Tags where tag = 652 </t>
+          <t xml:space="preserve">select Xcoord, Ycoord  from tbl_Tree_Tags where tag = 652  </t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -3473,7 +3484,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t xml:space="preserve">select CoverClass_Text, count(*) NestedSubplotCount from tbl_nests n join tlu_Cover_Cls r2 on n.r2 = r2.CoverClass_Num group by CoverClass_Text </t>
+          <t xml:space="preserve">select CoverClass_Text, count(*) NestedSubplotCount from tbl_nests n join tlu_Cover_Cls r2 on n.r2 = r2.CoverClass_Num group by CoverClass_Text  </t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -3507,7 +3518,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>SELECT tlu_Presence.Pres_Text, COUNT(*) AS num_records
+          <t>SELECT tlu_Presence.Pres_Text, COUNT(tbl_Nests.Presence_First) AS num_records
 FROM tbl_Nests
 JOIN tlu_Presence ON tbl_Nests.Presence_First = tlu_Presence.Pres_Num
 GROUP BY tlu_Presence.Pres_Text</t>
@@ -3515,11 +3526,11 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t xml:space="preserve">select pres_text, count(*) NestedSubplotCount from tbl_nests n join tlu_Presence p on n.Presence_First = p.Pres_Num group by pres_text </t>
+          <t xml:space="preserve">select pres_text, count(*) NestedSubplotCount from tbl_nests n join tlu_Presence p on n.Presence_First = p.Pres_Num group by pres_text  </t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
@@ -3556,7 +3567,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t xml:space="preserve">select decay, max(MPD) maxMPD from tbl_Deadwood group by decay </t>
+          <t xml:space="preserve">select decay, max(MPD) maxMPD from tbl_Deadwood group by decay  </t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -3597,7 +3608,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t xml:space="preserve">select decay, max(length) maxLength from tbl_Deadwood group by decay </t>
+          <t xml:space="preserve">select decay, max(length) maxLength from tbl_Deadwood group by decay  </t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -3631,30 +3642,27 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>SELECT DecayStage_Descr
-FROM tlu_DecayStage
-WHERE DecayStage_ID = (
-    SELECT DecayStage_ID
-    FROM tbl_DownWoodyPiece
-    ORDER BY MidpointDiameter_m ASC
-    LIMIT 1
-)</t>
+          <t>SELECT tlu_DecayStage.DecayStage_Descr
+FROM tbl_Deadwood
+JOIN tlu_DecayStage ON tbl_Deadwood.Decay = tlu_DecayStage.DecayStage_ID
+WHERE tbl_Deadwood.MPD = (SELECT MIN(MPD) FROM tbl_Deadwood)
+LIMIT 1</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t xml:space="preserve">select DecayStage_Descr from tlu_DecayStage ds where ds.DecayStage_ID in ( 	select top 1 decay 	from tbl_Deadwood 	order by MPD asc ) </t>
+          <t xml:space="preserve">select DecayStage_Descr from tlu_DecayStage ds where ds.DecayStage_ID in ( 	select decay 	from tbl_Deadwood 	order by MPD asc limit 1 )  </t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -3677,35 +3685,26 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>SELECT DecayStage_Descr
-FROM tlu_DecayStage
-WHERE DecayStage_ID = (
-    SELECT DecayStage_ID
-    FROM (
-        SELECT DecayStage_ID
-        FROM tlu_DecayStage
-        JOIN (
-            SELECT DecayStage_ID, MIN(Length) as MinLength
-            FROM SomeTableWithLength
-        ) AS MinDecay ON tlu_DecayStage.DecayStage_ID = MinDecay.DecayStage_ID
-    )
-)</t>
+          <t>SELECT d.DecayStage_Descr
+FROM tbl_Deadwood dw
+JOIN tlu_DecayStage d ON dw.Decay = d.DecayStage_ID
+WHERE dw.Length = (SELECT MIN(Length) FROM tbl_Deadwood)</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t xml:space="preserve">select DecayStage_Descr from tlu_DecayStage ds where ds.DecayStage_ID in ( 	select top 1 decay 	from tbl_Deadwood 	order by Length asc ) </t>
+          <t xml:space="preserve">select DecayStage_Descr from tlu_DecayStage ds where ds.DecayStage_ID in ( 	select decay 	from tbl_Deadwood 	order by Length asc limit 1 )  </t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -3735,7 +3734,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SiteDescription, slope, Aspect, Loc_Notes, Accuracy_Notes from tbl_Locations where slope_shape = 'convex' </t>
+          <t xml:space="preserve">select SiteDescription, slope, Aspect, Loc_Notes, Accuracy_Notes from tbl_Locations where slope_shape = 'convex'  </t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -3774,7 +3773,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t xml:space="preserve">select QuadName from tbl_Locations where Topo_Position = 7 </t>
+          <t xml:space="preserve">select QuadName from tbl_Locations where Topo_Position = 7  </t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -3808,15 +3807,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>SELECT t.TreeCond_Text, COUNT(s.Condition) AS SaplingCount
-FROM tlu_Tree_Cond t
-LEFT JOIN tbl_Saplings s ON t.TreeCond_Num = s.Condition
-GROUP BY t.TreeCond_Text</t>
+          <t>SELECT tc.TreeCond_Text, COUNT(s.Condition) AS SaplingCount
+FROM tlu_Tree_Cond tc
+LEFT JOIN tbl_Saplings s ON tc.TreeCond_Num = s.Condition
+GROUP BY tc.TreeCond_Text</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t xml:space="preserve">select TreeCond_Text, count(*) saplingCount from tbl_Saplings s join tlu_Tree_Cond c on s.Condition = c.TreeCond_Num group by TreeCond_Text </t>
+          <t xml:space="preserve">select TreeCond_Text, count(*) saplingCount from tbl_Saplings s join tlu_Tree_Cond c on s.Condition = c.TreeCond_Num group by TreeCond_Text  </t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -3857,7 +3856,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t xml:space="preserve">select notes  from VERTEBRATES where Ownership = 'BLM' and Common_Name like 'gray wolf' </t>
+          <t xml:space="preserve">select notes  from VERTEBRATES where Ownership = 'BLM' and Common_Name like 'gray wolf'  </t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -3898,7 +3897,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) obsCount from VERTEBRATES where observer like 'Stefanic' or observer like 'Dennis Hauser' </t>
+          <t xml:space="preserve">select count(*) obsCount from VERTEBRATES where observer like 'Stefanic' or observer like 'Dennis Hauser'  </t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -3935,23 +3934,24 @@
           <t>SELECT 
     bc.Breed, 
     bc.Definition, 
-    COUNT(v.Common_Name) AS Observation_Count
+    COUNT(v.Common_Name) AS Vertebrate_Observations_Count
 FROM 
     Breeding_Codes bc
 LEFT JOIN 
     VERTEBRATES v
     ON bc.Breed = v.BREED AND v.Common_Name = 'mule deer'
 GROUP BY 
-    bc.Breed, bc.Definition</t>
+    bc.Breed, 
+    bc.Definition</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t xml:space="preserve">select definition, count(*) deerCount from breeding_codes bc join VERTEBRATES v on bc.Breed = v.BREED where Common_Name = 'mule deer' group by definition </t>
+          <t xml:space="preserve">select definition, count(*) deerCount from breeding_codes bc join VERTEBRATES v on bc.Breed = v.BREED where Common_Name = 'mule deer' group by definition  </t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -3988,7 +3988,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Common_Name, Genus_species  from INVERTEBRATES where class like 'arachnida' </t>
+          <t xml:space="preserve">select Common_Name, Genus_species  from INVERTEBRATES where class like 'arachnida'  </t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -4030,7 +4030,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct family  from INVERTEBRATES i where not exists ( 	select Invert_Family  	from Invert_Family 	where Invert_Family = i.Family ) and family IS NOT NULL </t>
+          <t xml:space="preserve">select distinct family  from INVERTEBRATES i where not exists ( 	select Invert_Family  	from Invert_Family 	where Invert_Family = i.Family ) and family IS NOT NULL  </t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct Species  from Roadkill where HWY_Mile_Marker = '235' </t>
+          <t xml:space="preserve">select distinct Species  from Roadkill where HWY_Mile_Marker = '235'  </t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Month, count(*) roadkillCount from Roadkill where year = 2014 group by Month </t>
+          <t xml:space="preserve">select Month, count(*) roadkillCount from Roadkill where year = 2014 group by Month  </t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t xml:space="preserve">select comments  from roadkill where year &lt; 1990 </t>
+          <t xml:space="preserve">select comments  from roadkill where year &lt; 1990  </t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -4193,11 +4193,11 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) deerCount from roadkill where species like 'mule deer' and year = 2015 </t>
+          <t xml:space="preserve">select count(*) deerCount from roadkill where species like 'mule deer' and year = 2015  </t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H90" t="b">
         <v>1</v>
@@ -4234,7 +4234,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) recordCount from Roadkill r where exists( 	select *  	from vertebrates 	where r.Date = Date ) </t>
+          <t xml:space="preserve">select count(*) recordCount from Roadkill r where exists( 	select *  	from vertebrates 	where r.Date = Date )  </t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -4266,21 +4266,28 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>SELECT Species, Year, Month
+FROM Roadkill
+ORDER BY CAST(number_killed AS INTEGER) DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 species, year, month  from Roadkill order by number_killed desc </t>
+          <t xml:space="preserve">select  species, year, month  from Roadkill order by number_killed desc limit 1 </t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>-1</v>
+        <v>191</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -4305,8 +4312,8 @@
         <is>
           <t>SELECT 
     hc.Definition AS habitat_definition,
-    COUNT(v.Habitat) AS vertebrate_count,
-    COUNT(i.Habitat) AS invertebrate_count
+    COUNT(DISTINCT v.Habitat) AS vertebrates_count,
+    COUNT(DISTINCT i.Habitat) AS invertebrates_count
 FROM HABITAT_CODES hc
 LEFT JOIN VERTEBRATES v ON v.Habitat = hc.Code
 LEFT JOIN INVERTEBRATES i ON i.Habitat = hc.Code
@@ -4315,11 +4322,11 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t xml:space="preserve">select definition, vertHabCount, invertHabCount from HABITAT_CODES h join ( 	select Habitat, count(*) vertHabCount 	from VERTEBRATES 	group by habitat ) v on v.Habitat = h.Code join ( 	select Habitat, count(*) invertHabCount 	from INVERTEBRATES 	group by habitat ) i on i.Habitat = h.Code </t>
+          <t xml:space="preserve">select definition, vertHabCount, invertHabCount from HABITAT_CODES h join ( 	select Habitat, count(*) vertHabCount 	from VERTEBRATES 	group by habitat ) v on v.Habitat = h.Code join ( 	select Habitat, count(*) invertHabCount 	from INVERTEBRATES 	group by habitat ) i on i.Habitat = h.Code  </t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
@@ -4351,18 +4358,21 @@
         <is>
           <t>SELECT hc.Definition
 FROM HABITAT_CODES hc
-JOIN INVERTEBRATES i ON hc.Code = i.Habitat
-GROUP BY hc.Code, hc.Definition
-HAVING COUNT(*) &gt; 40</t>
+JOIN (
+    SELECT Habitat
+    FROM INVERTEBRATES
+    GROUP BY Habitat
+    HAVING COUNT(*) &gt; 40
+) inv ON hc.Code = inv.Habitat</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t xml:space="preserve">select definition from HABITAT_CODES where code in ( 	select Habitat 	from INVERTEBRATES 	group by habitat 	having count(*) &gt; 40 ) </t>
+          <t xml:space="preserve">select definition from HABITAT_CODES where code in ( 	select Habitat 	from INVERTEBRATES 	group by habitat 	having count(*) &gt; 40 )  </t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="H94" t="b">
         <v>1</v>
@@ -4403,7 +4413,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t xml:space="preserve">select date, observer, Common_Name  from INVERTEBRATES i where exists ( 	select *  	from VERTEBRATES 	where i.date = date and i.Habitat = Habitat ) </t>
+          <t xml:space="preserve">select date, observer, Common_Name  from INVERTEBRATES i where exists ( 	select *  	from VERTEBRATES 	where i.date = date and i.Habitat = Habitat )  </t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -4454,7 +4464,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t xml:space="preserve">select i.Observer, v.Observer, i.date, Definition from HABITAT_CODES h join INVERTEBRATES i on i.Habitat = h.Code join VERTEBRATES v on v.date = i.date and v.Habitat = i.Habitat </t>
+          <t xml:space="preserve">select i.Observer, v.Observer, i.date, Definition from HABITAT_CODES h join INVERTEBRATES i on i.Habitat = h.Code join VERTEBRATES v on v.date = i.date and v.Habitat = i.Habitat  </t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -4495,7 +4505,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t xml:space="preserve">select OBS_TYPE, count(*) obsCount from INVERTEBRATES group by OBS_TYPE </t>
+          <t xml:space="preserve">select OBS_TYPE, count(*) obsCount from INVERTEBRATES group by OBS_TYPE  </t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -4536,7 +4546,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t xml:space="preserve">select location  from INVERTEBRATES where Genus_species like 'Trichodes ornatus' </t>
+          <t xml:space="preserve">select location  from INVERTEBRATES where Genus_species like 'Trichodes ornatus'  </t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -4570,20 +4580,23 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>SELECT Observer FROM INVERTEBRATES
-WHERE Observer NOT IN (SELECT Observer FROM VERTEBRATES)
-UNION
-SELECT Observer FROM VERTEBRATES
-WHERE Observer NOT IN (SELECT Observer FROM INVERTEBRATES)</t>
+          <t>SELECT Observer
+FROM (
+    SELECT Observer, 'Invertebrates' AS Type FROM INVERTEBRATES
+    UNION ALL
+    SELECT Observer, 'Vertebrates' AS Type FROM VERTEBRATES
+)
+GROUP BY Observer
+HAVING COUNT(DISTINCT Type) = 1</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct observer from INVERTEBRATES except select distinct observer from VERTEBRATES </t>
+          <t xml:space="preserve">select distinct observer from INVERTEBRATES except select distinct observer from VERTEBRATES  </t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -4613,18 +4626,16 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>SELECT UTMN, UTME
-FROM INVERTEBRATES
-WHERE Common_Name = 'western white'</t>
+          <t>SELECT UTMN, UTME FROM INVERTEBRATES WHERE Common_Name = 'western white'</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t xml:space="preserve">select UTMN, UTME  from INVERTEBRATES where Common_Name like 'western white' </t>
+          <t xml:space="preserve">select UTMN, UTME  from INVERTEBRATES where Common_Name like 'western white'  </t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -4661,7 +4672,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Common_Name, Scientific_Name from VERTEBRATES where UTMN = 4814897 and UTME = 291766 </t>
+          <t xml:space="preserve">select Common_Name, Scientific_Name from VERTEBRATES where UTMN = 4814897 and UTME = 291766  </t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -4702,7 +4713,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct species from Roadkill where species not in ( 	select Common_Name 	from VERTEBRATES ) </t>
+          <t xml:space="preserve">select distinct species from Roadkill where species not in ( 	select Common_Name 	from VERTEBRATES )  </t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -4744,7 +4755,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t xml:space="preserve">select family, max(number) maxNum from INVERTEBRATES  where number IS NOT NULL group by family </t>
+          <t xml:space="preserve">select family, max(number) maxNum from INVERTEBRATES  where number IS NOT NULL group by family  </t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -4783,7 +4794,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) errorCount from Paste_Errors where Species like 'deer' </t>
+          <t xml:space="preserve">select count(*) errorCount from Paste_Errors where Species like 'deer'  </t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -4824,7 +4835,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct [order] from INVERTEBRATES where class like 'Insecta' </t>
+          <t xml:space="preserve">select distinct [order] from INVERTEBRATES where class like 'Insecta'  </t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -4866,7 +4877,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t xml:space="preserve">select OBS_TYPE, count(*) obsCount from INVERTEBRATES where location like 'Hot springs' group by OBS_TYPE </t>
+          <t xml:space="preserve">select OBS_TYPE, count(*) obsCount from INVERTEBRATES where location like 'Hot springs' group by OBS_TYPE  </t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -4908,7 +4919,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t xml:space="preserve">select survey, count(*) stefCount from VERTEBRATES where observer like 'stefanic' group by survey </t>
+          <t xml:space="preserve">select survey, count(*) stefCount from VERTEBRATES where observer like 'stefanic' group by survey  </t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -4950,7 +4961,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Scientific_Name from WILDLIFE_MASTERLIST where Common_Name like 'moose' </t>
+          <t xml:space="preserve">select Scientific_Name from WILDLIFE_MASTERLIST where Common_Name like 'moose'  </t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -4992,11 +5003,11 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Location, count(*) gameCount from roadkill where Big_Game like 'yes' group by Location </t>
+          <t xml:space="preserve">select Location, count(*) gameCount from roadkill where Big_Game like 'yes' group by Location  </t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H109" t="b">
         <v>0</v>
@@ -5033,7 +5044,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) mammalCount from VERTEBRATES v join class c on c.Class = v.CLASS where Field2 = 'Mammal' </t>
+          <t xml:space="preserve">select count(*) mammalCount from VERTEBRATES v join class c on c.Class = v.CLASS where Field2 = 'Mammal'  </t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -5085,7 +5096,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t xml:space="preserve">select species, Common_Name,  Scientific_Name, Definition, number from VERTEBRATES v join HABITAT_CODES h on v.Habitat = h.Code where number &gt; 100 </t>
+          <t xml:space="preserve">select species, Common_Name,  Scientific_Name, Definition, number from VERTEBRATES v join HABITAT_CODES h on v.Habitat = h.Code where number &gt; 100  </t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -5128,7 +5139,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Scientific_Name  from WILDLIFE_MASTERLIST where Scientific_Name not in ( 	select Scientific_Name 	from VERTEBRATES ) </t>
+          <t xml:space="preserve">select Scientific_Name  from WILDLIFE_MASTERLIST where Scientific_Name not in ( 	select Scientific_Name 	from VERTEBRATES )  </t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -5169,7 +5180,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Common_Name  from WILDLIFE_MASTERLIST ml where not exists ( 	select * 	from INVERTEBRATES 	where ml.Common_Name = Common_Name ) </t>
+          <t xml:space="preserve">select Common_Name  from WILDLIFE_MASTERLIST ml where not exists ( 	select * 	from INVERTEBRATES 	where ml.Common_Name = Common_Name )  </t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -5215,11 +5226,11 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct species  from Roadkill r where year = 2014 and not exists ( 	select species  	from Roadkill 	where year = 2015 and r.Species = Species ) </t>
+          <t xml:space="preserve">select distinct species  from Roadkill r where year = 2014 and not exists ( 	select species  	from Roadkill 	where year = 2015 and r.Species = Species )  </t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H114" t="b">
         <v>1</v>
@@ -5247,21 +5258,30 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>SELECT HWY_Mile_Marker
+FROM Roadkill
+WHERE Year = '2021'
+GROUP BY HWY_Mile_Marker
+ORDER BY COUNT(*) DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 HWY_Mile_Marker from roadkill where year = 2021 group by HWY_Mile_Marker order by count(location) desc </t>
+          <t xml:space="preserve">select  HWY_Mile_Marker from roadkill where year = 2021 group by HWY_Mile_Marker order by count(location) desc limit 1 </t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>-1</v>
+        <v>196</v>
       </c>
       <c r="H115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -5292,7 +5312,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t xml:space="preserve">select OBS_TYPE, count(*) obsCount from VERTEBRATES where observer = 'Buckley' group by OBS_TYPE </t>
+          <t xml:space="preserve">select OBS_TYPE, count(*) obsCount from VERTEBRATES where observer = 'Buckley' group by OBS_TYPE  </t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -5333,7 +5353,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t xml:space="preserve">select notes  from VERTEBRATES where Observer like 'stefanic' and Common_Name like 'dusky flycatcher' </t>
+          <t xml:space="preserve">select notes  from VERTEBRATES where Observer like 'stefanic' and Common_Name like 'dusky flycatcher'  </t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -5374,7 +5394,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Common_Name, Genus_species, class, family, [order] from invertebrates where location like 'Arco Tunnel' </t>
+          <t xml:space="preserve">select Common_Name, Genus_species, class, family, [order] from invertebrates where location like 'Arco Tunnel'  </t>
         </is>
       </c>
       <c r="G118" t="n">
@@ -5416,7 +5436,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t xml:space="preserve">select location, count(*) obsCount from INVERTEBRATES where location not like 'unknown' and observer like 'Munts' group by location </t>
+          <t xml:space="preserve">select location, count(*) obsCount from INVERTEBRATES where location not like 'unknown' and observer like 'Munts' group by location  </t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -5453,19 +5473,19 @@
           <t>SELECT i.Common_Name
 FROM INVERTEBRATES i
 WHERE i.Habitat IN (
-    SELECT v.Habitat
-    FROM VERTEBRATES v
-    WHERE v.Common_Name = 'northern mockingbird'
+    SELECT Habitat
+    FROM VERTEBRATES
+    WHERE Common_Name = 'northern mockingbird'
 )</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Common_Name  from INVERTEBRATES i where habitat in ( 	select Habitat 	from VERTEBRATES 	where Common_Name like 'Northern mockingbird' ) </t>
+          <t xml:space="preserve">select Common_Name  from INVERTEBRATES i where habitat in ( 	select Habitat 	from VERTEBRATES 	where Common_Name like 'Northern mockingbird' )  </t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H120" t="b">
         <v>0</v>
@@ -5500,7 +5520,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) codeCount from HABITAT_CODES </t>
+          <t xml:space="preserve">select count(*) codeCount from HABITAT_CODES  </t>
         </is>
       </c>
       <c r="G121" t="n">
@@ -5542,18 +5562,18 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Event_Notes, Location_ID from tbl_Event_Details d join tbl_Events e on e.Event_ID = d.Event_ID where DAY(Start_Date) = 5 	and MONTH(Start_Date) = 8 	and YEAR(Start_Date) = 2011 </t>
+          <t xml:space="preserve">select Event_Notes, Location_ID from tbl_Event_Details d join tbl_Events e on e.Event_ID = d.Event_ID WHERE date(Start_Date) between date('2011-08-05') AND date('2011-08-05') 	 	  </t>
         </is>
       </c>
       <c r="G122" t="n">
         <v>228</v>
       </c>
       <c r="H122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -5585,18 +5605,18 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Event_Notes, Loc_Name from tbl_Event_Details d join tbl_Events e on e.Event_ID = d.Event_ID join tbl_Locations l on e.Location_ID = l.Location_ID where DAY(Start_Date) = 5 	and MONTH(Start_Date) = 8 	and YEAR(Start_Date) = 2011 </t>
+          <t xml:space="preserve">select Event_Notes, Loc_Name from tbl_Event_Details d join tbl_Events e on e.Event_ID = d.Event_ID join tbl_Locations l on e.Location_ID = l.Location_ID WHERE date(Start_Date) between date('2011-08-05') AND date('2011-08-05') 	 	  </t>
         </is>
       </c>
       <c r="G123" t="n">
         <v>258</v>
       </c>
       <c r="H123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -5624,7 +5644,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) eventCount from tbl_events </t>
+          <t xml:space="preserve">select count(*) eventCount from tbl_events  </t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -5658,14 +5678,14 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>SELECT COUNT(DISTINCT a.Event_ID) AS event_count
-FROM tbl_MacroHabitat a
-INNER JOIN tbl_MicroHabitat b ON a.Event_ID = b.Event_ID</t>
+          <t>SELECT COUNT(DISTINCT mh.Event_ID) AS event_count
+FROM tbl_MacroHabitat mh
+INNER JOIN tbl_MicroHabitat mi ON mh.Event_ID = mi.Event_ID</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*)  from tbl_MacroHabitat mac join tbl_MicroHabitat mic on mac.Event_ID = mic.Event_ID </t>
+          <t xml:space="preserve">select count(*)  from tbl_MacroHabitat mac join tbl_MicroHabitat mic on mac.Event_ID = mic.Event_ID  </t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -5706,11 +5726,11 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(Slope) avgSlope from tbl_MacroHabitat where Hydrology = 'Upland' </t>
+          <t xml:space="preserve">select avg(Slope) avgSlope from tbl_MacroHabitat where Hydrology = 'Upland'  </t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H126" t="b">
         <v>1</v>
@@ -5738,21 +5758,28 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>SELECT Table, Field, Date_Change, Reason
+FROM tbl_Edit_Log
+ORDER BY Date_Change DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Reason, [Table], Field, Date_Change from tbl_Edit_Log order by Date_change desc </t>
+          <t xml:space="preserve">select  Reason, [Table], Field, Date_Change from tbl_Edit_Log order by Date_change desc limit 1 </t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>-1</v>
+        <v>200</v>
       </c>
       <c r="H127" t="b">
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -5782,7 +5809,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(Soil_dist) avgSoilDisturbance from tbl_MicroHabitat where SurfaceWater &gt; 0 </t>
+          <t xml:space="preserve">select avg(Soil_dist) avgSoilDisturbance from tbl_MicroHabitat where SurfaceWater &gt; 0  </t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -5814,21 +5841,31 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>SELECT mh.LightIndex, mh.Evergreen, mh.Litter, mh.VegHeight, l.Elevation
+FROM tbl_Events e
+JOIN tbl_Locations l ON e.Location_ID = l.Location_ID
+JOIN tbl_MicroHabitat mh ON e.Event_ID = mh.Event_ID
+WHERE DATE(e.Start_Date) = '2009-07-28'
+ORDER BY l.Elevation DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 LightIndex, Evergreen, Litter, VegHeight, Elevation from tbl_MicroHabitat m join tbl_Events e on m.Event_ID = e.Event_ID join tbl_Locations l on e.Location_ID = l.Location_ID where year(Start_Date) = 2009 and month(Start_Date) = 7 and day(Start_Date) = 28 order by Elevation desc </t>
+          <t xml:space="preserve">select LightIndex, Evergreen, Litter, VegHeight, Elevation from tbl_MicroHabitat m join tbl_Events e on m.Event_ID = e.Event_ID join tbl_Locations l on e.Location_ID = l.Location_ID WHERE date(Start_Date) BETWEEN date('2009-07-28') AND date('2009-07-28') order by Elevation desc limit 1  </t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>-1</v>
+        <v>304</v>
       </c>
       <c r="H129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5893,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct Species) SpeciesCount from tlu_Species_CRLA </t>
+          <t xml:space="preserve">select count(distinct Species) SpeciesCount from tlu_Species_CRLA  </t>
         </is>
       </c>
       <c r="G130" t="n">
@@ -5897,7 +5934,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Species from tlu_Species_LABE where SampleYear = 2017 </t>
+          <t xml:space="preserve">select Species from tlu_Species_LABE where SampleYear = 2017  </t>
         </is>
       </c>
       <c r="G131" t="n">
@@ -5939,7 +5976,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SampleYear, count(distinct Species) SpeciesCount from tlu_Species_ORCA group by SampleYear </t>
+          <t xml:space="preserve">select SampleYear, count(distinct Species) SpeciesCount from tlu_Species_ORCA group by SampleYear  </t>
         </is>
       </c>
       <c r="G132" t="n">
@@ -5975,17 +6012,16 @@
         <is>
           <t>SELECT SampleYear, COUNT(DISTINCT Species) AS distinct_species_count
 FROM tlu_Species_REDW
-GROUP BY SampleYear
-ORDER BY SampleYear</t>
+GROUP BY SampleYear</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SampleYear, count(distinct Species) SpeciesCount from tlu_Species_REDW group by SampleYear </t>
+          <t xml:space="preserve">select SampleYear, count(distinct Species) SpeciesCount from tlu_Species_REDW group by SampleYear  </t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H133" t="b">
         <v>1</v>
@@ -6023,7 +6059,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct Species from tlu_Species_REDW where Species not in ( 	select Species from tlu_Species_WHIS ) </t>
+          <t xml:space="preserve">select distinct Species from tlu_Species_REDW where Species not in ( 	select Species from tlu_Species_WHIS )  </t>
         </is>
       </c>
       <c r="G134" t="n">
@@ -6066,7 +6102,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct Species from tlu_Species_LAVO where Species in ( 	select Species 	from tlu_Species_ORCA ) </t>
+          <t xml:space="preserve">select distinct Species from tlu_Species_LAVO where Species in ( 	select Species 	from tlu_Species_ORCA )  </t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -6107,7 +6143,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Position_Title, City, State_Code, Zip_Code from tlu_Contacts where First_Name = 'Ivan' and Last_Name = 'C' </t>
+          <t xml:space="preserve">select Position_Title, City, State_Code, Zip_Code from tlu_Contacts where First_Name = 'Ivan' and Last_Name = 'C'  </t>
         </is>
       </c>
       <c r="G136" t="n">
@@ -6148,7 +6184,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Position_Title  from tlu_Contacts where First_Name = 'Dominic' and Last_Name = 'D' </t>
+          <t xml:space="preserve">select Position_Title  from tlu_Contacts where First_Name = 'Dominic' and Last_Name = 'D'  </t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -6182,16 +6218,16 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>SELECT COUNT(DISTINCT Enum_Group) AS num_enum_groups FROM tlu_Enumerations</t>
+          <t>SELECT COUNT(DISTINCT Enum_Group) FROM tlu_Enumerations</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct Enum_Group) enumCount from tlu_Enumerations </t>
+          <t xml:space="preserve">select count(distinct Enum_Group) enumCount from tlu_Enumerations  </t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H138" t="b">
         <v>1</v>
@@ -6228,7 +6264,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Enum_Description from tlu_Enumerations where Enum_Group = 'Land Use' 	and Enum_Code = 'Logging' </t>
+          <t xml:space="preserve">select Enum_Description from tlu_Enumerations where Enum_Group = 'Land Use' 	and Enum_Code = 'Logging'  </t>
         </is>
       </c>
       <c r="G139" t="n">
@@ -6269,7 +6305,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Enum_Group, count(*) codeCount from tlu_Enumerations group by Enum_Group </t>
+          <t xml:space="preserve">select Enum_Group, count(*) codeCount from tlu_Enumerations group by Enum_Group  </t>
         </is>
       </c>
       <c r="G140" t="n">
@@ -6311,7 +6347,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Revision_Reason, Revision_Desc from tbl_Db_Revisions r join tlu_Contacts c on r.Revision_Contact_ID = c.Contact_ID where First_Name = 'Allison' and Last_Name = 'S' </t>
+          <t xml:space="preserve">select Revision_Reason, Revision_Desc from tbl_Db_Revisions r join tlu_Contacts c on r.Revision_Contact_ID = c.Contact_ID where First_Name = 'Allison' and Last_Name = 'S'  </t>
         </is>
       </c>
       <c r="G141" t="n">
@@ -6353,18 +6389,18 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t xml:space="preserve">select year(Revision_Date) YearRevised, count(*) RevisionCount from tbl_Db_Revisions group by year(Revision_Date) </t>
+          <t xml:space="preserve">select strftime('%Y', Revision_Date) YearRevised, count(*) RevisionCount from tbl_Db_Revisions group by strftime('%Y', Revision_Date)  </t>
         </is>
       </c>
       <c r="G142" t="n">
         <v>180</v>
       </c>
       <c r="H142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6385,21 +6421,28 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>SELECT Site_Name, Site_ID, Site_Desc, Length, Route
+FROM tbl_Sites
+ORDER BY Site_Start_Y DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Site_ID, Site_Name, Site_Desc, Length, Route from tbl_Sites order by Site_Start_Y desc </t>
+          <t xml:space="preserve">select  Site_ID, Site_Name, Site_Desc, Length, Route from tbl_Sites order by Site_Start_Y desc limit 1 </t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>-1</v>
+        <v>208</v>
       </c>
       <c r="H143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6429,7 +6472,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Site_Start_X, Site_End_X, Site_Start_Y, Site_End_Y from tbl_Sites where Site_Name = 'Nobles Pass C' </t>
+          <t xml:space="preserve">select Site_Start_X, Site_End_X, Site_Start_Y, Site_End_Y from tbl_Sites where Site_Name = 'Nobles Pass C'  </t>
         </is>
       </c>
       <c r="G144" t="n">
@@ -6461,21 +6504,30 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>SELECT s.Site_ID, s.Site_Name
+FROM tbl_Sites s
+JOIN tbl_Locations l ON s.Site_ID = l.Site_ID
+GROUP BY s.Site_ID, s.Site_Name
+ORDER BY COUNT(*) DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Site_Name, count(*) LocationCount from tbl_Sites s join tbl_Locations l on s.Site_ID = l.Site_ID group by Site_Name order by count(*) desc </t>
+          <t xml:space="preserve">select  Site_Name, count(*) LocationCount from tbl_Sites s join tbl_Locations l on s.Site_ID = l.Site_ID group by Site_Name order by count(*) desc limit 1 </t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>-1</v>
+        <v>213</v>
       </c>
       <c r="H145" t="b">
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -6506,7 +6558,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Loc_Name, X_Coord, Y_Coord from tbl_Sites s join tbl_Locations l on s.Site_ID = l.Site_ID where site_name = 'North A' </t>
+          <t xml:space="preserve">select Loc_Name, X_Coord, Y_Coord from tbl_Sites s join tbl_Locations l on s.Site_ID = l.Site_ID where site_name = 'North A'  </t>
         </is>
       </c>
       <c r="G146" t="n">
@@ -6538,21 +6590,30 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr"/>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>SELECT c.First_Name
+FROM tlu_Contacts c
+JOIN xref_Event_Contacts x ON c.Contact_ID = x.Contact_ID
+GROUP BY c.Contact_ID, c.First_Name
+ORDER BY COUNT(DISTINCT x.Event_ID) DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 First_Name from tlu_Contacts c join xref_Event_Contacts x on c.Contact_ID = x.Contact_ID group by First_Name order by count(distinct event_id) desc </t>
+          <t xml:space="preserve">select  First_Name from tlu_Contacts c join xref_Event_Contacts x on c.Contact_ID = x.Contact_ID group by First_Name order by count(distinct event_id) desc limit 1 </t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>-1</v>
+        <v>227</v>
       </c>
       <c r="H147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6584,18 +6645,18 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct First_Name, Last_Name, Position_Title from tlu_Contacts c join xref_Event_Contacts x on c.Contact_ID = x.Contact_ID join tbl_Events e on x.Event_ID = e.Event_ID where year(Start_Date) = 2021 and month(Start_Date) = 8 </t>
+          <t xml:space="preserve">select distinct First_Name, Last_Name, Position_Title from tlu_Contacts c join xref_Event_Contacts x on c.Contact_ID = x.Contact_ID join tbl_Events e on x.Event_ID = e.Event_ID where date(Start_Date) &gt;= date('2021-08-01') and date(Start_Date) &lt;= date('2021-08-31')  </t>
         </is>
       </c>
       <c r="G148" t="n">
         <v>286</v>
       </c>
       <c r="H148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6616,21 +6677,30 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr"/>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>SELECT l.Loc_Name, COUNT(e.Location_ID) AS event_count
+FROM tbl_Locations l
+LEFT JOIN tbl_Events e ON l.Location_ID = e.Location_ID
+GROUP BY l.Location_ID, l.Loc_Name
+ORDER BY event_count DESC
+LIMIT 10</t>
+        </is>
+      </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 10 Loc_Name, count(*) eventCount from tbl_locations l join tbl_events e on l.Location_ID = e.Location_ID group by Loc_Name order by count(*) desc </t>
+          <t xml:space="preserve">select  Loc_Name, count(*) eventCount from tbl_locations l join tbl_events e on l.Location_ID = e.Location_ID group by Loc_Name order by count(*) desc limit 10 </t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>-1</v>
+        <v>235</v>
       </c>
       <c r="H149" t="b">
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -6651,21 +6721,39 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr"/>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>SELECT 
+    s.Site_Name, 
+    s.Site_Desc, 
+    COUNT(e.Location_ID) AS Event_Count
+FROM 
+    tbl_Sites s
+JOIN 
+    tbl_Locations l ON s.Site_ID = l.Site_ID
+LEFT JOIN 
+    tbl_Events e ON l.Location_ID = e.Location_ID
+GROUP BY 
+    s.Site_ID, s.Site_Name, s.Site_Desc
+ORDER BY 
+    Event_Count DESC
+LIMIT 10</t>
+        </is>
+      </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 10 Site_Name, site_Desc, count(*) eventCount from tbl_locations l join tbl_events e on l.Location_ID = e.Location_ID join tbl_Sites s on l.Site_ID = s.Site_ID group by Site_Name, Site_Desc order by count(*) desc </t>
+          <t xml:space="preserve">select  Site_Name, site_Desc, count(*) eventCount from tbl_locations l join tbl_events e on l.Location_ID = e.Location_ID join tbl_Sites s on l.Site_ID = s.Site_ID group by Site_Name, Site_Desc order by count(*) desc limit 10 </t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>-1</v>
+        <v>298</v>
       </c>
       <c r="H150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6696,7 +6784,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PDOP, HDOP, EPE from tbl_locations l join tbl_Sites s on l.Site_ID = s.Site_ID where site_name = 'Mule Town B' </t>
+          <t xml:space="preserve">select PDOP, HDOP, EPE from tbl_locations l join tbl_Sites s on l.Site_ID = s.Site_ID where site_name = 'Mule Town B'  </t>
         </is>
       </c>
       <c r="G151" t="n">
@@ -6735,7 +6823,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) locCount from tbl_Locations where county = 'Shasta' </t>
+          <t xml:space="preserve">select count(*) locCount from tbl_Locations where county = 'Shasta'  </t>
         </is>
       </c>
       <c r="G152" t="n">
@@ -6777,7 +6865,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Loc_Type, count(*) locCount from tbl_Locations where county = 'Shasta' group by Loc_Type </t>
+          <t xml:space="preserve">select Loc_Type, count(*) locCount from tbl_Locations where county = 'Shasta' group by Loc_Type  </t>
         </is>
       </c>
       <c r="G153" t="n">
@@ -6809,21 +6897,31 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr"/>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>SELECT s.Site_Name, COUNT(l.Site_ID) AS Infestation_Location_Count
+FROM tbl_Sites s
+JOIN tbl_Locations l ON s.Site_ID = l.Site_ID
+WHERE l.Loc_Type = 'infestation'
+GROUP BY s.Site_ID, s.Site_Name
+ORDER BY Infestation_Location_Count DESC
+LIMIT 10</t>
+        </is>
+      </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 10 Site_Name, count(*) SiteCount from tbl_Locations l join tbl_sites s on l.Site_ID = s.Site_ID where loc_Type = 'Infestation' group by site_Name order by count(*) desc </t>
+          <t xml:space="preserve">select  Site_Name, count(*) SiteCount from tbl_Locations l join tbl_sites s on l.Site_ID = s.Site_ID where loc_Type = 'Infestation' group by site_Name order by count(*) desc limit 10 </t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>-1</v>
+        <v>249</v>
       </c>
       <c r="H154" t="b">
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -6849,16 +6947,17 @@
           <t>SELECT e.Event_ID
 FROM tbl_Events e
 JOIN tbl_Locations l ON e.Location_ID = l.Location_ID
-WHERE l.Watershed = 'Wood River' AND l.Subwatershed = 'Annie Creek'</t>
+WHERE l.Watershed = 'Wood River'
+  AND l.Subwatershed = 'Annie Creek'</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Event_ID from tbl_Events e join tbl_locations l on e.Location_ID = l.Location_ID where Watershed = 'Wood River' and Subwatershed = 'Annie Creek' </t>
+          <t xml:space="preserve">select Event_ID from tbl_Events e join tbl_locations l on e.Location_ID = l.Location_ID where Watershed = 'Wood River' and Subwatershed = 'Annie Creek'  </t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H155" t="b">
         <v>1</v>
@@ -6895,7 +6994,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(Elevation) avgElevation from tbl_locations where Subwatershed = 'Annie Creek' </t>
+          <t xml:space="preserve">select avg(Elevation) avgElevation from tbl_locations where Subwatershed = 'Annie Creek'  </t>
         </is>
       </c>
       <c r="G156" t="n">
@@ -6929,16 +7028,18 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) FROM tbl_Locations WHERE Rnd_Plt_In = 'Yes'</t>
+          <t>SELECT COUNT(*) AS InfestedLocations
+FROM tbl_Locations
+WHERE Rnd_Plt_In = 'Yes'</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) LocCount from tbl_locations where Rnd_Plt_In = 'Yes' </t>
+          <t xml:space="preserve">select count(*) LocCount from tbl_locations where Rnd_Plt_In = 'Yes'  </t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H157" t="b">
         <v>1</v>
@@ -6975,7 +7076,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Loc_Name, X_Coord, Y_Coord, Coord_Units, Coord_System, Datum, Est_H_Error, Accuracy_Notes, Loc_Type from tbl_locations where Loc_Name = 'CRLA-Infestation-3924' </t>
+          <t xml:space="preserve">select Loc_Name, X_Coord, Y_Coord, Coord_Units, Coord_System, Datum, Est_H_Error, Accuracy_Notes, Loc_Type from tbl_locations where Loc_Name = 'CRLA-Infestation-3924'  </t>
         </is>
       </c>
       <c r="G158" t="n">
@@ -7016,7 +7117,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Hydrology, count(*) EventCount from tbl_MacroHabitat group by Hydrology </t>
+          <t xml:space="preserve">select Hydrology, count(*) EventCount from tbl_MacroHabitat group by Hydrology  </t>
         </is>
       </c>
       <c r="G159" t="n">
@@ -7058,18 +7159,18 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t xml:space="preserve">select MacroHab, MicroHab, Hydrology, LandUse, Slope, Aspect from tbl_MacroHabitat mh join tbl_Events e on mh.Event_ID = e.Event_ID where year(Start_Date) = 2015 and month(Start_Date) = 7 </t>
+          <t xml:space="preserve">select MacroHab, MicroHab, Hydrology, LandUse, Slope, Aspect from tbl_MacroHabitat mh join tbl_Events e on mh.Event_ID = e.Event_ID where date(Start_Date) &gt;= date('2015-07-01') and date(Start_Date) &lt;= date('2015-07-31')  </t>
         </is>
       </c>
       <c r="G160" t="n">
         <v>284</v>
       </c>
       <c r="H160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -7099,7 +7200,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Deciduous, Shrub, Herb, WoodyDebris, Litter, BareGround, Rock from tbl_MicroHabitat where Phenology = 'Flowering' 	and cast(CoverPercent as float) &gt; 90 </t>
+          <t xml:space="preserve">select Deciduous, Shrub, Herb, WoodyDebris, Litter, BareGround, Rock from tbl_MicroHabitat where Phenology = 'Flowering' 	and cast(CoverPercent as float) &gt; 90  </t>
         </is>
       </c>
       <c r="G161" t="n">
@@ -7141,18 +7242,18 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t xml:space="preserve">select year(Event_Date) EventsYear, count(*) eventCount from tbl_events group by year(Event_Date) </t>
+          <t xml:space="preserve">select strftime('%Y', Event_Date) EventsYear, count(*) eventCount from tbl_events group by strftime('%Y', Event_Date)  </t>
         </is>
       </c>
       <c r="G162" t="n">
         <v>172</v>
       </c>
       <c r="H162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -7182,7 +7283,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(MPD) avgDiameter from tbl_Deadwood where decay = '2a' </t>
+          <t xml:space="preserve">select avg(MPD) avgDiameter from tbl_Deadwood where decay = '2a'  </t>
         </is>
       </c>
       <c r="G163" t="n">
@@ -7221,7 +7322,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t xml:space="preserve">select directions from tbl_Locations where trail = 'maddron bald trail' </t>
+          <t xml:space="preserve">select directions from tbl_Locations where trail = 'maddron bald trail'  </t>
         </is>
       </c>
       <c r="G164" t="n">
@@ -7255,26 +7356,29 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>SELECT DISTINCT l.SiteDescription
-FROM tbl_Locations l
-JOIN tbl_Events e ON l.Location_ID = e.Location_ID
-WHERE strftime('%Y', e.Event_Date) = '2001'</t>
+          <t>SELECT SiteDescription
+FROM tbl_Locations
+WHERE Location_ID IN (
+    SELECT Location_ID
+    FROM tbl_Events
+    WHERE strftime('%Y', Event_Date) = '2001'
+)</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SiteDescription from tbl_locations l  join tbl_events e on e.Location_ID = l.Location_ID  where year(event_date) = 2001 </t>
+          <t xml:space="preserve">select SiteDescription from tbl_locations l  join tbl_events e on e.Location_ID = l.Location_ID  where strftime('%Y', Event_Date) = '2001'  </t>
         </is>
       </c>
       <c r="G165" t="n">
         <v>209</v>
       </c>
       <c r="H165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -7305,7 +7409,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct genus, species, CommonName from tbl_Nests n join tlu_PlantSpecies s on n.SpCode = s.SpeciesCode where Event_ID = 30 </t>
+          <t xml:space="preserve">select distinct genus, species, CommonName from tbl_Nests n join tlu_PlantSpecies s on n.SpCode = s.SpeciesCode where Event_ID = 30  </t>
         </is>
       </c>
       <c r="G166" t="n">
@@ -7342,17 +7446,17 @@
           <t>SELECT AVG(o.DBH) AS average_diameter
 FROM tbl_Overstory o
 JOIN tlu_PlantSpecies p ON o.SpCode = p.SpeciesCode
-WHERE p.species = 'montana'
-  AND o.Event_ID IN (15, 16)</t>
+WHERE (o.Event_ID = 15 OR o.Event_ID = 16)
+  AND p.species LIKE '%montana%'</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(DBH) avgDiameter from tbl_events e join tbl_Overstory o on e.Event_ID = o.Event_ID join tlu_PlantSpecies s on o.SpCode = s.SpeciesCode where species = 'montana' 	and e.Event_ID in (15, 16) </t>
+          <t xml:space="preserve">select avg(DBH) avgDiameter from tbl_events e join tbl_Overstory o on e.Event_ID = o.Event_ID join tlu_PlantSpecies s on o.SpCode = s.SpeciesCode where species = 'montana' 	and e.Event_ID in (15, 16)  </t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="H167" t="b">
         <v>1</v>
@@ -7389,7 +7493,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t xml:space="preserve">select spcode, DClass1, DClass2, DClass3, DClass4 from tbl_Saplings where spcode = 'Abiefra' </t>
+          <t xml:space="preserve">select spcode, DClass1, DClass2, DClass3, DClass4 from tbl_Saplings where spcode = 'Abiefra'  </t>
         </is>
       </c>
       <c r="G168" t="n">
@@ -7431,7 +7535,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(Density) avgSeedlingDensity from tbl_seedlings s join tlu_PlantSpecies sp on s.SpCode = sp.SpeciesCode where genus = 'Acer' </t>
+          <t xml:space="preserve">select avg(Density) avgSeedlingDensity from tbl_seedlings s join tlu_PlantSpecies sp on s.SpCode = sp.SpeciesCode where genus = 'Acer'  </t>
         </is>
       </c>
       <c r="G169" t="n">
@@ -7475,7 +7579,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Location_ID, avg(Density) avgSeedlingDensity from tbl_seedlings s join tlu_PlantSpecies sp on s.SpCode = sp.SpeciesCode join tbl_Events e on e.Event_ID = s.Event_ID where genus = 'Acer' group by Location_ID </t>
+          <t xml:space="preserve">select Location_ID, avg(Density) avgSeedlingDensity from tbl_seedlings s join tlu_PlantSpecies sp on s.SpCode = sp.SpeciesCode join tbl_Events e on e.Event_ID = s.Event_ID where genus = 'Acer' group by Location_ID  </t>
         </is>
       </c>
       <c r="G170" t="n">
@@ -7516,7 +7620,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(utmE) ECentroid, avg(utmN) NCentroid from tlu_PlaceNames where County = 'Sevier' and State = 'TN' </t>
+          <t xml:space="preserve">select avg(utmE) ECentroid, avg(utmN) NCentroid from tlu_PlaceNames where County = 'Sevier' and State = 'TN'  </t>
         </is>
       </c>
       <c r="G171" t="n">
@@ -7557,7 +7661,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t xml:space="preserve">select XCoord, Ycoord, SpCode from tbl_Tree_Tags where Tree_Tag_ID = 144 </t>
+          <t xml:space="preserve">select XCoord, Ycoord, SpCode from tbl_Tree_Tags where Tree_Tag_ID = 144  </t>
         </is>
       </c>
       <c r="G172" t="n">
@@ -7600,7 +7704,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t xml:space="preserve">select TreeCond, count(*) treeCount from tbl_Tree_Tags tt join tbl_Overstory o on o.TreeTag = tt.Tree_Tag_ID where Tag &gt; 220 group by TreeCond </t>
+          <t xml:space="preserve">select TreeCond, count(*) treeCount from tbl_Tree_Tags tt join tbl_Overstory o on o.TreeTag = tt.Tree_Tag_ID where Tag &gt; 220 group by TreeCond  </t>
         </is>
       </c>
       <c r="G173" t="n">
@@ -7634,19 +7738,26 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>SELECT t.TreeCond_Text, COUNT(o.TreeCond) AS OverstoryCount
-FROM tbl_Overstory o
-JOIN tlu_Tree_Cond t ON o.TreeCond = t.TreeCond_Num
-GROUP BY t.TreeCond_Text</t>
+          <t>SELECT 
+    tlu_Tree_Cond.TreeCond_Text, 
+    COUNT(tbl_Overstory.TreeCond) AS OverstoryCount
+FROM 
+    tbl_Overstory
+JOIN 
+    tlu_Tree_Cond
+ON 
+    tbl_Overstory.TreeCond = tlu_Tree_Cond.TreeCond_Num
+GROUP BY 
+    tlu_Tree_Cond.TreeCond_Text</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t xml:space="preserve">select TreeCond_Text, count(*) TreeCount from tlu_Tree_Cond tc join tbl_Overstory o on o.TreeCond = tc.TreeCond_Num group by TreeCond_Text </t>
+          <t xml:space="preserve">select TreeCond_Text, count(*) TreeCount from tlu_Tree_Cond tc join tbl_Overstory o on o.TreeCond = tc.TreeCond_Num group by TreeCond_Text  </t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="H174" t="b">
         <v>1</v>
@@ -7674,21 +7785,29 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr"/>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>SELECT Witness_SpCode, Witness_DBH
+FROM tbl_WitnessTrees
+WHERE Location_ID != 4
+ORDER BY Witness_stake DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Witness_SpCode, Witness_DBH from tbl_WitnessTrees where Location_ID &lt;&gt; 4 order by Witness_stake desc </t>
+          <t xml:space="preserve">select  Witness_SpCode, Witness_DBH from tbl_WitnessTrees where Location_ID &lt;&gt; 4 order by Witness_stake desc limit 1 </t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>-1</v>
+        <v>216</v>
       </c>
       <c r="H175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -7719,7 +7838,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) OverstoryCount from tlu_Can_Pos c join tbl_Overstory o on c.CanPos_Num = o.CanPos where CanPos_Name = 'codominant' </t>
+          <t xml:space="preserve">select count(*) OverstoryCount from tlu_Can_Pos c join tbl_Overstory o on c.CanPos_Num = o.CanPos where CanPos_Name = 'codominant'  </t>
         </is>
       </c>
       <c r="G176" t="n">
@@ -7770,7 +7889,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t xml:space="preserve">select CanPos_Name, count(*) OverstoryCount from tlu_Can_Pos c join tbl_Overstory o on c.CanPos_Num = o.CanPos join tlu_PlantSpecies s on s.SpeciesCode = o.SpCode where CommonName = 'Red maple' group by CanPos_Name </t>
+          <t xml:space="preserve">select CanPos_Name, count(*) OverstoryCount from tlu_Can_Pos c join tbl_Overstory o on c.CanPos_Num = o.CanPos join tlu_PlantSpecies s on s.SpeciesCode = o.SpCode where CommonName = 'Red maple' group by CanPos_Name  </t>
         </is>
       </c>
       <c r="G177" t="n">
@@ -7822,7 +7941,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SiteDescription, Slope, Aspect, Slope_shape, Elevation from tbl_Locations l join tlu_topo_position p on l.Topo_Position = p.ID where TopoPosition = 'Midslope' </t>
+          <t xml:space="preserve">select SiteDescription, Slope, Aspect, Slope_shape, Elevation from tbl_Locations l join tlu_topo_position p on l.Topo_Position = p.ID where TopoPosition = 'Midslope'  </t>
         </is>
       </c>
       <c r="G178" t="n">
@@ -7864,7 +7983,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SpCode, CoverClass_Text from tbl_Nests n join tlu_Cover_Cls cc on n.cover = cc.CoverClass_Num where Nest_ID = 48 </t>
+          <t xml:space="preserve">select SpCode, CoverClass_Text from tbl_Nests n join tlu_Cover_Cls cc on n.cover = cc.CoverClass_Num where Nest_ID = 48  </t>
         </is>
       </c>
       <c r="G179" t="n">
@@ -7913,7 +8032,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t xml:space="preserve">select DecayStage_Descr, count(*) DeadWoodCount from tlu_DecayStage dc join tbl_Deadwood dw on dc.DecayStage_ID = dw.Decay group by DecayStage_Descr </t>
+          <t xml:space="preserve">select DecayStage_Descr, count(*) DeadWoodCount from tlu_DecayStage dc join tbl_Deadwood dw on dc.DecayStage_ID = dw.Decay group by DecayStage_Descr  </t>
         </is>
       </c>
       <c r="G180" t="n">
@@ -7952,7 +8071,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) from tlu_DecayStage </t>
+          <t xml:space="preserve">select count(*) from tlu_DecayStage  </t>
         </is>
       </c>
       <c r="G181" t="n">
@@ -7997,7 +8116,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t xml:space="preserve">select length, mpd from tbl_Deadwood dw join tlu_DecayStage dc on dw.Decay = dc.DecayStage_ID where DecayStage_Descr like '%log is flat%' </t>
+          <t xml:space="preserve">select length, mpd from tbl_Deadwood dw join tlu_DecayStage dc on dw.Decay = dc.DecayStage_ID where DecayStage_Descr like '%log is flat%'  </t>
         </is>
       </c>
       <c r="G182" t="n">
@@ -8040,7 +8159,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t xml:space="preserve">select genus from tlu_PlantSpecies sp join tbl_Nests n on n.SpCode = sp.SpeciesCode join tlu_R1_RestOfPlot r on n.R1 = r.Pres_Num where Pres_Text like '%species occurred in rest of plot%' </t>
+          <t xml:space="preserve">select genus from tlu_PlantSpecies sp join tbl_Nests n on n.SpCode = sp.SpeciesCode join tlu_R1_RestOfPlot r on n.R1 = r.Pres_Num where Pres_Text like '%species occurred in rest of plot%'  </t>
         </is>
       </c>
       <c r="G183" t="n">
@@ -8072,21 +8191,30 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr"/>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>SELECT genus, COUNT(*) AS species_count
+FROM tlu_PlantSpecies
+WHERE SpeciesNotes LIKE '%native%'
+GROUP BY genus
+ORDER BY species_count DESC
+LIMIT 5</t>
+        </is>
+      </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 5 genus, count(*) speciesCount from tlu_PlantSpecies where SpeciesNotes like '%native%' group by genus order by count(*) desc </t>
+          <t xml:space="preserve">select  genus, count(*) speciesCount from tlu_PlantSpecies where SpeciesNotes like '%native%' group by genus order by count(*) desc limit 5 </t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>-1</v>
+        <v>205</v>
       </c>
       <c r="H184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -8116,18 +8244,18 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Database_title, File_name, Release_notes, Author_email, Author_org_name from tsys_App_Releases where year(release_date) = 2015 </t>
+          <t xml:space="preserve">select Database_title, File_name, Release_notes, Author_email, Author_org_name from tsys_App_Releases where date(release_date) &gt;= date('2015-01-01') AND date(release_date) &lt;= date('2015-12-31')  </t>
         </is>
       </c>
       <c r="G185" t="n">
         <v>228</v>
       </c>
       <c r="H185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -8155,7 +8283,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) from tlu_Slope_Shape </t>
+          <t xml:space="preserve">select count(*) from tlu_Slope_Shape  </t>
         </is>
       </c>
       <c r="G186" t="n">
@@ -8198,18 +8326,18 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Location_ID, avg(density) seedlingDensity from tbl_Seedlings s join tbl_Events e on s.Event_ID = e.Event_ID  where year(Event_Date) = 1999 group by Location_ID </t>
+          <t xml:space="preserve">select Location_ID, avg(density) seedlingDensity from tbl_Seedlings s join tbl_Events e on s.Event_ID = e.Event_ID  where strftime('%Y', Event_Date) = '1999' group by Location_ID  </t>
         </is>
       </c>
       <c r="G187" t="n">
         <v>229</v>
       </c>
       <c r="H187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -8233,27 +8361,29 @@
       <c r="E188" t="inlineStr">
         <is>
           <t>SELECT 
-    strftime('%Y-%m', e.Event_Date) AS Event_Month,
+    strftime('%Y-%m', e.Event_Date) AS YearMonth,
     AVG(o.DBH) AS Avg_Diameter
 FROM 
     tbl_Overstory o
 JOIN 
     tbl_Events e ON o.Event_ID = e.Event_ID
 JOIN 
-    tlu_PlantSpecies ps ON o.SpCode = ps.SpeciesCode
+    tlu_PlantSpecies p ON o.SpCode = p.SpeciesCode
 WHERE 
-    ps.species = 'fraseri'
+    p.species = 'fraseri'
 GROUP BY 
-    Event_Month</t>
+    YearMonth
+ORDER BY 
+    YearMonth</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t xml:space="preserve">select month(e.Event_Date) Mon, avg(DBH) avgFraseriDiam from tbl_Overstory o join tbl_events e on e.event_id = o.event_id join tlu_PlantSpecies s on o.SpCode = s.SpeciesCode where s.species = 'fraseri' group by month(e.Event_Date) </t>
+          <t xml:space="preserve">select strftime('%m', e.Event_Date) Mon, avg(DBH) avgFraseriDiam from tbl_Overstory o join tbl_events e on e.event_id = o.event_id join tlu_PlantSpecies s on o.SpCode = s.SpeciesCode where s.species = 'fraseri' group by strftime('%m', e.Event_Date)  </t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H188" t="b">
         <v>0</v>
@@ -8290,11 +8420,11 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t xml:space="preserve">select layer, count(*) from tlu_Roads_and_Trails group by layer </t>
+          <t xml:space="preserve">select layer, count(*) from tlu_Roads_and_Trails group by layer  </t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H189" t="b">
         <v>1</v>
@@ -8332,7 +8462,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t xml:space="preserve">select layer, count(*) from tlu_Roads_and_Trails where ValidName like '%Balsam%' group by layer </t>
+          <t xml:space="preserve">select layer, count(*) from tlu_Roads_and_Trails where ValidName like '%Balsam%' group by layer  </t>
         </is>
       </c>
       <c r="G190" t="n">
@@ -8373,7 +8503,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t xml:space="preserve">select State, count(*) placeCount from tlu_PlaceNames group by state </t>
+          <t xml:space="preserve">select State, count(*) placeCount from tlu_PlaceNames group by state  </t>
         </is>
       </c>
       <c r="G191" t="n">
@@ -8405,21 +8535,28 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr"/>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>SELECT Name, County, State, utmE, utmN
+FROM tlu_PlaceNames
+ORDER BY utmN DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Name, County, State, utmE, utmN from tlu_PlaceNames order by utmN desc </t>
+          <t xml:space="preserve">select  Name, County, State, utmE, utmN from tlu_PlaceNames order by utmN desc limit 1 </t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>-1</v>
+        <v>204</v>
       </c>
       <c r="H192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -8442,7 +8579,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>SELECT tlu_Presence.Pres_Text, COUNT(*) AS num_nested_subplots
+          <t>SELECT tlu_Presence.Pres_Text, COUNT(*) AS Num_Nested_Subplots
 FROM tbl_Nests
 JOIN tlu_Presence ON tbl_Nests.Presence_First = tlu_Presence.Pres_Num
 WHERE tbl_Nests.Event_ID = 30
@@ -8451,11 +8588,11 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Pres_Text, count(*) nestCount from tlu_Presence p join tbl_Nests n on p.Pres_Num = n.Presence_First where Event_ID = 30 group by Pres_text </t>
+          <t xml:space="preserve">select Pres_Text, count(*) nestCount from tlu_Presence p join tbl_Nests n on p.Pres_Num = n.Presence_First where Event_ID = 30 group by Pres_text  </t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H193" t="b">
         <v>1</v>
@@ -8486,14 +8623,14 @@
       <c r="E194" t="inlineStr">
         <is>
           <t>SELECT 
-  (MAX(X_Coord) - MIN(X_Coord)) AS X_Distance,
-  (MAX(Y_Coord) - MIN(Y_Coord)) AS Y_Distance
+    (MAX(X_Coord) - MIN(X_Coord)) AS X_Distance,
+    (MAX(Y_Coord) - MIN(Y_Coord)) AS Y_Distance
 FROM tbl_Locations</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t xml:space="preserve">select max(X_Coord) - min(X_Coord) xDist, max(Y_Coord) - min(Y_Coord) yDist from tbl_Locations </t>
+          <t xml:space="preserve">select max(X_Coord) - min(X_Coord) xDist, max(Y_Coord) - min(Y_Coord) yDist from tbl_Locations  </t>
         </is>
       </c>
       <c r="G194" t="n">
@@ -8525,21 +8662,29 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr"/>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>SELECT ps.genus, ps.species, ps.CommonName
+FROM tlu_PlantSpecies ps
+JOIN tbl_Seedlings s ON ps.SpeciesCode = s.SpCode
+ORDER BY s.Density DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Genus, species, CommonName from tbl_Seedlings s join tlu_PlantSpecies sp on s.SpCode = sp.SpeciesCode order by density desc </t>
+          <t xml:space="preserve">select  Genus, species, CommonName from tbl_Seedlings s join tlu_PlantSpecies sp on s.SpCode = sp.SpeciesCode order by density desc limit 1 </t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>-1</v>
+        <v>230</v>
       </c>
       <c r="H195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -8560,21 +8705,30 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr"/>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>SELECT strftime('%m', e.Event_Date) AS Month, AVG(s.Density) AS Avg_Density
+FROM tbl_Seedlings s
+JOIN tbl_Events e ON s.Event_ID = e.Event_ID
+GROUP BY Month
+ORDER BY Avg_Density DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 month(Event_Date) from tbl_seedlings s join tbl_Events e on s.Event_ID = e.Event_ID group by month(Event_Date) order by avg(Density) desc </t>
+          <t xml:space="preserve">select  strftime('%m', Event_Date) from tbl_seedlings s join tbl_Events e on s.Event_ID = e.Event_ID group by strftime('%m', Event_Date) order by avg(Density) desc limit 1  </t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>-1</v>
+        <v>218</v>
       </c>
       <c r="H196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -8597,20 +8751,20 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>SELECT tlu_PlantSpecies.CommonName, COUNT(*) AS TreeCount
-FROM tbl_Tree_Tags
-JOIN tlu_PlantSpecies ON tbl_Tree_Tags.SpCode = tlu_PlantSpecies.SpeciesCode
-WHERE tbl_Tree_Tags.Location_ID = 2
-GROUP BY tlu_PlantSpecies.CommonName</t>
+          <t>SELECT ps.CommonName, COUNT(*) AS TreeCount
+FROM tbl_Tree_Tags tt
+JOIN tlu_PlantSpecies ps ON tt.SpCode = ps.SpeciesCode
+WHERE tt.Location_ID = 2
+GROUP BY ps.CommonName</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t xml:space="preserve">select CommonName, count(*) tagCount from tbl_Tree_Tags tg join tlu_PlantSpecies sp on tg.SpCode = sp.SpeciesCode where Location_ID = 2 group by CommonName </t>
+          <t xml:space="preserve">select CommonName, count(*) tagCount from tbl_Tree_Tags tg join tlu_PlantSpecies sp on tg.SpCode = sp.SpeciesCode where Location_ID = 2 group by CommonName  </t>
         </is>
       </c>
       <c r="G197" t="n">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="H197" t="b">
         <v>1</v>
@@ -8659,7 +8813,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t xml:space="preserve">select genus, CommonName, count(*) tagCount from tbl_Tree_Tags tg join tlu_PlantSpecies sp on tg.SpCode = sp.SpeciesCode join tbl_Locations l on tg.Location_ID = l.Location_ID where Elevation &gt; 4000 group by genus, CommonName </t>
+          <t xml:space="preserve">select genus, CommonName, count(*) tagCount from tbl_Tree_Tags tg join tlu_PlantSpecies sp on tg.SpCode = sp.SpeciesCode join tbl_Locations l on tg.Location_ID = l.Location_ID where Elevation &gt; 4000 group by genus, CommonName  </t>
         </is>
       </c>
       <c r="G198" t="n">
@@ -8700,7 +8854,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Eco_notes, coord_units, Coord_system, datum from tbl_locations where Plot_ID = 'A14_1' </t>
+          <t xml:space="preserve">select Eco_notes, coord_units, Coord_system, datum from tbl_locations where Plot_ID = 'A14_1'  </t>
         </is>
       </c>
       <c r="G199" t="n">
@@ -8741,7 +8895,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t xml:space="preserve">select loc_notes from tbl_locations where Other_Disturbance like '%probably post logging%' </t>
+          <t xml:space="preserve">select loc_notes from tbl_locations where Other_Disturbance like '%probably post logging%'  </t>
         </is>
       </c>
       <c r="G200" t="n">
@@ -8782,7 +8936,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct Event_ID) eventCount from tbl_Deadwood d where d.Event_ID in (select event_id from tbl_Overstory) </t>
+          <t xml:space="preserve">select count(distinct Event_ID) eventCount from tbl_Deadwood d where d.Event_ID in (select event_id from tbl_Overstory)  </t>
         </is>
       </c>
       <c r="G201" t="n">
@@ -8816,16 +8970,16 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>SELECT COUNT(DISTINCT VIN) AS num_vehicles FROM GV</t>
+          <t>SELECT COUNT(DISTINCT VIN) FROM GV</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT VIN) VEHCOUNT FROM GV </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT VIN) VEHCOUNT FROM GV  </t>
         </is>
       </c>
       <c r="G202" t="n">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H202" t="b">
         <v>1</v>
@@ -8860,7 +9014,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM FIRE </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM FIRE  </t>
         </is>
       </c>
       <c r="G203" t="n">
@@ -8899,7 +9053,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT DISTINCT CRASHYEAR FROM CRASH </t>
+          <t xml:space="preserve">SELECT DISTINCT CRASHYEAR FROM CRASH  </t>
         </is>
       </c>
       <c r="G204" t="n">
@@ -8938,7 +9092,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) AS RECORDEDEVENTCOUNT FROM EDREVENT </t>
+          <t xml:space="preserve">SELECT COUNT(*) AS RECORDEDEVENTCOUNT FROM EDREVENT  </t>
         </is>
       </c>
       <c r="G205" t="n">
@@ -8977,7 +9131,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) OCCCOUNT FROM OCC WHERE EMSDATA = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(*) OCCCOUNT FROM OCC WHERE EMSDATA = 1  </t>
         </is>
       </c>
       <c r="G206" t="n">
@@ -9016,11 +9170,11 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) CASECOUNT FROM JKWGT WHERE CATEGORY = 3 </t>
+          <t xml:space="preserve">SELECT COUNT(*) CASECOUNT FROM JKWGT WHERE CATEGORY = 3  </t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H207" t="b">
         <v>1</v>
@@ -9055,7 +9209,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(JKWGT3) WGT3AVG FROM JKWGT </t>
+          <t xml:space="preserve">SELECT AVG(JKWGT3) WGT3AVG FROM JKWGT  </t>
         </is>
       </c>
       <c r="G208" t="n">
@@ -9096,7 +9250,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CATEGORY, AVG(JKWGT5) WGT5AVG FROM JKWGT GROUP BY CATEGORY </t>
+          <t xml:space="preserve">SELECT CATEGORY, AVG(JKWGT5) WGT5AVG FROM JKWGT GROUP BY CATEGORY  </t>
         </is>
       </c>
       <c r="G209" t="n">
@@ -9137,7 +9291,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM GV WHERE ALCTESTRESULT &gt; 250 AND ALCTESTRESULT &lt; 500 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM GV WHERE ALCTESTRESULT &gt; 250 AND ALCTESTRESULT &lt; 500  </t>
         </is>
       </c>
       <c r="G210" t="n">
@@ -9179,7 +9333,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT V.MAKE, V.MODEL, CURBWT FROM GV  JOIN VPICDECODE V ON GV.CASEID = V.CASEID AND GV.VEHNO = V.VEHNO WHERE CURBWT &gt;= 2000 AND CURBWT &lt;= 3000 </t>
+          <t xml:space="preserve">SELECT V.MAKE, V.MODEL, CURBWT FROM GV  JOIN VPICDECODE V ON GV.CASEID = V.CASEID AND GV.VEHNO = V.VEHNO WHERE CURBWT &gt;= 2000 AND CURBWT &lt;= 3000  </t>
         </is>
       </c>
       <c r="G211" t="n">
@@ -9220,7 +9374,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT INSPTYPE, COUNT(*) AS VEHCOUNT FROM GV GROUP BY INSPTYPE </t>
+          <t xml:space="preserve">SELECT INSPTYPE, COUNT(*) AS VEHCOUNT FROM GV GROUP BY INSPTYPE  </t>
         </is>
       </c>
       <c r="G212" t="n">
@@ -9261,7 +9415,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT LIGHTCOND, COUNT(DISTINCT CASEID) FROM GV GROUP BY LIGHTCOND </t>
+          <t xml:space="preserve">SELECT LIGHTCOND, COUNT(DISTINCT CASEID) FROM GV GROUP BY LIGHTCOND  </t>
         </is>
       </c>
       <c r="G213" t="n">
@@ -9302,7 +9456,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV WHERE PARDRUG = 1 AND TOWED = 3 </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV WHERE PARDRUG = 1 AND TOWED = 3  </t>
         </is>
       </c>
       <c r="G214" t="n">
@@ -9343,7 +9497,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT RUMBROAD, COUNT(*) VEHCOUNT FROM GV GROUP BY RUMBROAD </t>
+          <t xml:space="preserve">SELECT RUMBROAD, COUNT(*) VEHCOUNT FROM GV GROUP BY RUMBROAD  </t>
         </is>
       </c>
       <c r="G215" t="n">
@@ -9378,40 +9532,40 @@
       <c r="E216" t="inlineStr">
         <is>
           <t>SELECT
-    GV.CASEID,
-    GV.VEHNO,
-    GV.SPEEDLIMIT,
-    MAX(EDRPRECRASH.PVALUE) AS MAX_VEHICLE_SPEED,
-    (MAX(EDRPRECRASH.PVALUE) - GV.SPEEDLIMIT) AS SPEED_DIFF
+  GV.CASEID,
+  GV.VEHNO,
+  GV.SPEEDLIMIT,
+  MAX(EDRPRECRASH.PVALUE) AS MAX_SPEED,
+  (MAX(EDRPRECRASH.PVALUE) - GV.SPEEDLIMIT) AS SPEED_DIFF
 FROM
-    GV
+  GV
 JOIN
-    EDRPRECRASH
-    ON GV.CASEID = EDRPRECRASH.CASEID AND GV.VEHNO = EDRPRECRASH.VEHNO
+  EDRPRECRASH
+ON
+  GV.CASEID = EDRPRECRASH.CASEID AND GV.VEHNO = EDRPRECRASH.VEHNO
 WHERE
-    EDRPRECRASH.PCODE = 1010
-    AND GV.SPEEDLIMIT &lt; 300
-    AND EDRPRECRASH.PVALUE &lt; 300
+  GV.SPEEDLIMIT &lt; 300
+  AND EDRPRECRASH.PVALUE &lt; 300
 GROUP BY
-    GV.CASEID,
-    GV.VEHNO,
-    GV.SPEEDLIMIT</t>
+  GV.CASEID,
+  GV.VEHNO,
+  GV.SPEEDLIMIT</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT SPEEDLIMIT, MAXSPEED, MAXSPEED - SPEEDLIMIT DIFF FROM GV JOIN ( 	SELECT CASEID, VEHNO, MAX(PVALUE) MAXSPEED FROM EDRPRECRASH 	WHERE PCODE = 1010 AND PVALUE &lt; 300 	GROUP BY CASEID, VEHNO ) S ON GV.CASEID = S.CASEID AND GV.VEHNO = S.VEHNO WHERE SPEEDLIMIT &lt; 300 </t>
+          <t xml:space="preserve">SELECT SPEEDLIMIT, MAXSPEED, MAXSPEED - SPEEDLIMIT DIFF FROM GV JOIN ( 	SELECT CASEID, VEHNO, MAX(PVALUE) MAXSPEED FROM EDRPRECRASH 	WHERE PCODE = 1010 AND PVALUE &lt; 300 	GROUP BY CASEID, VEHNO ) S ON GV.CASEID = S.CASEID AND GV.VEHNO = S.VEHNO WHERE SPEEDLIMIT &lt; 300  </t>
         </is>
       </c>
       <c r="G216" t="n">
-        <v>433</v>
+        <v>358</v>
       </c>
       <c r="H216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -9441,7 +9595,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(STRKLENGTH) AVGLENGTH FROM GV WHERE STRKLENGTH BETWEEN 0 AND 120 </t>
+          <t xml:space="preserve">SELECT AVG(STRKLENGTH) AVGLENGTH FROM GV WHERE STRKLENGTH BETWEEN 0 AND 120  </t>
         </is>
       </c>
       <c r="G217" t="n">
@@ -9482,7 +9636,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV WHERE TRAFDEV = 3 </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV WHERE TRAFDEV = 3  </t>
         </is>
       </c>
       <c r="G218" t="n">
@@ -9523,7 +9677,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT INTMAG, COUNT(DISTINCT(CONCAT(CASEID, VEHNO))) VEHCOUNT FROM INTRUSION GROUP BY INTMAG </t>
+          <t xml:space="preserve">SELECT INTMAG, COUNT(DISTINCT(CONCAT(CASEID, VEHNO))) VEHCOUNT FROM INTRUSION GROUP BY INTMAG  </t>
         </is>
       </c>
       <c r="G219" t="n">
@@ -9564,7 +9718,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT INTMAG, (COUNT(DISTINCT CASEID)) CRASHCOUNT FROM INTRUSION GROUP BY INTMAG </t>
+          <t xml:space="preserve">SELECT INTMAG, (COUNT(DISTINCT CASEID)) CRASHCOUNT FROM INTRUSION GROUP BY INTMAG  </t>
         </is>
       </c>
       <c r="G220" t="n">
@@ -9605,7 +9759,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CASEID, VEHNO, INTCOMP, INTMAG, INTDIRECT FROM INTRUSION WHERE CASEID &lt; 20392 </t>
+          <t xml:space="preserve">SELECT CASEID, VEHNO, INTCOMP, INTMAG, INTDIRECT FROM INTRUSION WHERE CASEID &lt; 20392  </t>
         </is>
       </c>
       <c r="G221" t="n">
@@ -9646,11 +9800,11 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT VEHNO, INTDIRECT FROM INTRUSION WHERE CASEID = 20387 </t>
+          <t xml:space="preserve">SELECT VEHNO, INTDIRECT FROM INTRUSION WHERE CASEID = 20387  </t>
         </is>
       </c>
       <c r="G222" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H222" t="b">
         <v>1</v>
@@ -9687,7 +9841,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT REGION, COUNT(*) INJCOUNT FROM INJURY GROUP BY REGION </t>
+          <t xml:space="preserve">SELECT REGION, COUNT(*) INJCOUNT FROM INJURY GROUP BY REGION  </t>
         </is>
       </c>
       <c r="G223" t="n">
@@ -9728,7 +9882,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AIS, COUNT(*) INJCOUNT FROM INJURY GROUP BY AIS </t>
+          <t xml:space="preserve">SELECT AIS, COUNT(*) INJCOUNT FROM INJURY GROUP BY AIS  </t>
         </is>
       </c>
       <c r="G224" t="n">
@@ -9767,7 +9921,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) INJCOUNT FROM ICS WHERE SOE = 999 </t>
+          <t xml:space="preserve">SELECT COUNT(*) INJCOUNT FROM ICS WHERE SOE = 999  </t>
         </is>
       </c>
       <c r="G225" t="n">
@@ -9809,7 +9963,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT REGION, COUNT(*) INJCOUNT FROM INJURY WHERE AIS = 5 GROUP BY REGION </t>
+          <t xml:space="preserve">SELECT REGION, COUNT(*) INJCOUNT FROM INJURY WHERE AIS = 5 GROUP BY REGION  </t>
         </is>
       </c>
       <c r="G226" t="n">
@@ -9851,7 +10005,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AIS, COUNT(*) INJCOUNT FROM INJURY WHERE REGION = 6 GROUP BY AIS </t>
+          <t xml:space="preserve">SELECT AIS, COUNT(*) INJCOUNT FROM INJURY WHERE REGION = 6 GROUP BY AIS  </t>
         </is>
       </c>
       <c r="G227" t="n">
@@ -9894,7 +10048,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MAKE, COUNT(*) MINORINJURIES FROM VPICDECODE V JOIN INJURY I ON  V.CASEID = I.CASEID AND V.VEHNO = I.VEHNO WHERE AIS = 1 GROUP BY MAKE </t>
+          <t xml:space="preserve">SELECT MAKE, COUNT(*) MINORINJURIES FROM VPICDECODE V JOIN INJURY I ON  V.CASEID = I.CASEID AND V.VEHNO = I.VEHNO WHERE AIS = 1 GROUP BY MAKE  </t>
         </is>
       </c>
       <c r="G228" t="n">
@@ -9926,21 +10080,31 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E229" t="inlineStr"/>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>SELECT v.Make, COUNT(*) AS neck_injury_count
+FROM INJURY i
+JOIN VPICDECODE v ON i.CASEID = v.CASEID AND i.VEHNO = v.VEHNO
+WHERE i.REGION = 4
+GROUP BY v.Make
+ORDER BY neck_injury_count DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 MAKE FROM VPICDECODE V JOIN INJURY I ON  V.CASEID = I.CASEID AND V.VEHNO = I.VEHNO WHERE REGION = 3 GROUP BY MAKE ORDER BY COUNT(*) </t>
+          <t xml:space="preserve">SELECT  MAKE FROM VPICDECODE V JOIN INJURY I ON  V.CASEID = I.CASEID AND V.VEHNO = I.VEHNO WHERE REGION = 3 GROUP BY MAKE ORDER BY COUNT(*) limit 1 </t>
         </is>
       </c>
       <c r="G229" t="n">
-        <v>-1</v>
+        <v>231</v>
       </c>
       <c r="H229" t="b">
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -9970,7 +10134,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(NOTIFIED) AVGNOTIFICATIONTIME FROM EMSCARE WHERE NOTIFIED &lt;= 1000 </t>
+          <t xml:space="preserve">SELECT AVG(NOTIFIED) AVGNOTIFICATIONTIME FROM EMSCARE WHERE NOTIFIED &lt;= 1000  </t>
         </is>
       </c>
       <c r="G230" t="n">
@@ -10004,14 +10168,14 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>SELECT AVG(SCENEARR) AS average_scene_arrival_time
+          <t>SELECT AVG(SCENEARR) AS average_arrival_time
 FROM EMSCARE
 WHERE SCENEARR &lt;= 1600</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(SCENEARR) AVGARRIVALTIME FROM EMSCARE WHERE SCENEARR &lt;= 1600 </t>
+          <t xml:space="preserve">SELECT AVG(SCENEARR) AVGARRIVALTIME FROM EMSCARE WHERE SCENEARR &lt;= 1600  </t>
         </is>
       </c>
       <c r="G231" t="n">
@@ -10052,7 +10216,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(SCENEDEP) AVGDEPTIME FROM EMSCARE WHERE SCENEDEP &lt;= 1600 </t>
+          <t xml:space="preserve">SELECT AVG(SCENEDEP) AVGDEPTIME FROM EMSCARE WHERE SCENEDEP &lt;= 1600  </t>
         </is>
       </c>
       <c r="G232" t="n">
@@ -10093,7 +10257,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(ARRMEDICAL) AVGMEDARRIVE FROM EMSCARE WHERE ARRMEDICAL &lt;= 1600 </t>
+          <t xml:space="preserve">SELECT AVG(ARRMEDICAL) AVGMEDARRIVE FROM EMSCARE WHERE ARRMEDICAL &lt;= 1600  </t>
         </is>
       </c>
       <c r="G233" t="n">
@@ -10139,7 +10303,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CASEID, NOTIFIED, SCENEARR, SCENEDEP, ARRMEDICAL FROM EMSCARE WHERE EMSTYPE = 1 </t>
+          <t xml:space="preserve">SELECT CASEID, NOTIFIED, SCENEARR, SCENEDEP, ARRMEDICAL FROM EMSCARE WHERE EMSTYPE = 1  </t>
         </is>
       </c>
       <c r="G234" t="n">
@@ -10180,7 +10344,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) TACOMACOUNT FROM VPICDECODE WHERE MAKE = 'TOYOTA' AND MODEL = 'TACOMA' </t>
+          <t xml:space="preserve">SELECT COUNT(*) TACOMACOUNT FROM VPICDECODE WHERE MAKE = 'TOYOTA' AND MODEL = 'TACOMA'  </t>
         </is>
       </c>
       <c r="G235" t="n">
@@ -10222,7 +10386,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MODELYR, COUNT(*) VEHCOUNT FROM GV GROUP BY MODELYR ORDER BY MODELYR </t>
+          <t xml:space="preserve">SELECT MODELYR, COUNT(*) VEHCOUNT FROM GV GROUP BY MODELYR ORDER BY MODELYR  </t>
         </is>
       </c>
       <c r="G236" t="n">
@@ -10254,21 +10418,29 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E237" t="inlineStr"/>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>SELECT Make
+FROM VPICDECODE
+GROUP BY Make
+ORDER BY AVG(ModelYear) ASC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 MAKE, AVG(MODELYEAR) AVGYEAR FROM VPICDECODE GROUP BY MAKE ORDER BY AVGYEAR ASC </t>
+          <t xml:space="preserve">SELECT  MAKE, AVG(MODELYEAR) AVGYEAR FROM VPICDECODE GROUP BY MAKE ORDER BY AVGYEAR ASC limit 1 </t>
         </is>
       </c>
       <c r="G237" t="n">
-        <v>-1</v>
+        <v>167</v>
       </c>
       <c r="H237" t="b">
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>Insufficient number of columns in generated result set</t>
         </is>
       </c>
     </row>
@@ -10296,11 +10468,11 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV WHERE DRPRESENT = 0 </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV WHERE DRPRESENT = 0  </t>
         </is>
       </c>
       <c r="G238" t="n">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="H238" t="b">
         <v>1</v>
@@ -10335,7 +10507,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV  WHERE ZIP = 95020 </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV  WHERE ZIP = 95020  </t>
         </is>
       </c>
       <c r="G239" t="n">
@@ -10376,7 +10548,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT DRUGTEST, COUNT(*) FROM GV GROUP BY DRUGTEST </t>
+          <t xml:space="preserve">SELECT DRUGTEST, COUNT(*) FROM GV GROUP BY DRUGTEST  </t>
         </is>
       </c>
       <c r="G240" t="n">
@@ -10415,7 +10587,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT DISTINCT GLAZPRE FROM GLAZING </t>
+          <t xml:space="preserve">SELECT DISTINCT GLAZPRE FROM GLAZING  </t>
         </is>
       </c>
       <c r="G241" t="n">
@@ -10456,7 +10628,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CDCPLANE, COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHICLECOUNT FROM CDC GROUP BY CDCPLANE </t>
+          <t xml:space="preserve">SELECT CDCPLANE, COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHICLECOUNT FROM CDC GROUP BY CDCPLANE  </t>
         </is>
       </c>
       <c r="G242" t="n">
@@ -10497,11 +10669,11 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) ACCIDENTCOUNT FROM INTERIOR WHERE GLAZINGCONT = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) ACCIDENTCOUNT FROM INTERIOR WHERE GLAZINGCONT = 1  </t>
         </is>
       </c>
       <c r="G243" t="n">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="H243" t="b">
         <v>0</v>
@@ -10529,21 +10701,30 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E244" t="inlineStr"/>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>SELECT RECFRONT1 AS tire_size
+FROM TIREPLAC
+WHERE RECFRONT1 &lt;&gt; '9999999999'
+GROUP BY RECFRONT1
+ORDER BY COUNT(*) DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 RECFRONT1 FROM TIREPLAC T WHERE RECFRONT1 &lt;&gt; '9999999999' GROUP BY RECFRONT1 ORDER BY COUNT(*) DESC </t>
+          <t xml:space="preserve">SELECT  RECFRONT1 FROM TIREPLAC T WHERE RECFRONT1 &lt;&gt; '9999999999' GROUP BY RECFRONT1 ORDER BY COUNT(*) DESC limit 1 </t>
         </is>
       </c>
       <c r="G244" t="n">
-        <v>-1</v>
+        <v>198</v>
       </c>
       <c r="H244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -10571,11 +10752,11 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) AS WINDSHIELD_DAMAGE_COUNT FROM GLAZING WHERE GLAZLOC = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(*) AS WINDSHIELD_DAMAGE_COUNT FROM GLAZING WHERE GLAZLOC = 1  </t>
         </is>
       </c>
       <c r="G245" t="n">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="H245" t="b">
         <v>1</v>
@@ -10605,18 +10786,18 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>SELECT GLAZIMP AS glazing_impact_damage_category, COUNT(*) AS vehicle_count
+          <t>SELECT GLAZIMP, COUNT(*) AS vehicle_count
 FROM GLAZING
 GROUP BY GLAZIMP</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT GLAZIMP, COUNT(DISTINCT VIN) AS VEHCOUNT FROM GLAZING GZ JOIN GV ON GV.CASEID = GZ.CASEID AND GV.VEHNO = GZ.VEHNO GROUP BY GLAZIMP ORDER BY GLAZIMP </t>
+          <t xml:space="preserve">SELECT GLAZIMP, COUNT(DISTINCT VIN) AS VEHCOUNT FROM GLAZING GZ JOIN GV ON GV.CASEID = GZ.CASEID AND GV.VEHNO = GZ.VEHNO GROUP BY GLAZIMP ORDER BY GLAZIMP  </t>
         </is>
       </c>
       <c r="G246" t="n">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H246" t="b">
         <v>0</v>
@@ -10653,7 +10834,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) CRASHCOUNT FROM ADAPT </t>
+          <t xml:space="preserve">SELECT COUNT(*) CRASHCOUNT FROM ADAPT  </t>
         </is>
       </c>
       <c r="G247" t="n">
@@ -10685,21 +10866,25 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E248" t="inlineStr"/>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>SELECT MAX(PVALUE) AS highest_roll_angle FROM EDRPOSTCRASH</t>
+        </is>
+      </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 PVALUE FROM EDRPOSTCRASH WHERE PCODE = 2060 ORDER BY PVALUE DESC </t>
+          <t xml:space="preserve">SELECT  PVALUE FROM EDRPOSTCRASH WHERE PCODE = 2060 ORDER BY PVALUE DESC limit 1 </t>
         </is>
       </c>
       <c r="G248" t="n">
-        <v>-1</v>
+        <v>166</v>
       </c>
       <c r="H248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -10730,7 +10915,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CRASHMONTH, COUNT(*) AS CRASHCOUNT  FROM CRASH GROUP BY CRASHMONTH ORDER BY CRASHMONTH </t>
+          <t xml:space="preserve">SELECT CRASHMONTH, COUNT(*) AS CRASHCOUNT  FROM CRASH GROUP BY CRASHMONTH ORDER BY CRASHMONTH  </t>
         </is>
       </c>
       <c r="G249" t="n">
@@ -10766,18 +10951,17 @@
         <is>
           <t>SELECT CASEID, MAX(PVALUE) AS max_speed
 FROM EDRPRECRASH
-WHERE PCODE = 1010
 GROUP BY CASEID
 HAVING MAX(PVALUE) &gt; 100 AND MAX(PVALUE) &lt;= 200</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CASEID, MAX(PVALUE) MAXSPEED FROM EDRPRECRASH WHERE PCODE = 1010 AND PVALUE &gt; 100 AND PVALUE &lt; 200 GROUP BY CASEID </t>
+          <t xml:space="preserve">SELECT CASEID, MAX(PVALUE) MAXSPEED FROM EDRPRECRASH WHERE PCODE = 1010 AND PVALUE &gt; 100 AND PVALUE &lt; 200 GROUP BY CASEID  </t>
         </is>
       </c>
       <c r="G250" t="n">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="H250" t="b">
         <v>0</v>
@@ -10818,9 +11002,7 @@
     VPICDECODE v
     ON e.CASEID = v.CASEID AND e.VEHNO = v.VEHNO
 WHERE 
-    e.PCODE = 1010
-    AND e.PVALUE &gt; 160
-    AND e.PVALUE &lt;= 300
+    e.PVALUE &gt; 160 AND e.PVALUE &lt;= 300
 GROUP BY 
     e.CASEID, v.Make, v.Model
 ORDER BY 
@@ -10829,18 +11011,18 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT PR.CASEID, MAKE, MODEL, MAX(PVALUE) MAXSPEED  FROM EDRPRECRASH PR JOIN VPICDECODE V ON PR.CASEID = V.CASEID AND V.VEHNO = PR.VEHNO WHERE PCODE = 1010 AND PVALUE &gt; 160 AND PVALUE &lt; 300 GROUP BY PR.CASEID, PR.VEHNO, MAKE, MODEL ORDER BY MAX(PVALUE) DESC </t>
+          <t xml:space="preserve">SELECT PR.CASEID, MAKE, MODEL, MAX(PVALUE) MAXSPEED  FROM EDRPRECRASH PR JOIN VPICDECODE V ON PR.CASEID = V.CASEID AND V.VEHNO = PR.VEHNO WHERE PCODE = 1010 AND PVALUE &gt; 160 AND PVALUE &lt; 300 GROUP BY PR.CASEID, PR.VEHNO, MAKE, MODEL ORDER BY MAX(PVALUE) DESC  </t>
         </is>
       </c>
       <c r="G251" t="n">
-        <v>392</v>
+        <v>321</v>
       </c>
       <c r="H251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -10863,23 +11045,23 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>SELECT Make FROM VPICDECODE</t>
+          <t>SELECT DISTINCT Make FROM VPICDECODE</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT DISTINCT MAKE FROM VPICDECODE </t>
+          <t xml:space="preserve">SELECT DISTINCT MAKE FROM VPICDECODE  </t>
         </is>
       </c>
       <c r="G252" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -10902,16 +11084,16 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>SELECT COUNT(DISTINCT ICS_TYPE) AS num_injury_causation_scenarios FROM ICS</t>
+          <t>SELECT COUNT(DISTINCT ICS_TYPE) FROM ICS</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT ICS_TYPE) TYPECOUNT FROM ICS </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT ICS_TYPE) TYPECOUNT FROM ICS  </t>
         </is>
       </c>
       <c r="G253" t="n">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="H253" t="b">
         <v>1</v>
@@ -10948,7 +11130,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT BRI, COUNT(*) AS INJURY_COUNT  FROM ICS GROUP BY BRI </t>
+          <t xml:space="preserve">SELECT BRI, COUNT(*) AS INJURY_COUNT  FROM ICS GROUP BY BRI  </t>
         </is>
       </c>
       <c r="G254" t="n">
@@ -10989,7 +11171,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(AGE) AVGAGE FROM OCC WHERE AGE &lt;= 130 </t>
+          <t xml:space="preserve">SELECT AVG(AGE) AVGAGE FROM OCC WHERE AGE &lt;= 130  </t>
         </is>
       </c>
       <c r="G255" t="n">
@@ -11032,7 +11214,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AGE, AVG(HEIGHT) AVGHEIGHT FROM OCC WHERE AGE &lt;= 120 AND HEIGHT &lt;= 220 GROUP BY AGE ORDER BY AGE ASC </t>
+          <t xml:space="preserve">SELECT AGE, AVG(HEIGHT) AVGHEIGHT FROM OCC WHERE AGE &lt;= 120 AND HEIGHT &lt;= 220 GROUP BY AGE ORDER BY AGE ASC  </t>
         </is>
       </c>
       <c r="G256" t="n">
@@ -11073,7 +11255,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) DEATHCOUNT FROM OCC WHERE FETALMORT = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) DEATHCOUNT FROM OCC WHERE FETALMORT = 1  </t>
         </is>
       </c>
       <c r="G257" t="n">
@@ -11114,7 +11296,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) NOBELTCOUNT FROM OCC WHERE BELTAVAIL = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) NOBELTCOUNT FROM OCC WHERE BELTAVAIL = 1  </t>
         </is>
       </c>
       <c r="G258" t="n">
@@ -11148,16 +11330,18 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>SELECT COUNT(DISTINCT CASEID) FROM OCC WHERE BELTUSE IN (0, 1)</t>
+          <t>SELECT COUNT(DISTINCT CASEID) 
+FROM OCC 
+WHERE BELTUSE IN (0, 1)</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) NOBELTCOUNT FROM OCC WHERE BELTUSE IN (0, 1) </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) NOBELTCOUNT FROM OCC WHERE BELTUSE IN (0, 1)  </t>
         </is>
       </c>
       <c r="G259" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H259" t="b">
         <v>1</v>
@@ -11195,7 +11379,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) OCCCOUNT FROM OCC WHERE BELTUSE IN (0, 1) AND BELTAVAIL IN (2, 3, 4, 5, 6, 7, 8) </t>
+          <t xml:space="preserve">SELECT COUNT(*) OCCCOUNT FROM OCC WHERE BELTUSE IN (0, 1) AND BELTAVAIL IN (2, 3, 4, 5, 6, 7, 8)  </t>
         </is>
       </c>
       <c r="G260" t="n">
@@ -11237,7 +11421,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT BELTUSE, COUNT(*) MORTALCOUNT FROM OCC WHERE MORTALITY = 1 GROUP BY BELTUSE </t>
+          <t xml:space="preserve">SELECT BELTUSE, COUNT(*) MORTALCOUNT FROM OCC WHERE MORTALITY = 1 GROUP BY BELTUSE  </t>
         </is>
       </c>
       <c r="G261" t="n">
@@ -11281,7 +11465,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT M.BELTUSE, TOTALCOUNT, MORTALCOUNT FROM ( 	SELECT BELTUSE, COUNT(*) MORTALCOUNT 	FROM OCC 	WHERE MORTALITY = 1 	GROUP BY BELTUSE ) M JOIN ( 	SELECT BELTUSE, COUNT(*) TOTALCOUNT 	FROM OCC 	GROUP BY BELTUSE ) T ON M.BELTUSE = T.BELTUSE </t>
+          <t xml:space="preserve">SELECT M.BELTUSE, TOTALCOUNT, MORTALCOUNT FROM ( 	SELECT BELTUSE, COUNT(*) MORTALCOUNT 	FROM OCC 	WHERE MORTALITY = 1 	GROUP BY BELTUSE ) M JOIN ( 	SELECT BELTUSE, COUNT(*) TOTALCOUNT 	FROM OCC 	GROUP BY BELTUSE ) T ON M.BELTUSE = T.BELTUSE  </t>
         </is>
       </c>
       <c r="G262" t="n">
@@ -11322,7 +11506,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHCOUNT FROM CDC WHERE PDOF &gt;= 150 AND PDOF &lt;= 210 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHCOUNT FROM CDC WHERE PDOF &gt;= 150 AND PDOF &lt;= 210  </t>
         </is>
       </c>
       <c r="G263" t="n">
@@ -11363,7 +11547,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM CDC WHERE HEADINGANG &gt;= 0 AND HEADINGANG &lt;= 90 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM CDC WHERE HEADINGANG &gt;= 0 AND HEADINGANG &lt;= 90  </t>
         </is>
       </c>
       <c r="G264" t="n">
@@ -11395,21 +11579,27 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E265" t="inlineStr"/>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>SELECT MAX(CMAX) AS max_crush_depth
+FROM CDC
+WHERE CMAX NOT IN (888, 999)</t>
+        </is>
+      </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 CMAX  FROM CDC WHERE CMAX NOT IN (888, 999) ORDER BY CMAX DESC </t>
+          <t xml:space="preserve">SELECT  CMAX  FROM CDC WHERE CMAX NOT IN (888, 999) ORDER BY CMAX DESC limit 1 </t>
         </is>
       </c>
       <c r="G265" t="n">
-        <v>-1</v>
+        <v>171</v>
       </c>
       <c r="H265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -11439,11 +11629,11 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHICLECOUNT FROM CDC WHERE DAMAPILLAR = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHICLECOUNT FROM CDC WHERE DAMAPILLAR = 1  </t>
         </is>
       </c>
       <c r="G266" t="n">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="H266" t="b">
         <v>0</v>
@@ -11480,11 +11670,11 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHICLECOUNT FROM CDC WHERE DAMOTHPILLAR = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHICLECOUNT FROM CDC WHERE DAMOTHPILLAR = 1  </t>
         </is>
       </c>
       <c r="G267" t="n">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="H267" t="b">
         <v>0</v>
@@ -11521,7 +11711,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(DOORSILLDIFF) AVGDIFF FROM CDC WHERE DOORSILLDIFF NOT IN (888, 999) </t>
+          <t xml:space="preserve">SELECT AVG(DOORSILLDIFF) AVGDIFF FROM CDC WHERE DOORSILLDIFF NOT IN (888, 999)  </t>
         </is>
       </c>
       <c r="G268" t="n">
@@ -11553,21 +11743,27 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E269" t="inlineStr"/>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>SELECT MAX(DVBARRIER) AS highest_collision_speed
+FROM CDC
+WHERE DVBARRIER &lt;&gt; 999</t>
+        </is>
+      </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 DVBARRIER FROM CDC WHERE DVBARRIER &lt;&gt; 999 ORDER BY DVBARRIER DESC </t>
+          <t xml:space="preserve">SELECT  DVBARRIER FROM CDC WHERE DVBARRIER &lt;&gt; 999 ORDER BY DVBARRIER DESC limit 1 </t>
         </is>
       </c>
       <c r="G269" t="n">
-        <v>-1</v>
+        <v>184</v>
       </c>
       <c r="H269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -11608,16 +11804,17 @@
     OR C3 NOT IN (888, 999)
     OR C4 NOT IN (888, 999)
     OR C5 NOT IN (888, 999)
-    OR C6 NOT IN (888, 999)</t>
+    OR C6 NOT IN (888, 999)
+    OR CMAX NOT IN (888, 999)</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CASEID, VEHNO, CMAX, C1, C2, C3, C4, C5, C6 FROM CDC WHERE CMAX NOT IN (888, 999) </t>
+          <t xml:space="preserve">SELECT CASEID, VEHNO, CMAX, C1, C2, C3, C4, C5, C6 FROM CDC WHERE CMAX NOT IN (888, 999)  </t>
         </is>
       </c>
       <c r="G270" t="n">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="H270" t="b">
         <v>1</v>
@@ -11659,7 +11856,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CASEID, VEHNO, EDRSUMMNO FROM EDREVENT GROUP BY CASEID, VEHNO, EDRSUMMNO HAVING COUNT(*) = 10 </t>
+          <t xml:space="preserve">SELECT CASEID, VEHNO, EDRSUMMNO FROM EDREVENT GROUP BY CASEID, VEHNO, EDRSUMMNO HAVING COUNT(*) = 10  </t>
         </is>
       </c>
       <c r="G271" t="n">
@@ -11708,7 +11905,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT EV.CASEID, EV.EDREVENTNO, COUNT(*) AS PRECRASHTIMEPOINTS FROM EDRPRECRASH PC JOIN EDREVENT EV ON  	PC.CASEID = EV.CASEID 	AND PC.EDREVENTNO = EV.EDREVENTNO GROUP BY EV.CASEID, EV.EDREVENTNO ORDER BY CASEID </t>
+          <t xml:space="preserve">SELECT EV.CASEID, EV.EDREVENTNO, COUNT(*) AS PRECRASHTIMEPOINTS FROM EDRPRECRASH PC JOIN EDREVENT EV ON  	PC.CASEID = EV.CASEID 	AND PC.EDREVENTNO = EV.EDREVENTNO GROUP BY EV.CASEID, EV.EDREVENTNO ORDER BY EV.CASEID  </t>
         </is>
       </c>
       <c r="G272" t="n">
@@ -11743,15 +11940,15 @@
       <c r="E273" t="inlineStr">
         <is>
           <t>SELECT v.Make, v.Model, v.ModelYear, e.IGCYCRASH
-FROM EDREVENT e
-JOIN VPICDECODE v ON e.CASEID = v.CASEID AND e.VEHNO = v.VEHNO
+FROM VPICDECODE v
+JOIN EDREVENT e ON v.CASEID = e.CASEID AND v.VEHNO = e.VEHNO
 WHERE e.IGCYCRASH &lt; 200
 ORDER BY v.ModelYear DESC</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT DISTINCT MAKE, MODEL, MODELYEAR, IGCYCRASH  FROM EDREVENT E JOIN VPICDECODE V ON E.CASEID = V.CASEID AND E.VEHNO = V.VEHNO WHERE IGCYCRASH &lt; 200 AND IGCYCRASH &gt; 0 ORDER BY MODELYEAR DESC </t>
+          <t xml:space="preserve">SELECT DISTINCT MAKE, MODEL, MODELYEAR, IGCYCRASH  FROM EDREVENT E JOIN VPICDECODE V ON E.CASEID = V.CASEID AND E.VEHNO = V.VEHNO WHERE IGCYCRASH &lt; 200 AND IGCYCRASH &gt; 0 ORDER BY MODELYEAR DESC  </t>
         </is>
       </c>
       <c r="G273" t="n">
@@ -11792,7 +11989,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) AS VEHICLECOUNT FROM ( 	SELECT DISTINCT CASEID, VEHNO, IGCYCRASH 	FROM EDREVENT ) E WHERE IGCYCRASH &gt; 0 AND IGCYCRASH &lt; 400 </t>
+          <t xml:space="preserve">SELECT COUNT(*) AS VEHICLECOUNT FROM ( 	SELECT DISTINCT CASEID, VEHNO, IGCYCRASH 	FROM EDREVENT ) E WHERE IGCYCRASH &gt; 0 AND IGCYCRASH &lt; 400  </t>
         </is>
       </c>
       <c r="G274" t="n">
@@ -11834,7 +12031,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CASEID, VEHNO, OCCNO, COUNT(*) AS INJURY_COUNT FROM INJURY GROUP BY CASEID, VEHNO, OCCNO HAVING COUNT(INJNO) &gt; 1 ORDER BY INJURY_COUNT DESC </t>
+          <t xml:space="preserve">SELECT CASEID, VEHNO, OCCNO, COUNT(*) AS INJURY_COUNT FROM INJURY GROUP BY CASEID, VEHNO, OCCNO HAVING COUNT(INJNO) &gt; 1 ORDER BY INJURY_COUNT DESC  </t>
         </is>
       </c>
       <c r="G275" t="n">
@@ -11876,7 +12073,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT FUELTYPE, COUNT(*) FROM FIRE     JOIN FUEL ON FIRE.CASEID = FUEL.CASEID AND FIRE.VEHNO = FUEL.VEHNO GROUP BY FUELTYPE </t>
+          <t xml:space="preserve">SELECT FUELTYPE, COUNT(*) FROM FIRE     JOIN FUEL ON FIRE.CASEID = FUEL.CASEID AND FIRE.VEHNO = FUEL.VEHNO GROUP BY FUELTYPE  </t>
         </is>
       </c>
       <c r="G276" t="n">
@@ -11918,7 +12115,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT SEX, COUNT(*) FROM OCC JOIN EJECT ON OCC.CASEID = EJECT.CASEID AND OCC.VEHNO = EJECT.VEHNO AND OCC.OCCNO = EJECT.VEHNO GROUP BY SEX </t>
+          <t xml:space="preserve">SELECT SEX, COUNT(*) FROM OCC JOIN EJECT ON OCC.CASEID = EJECT.CASEID AND OCC.VEHNO = EJECT.VEHNO AND OCC.OCCNO = EJECT.VEHNO GROUP BY SEX  </t>
         </is>
       </c>
       <c r="G277" t="n">
@@ -11960,7 +12157,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MAKE, COUNT(*) AS CRASHCOUNT FROM VPICDECODE GROUP BY MAKE ORDER BY CRASHCOUNT DESC </t>
+          <t xml:space="preserve">SELECT MAKE, COUNT(*) AS CRASHCOUNT FROM VPICDECODE GROUP BY MAKE ORDER BY CRASHCOUNT DESC  </t>
         </is>
       </c>
       <c r="G278" t="n">
@@ -12001,7 +12198,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM AVOID WHERE AVAIL = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM AVOID WHERE AVAIL = 1  </t>
         </is>
       </c>
       <c r="G279" t="n">
@@ -12033,21 +12230,29 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E280" t="inlineStr"/>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>SELECT AVOID, COUNT(*) AS count
+FROM AVOID
+GROUP BY AVOID
+ORDER BY count DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 EQUIP FROM AVOID WHERE AVAIL = 1 GROUP BY EQUIP ORDER BY COUNT(*) DESC </t>
+          <t xml:space="preserve">SELECT  EQUIP FROM AVOID WHERE AVAIL = 1 GROUP BY EQUIP ORDER BY COUNT(*) DESC limit 1 </t>
         </is>
       </c>
       <c r="G280" t="n">
-        <v>-1</v>
+        <v>168</v>
       </c>
       <c r="H280" t="b">
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -12077,7 +12282,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM ( 	SELECT CASEID, VEHNO, COUNT(EQUIP) FEATURECOUNT 	FROM AVOID 	WHERE AVAIL = 1 	GROUP BY CASEID, VEHNO 	HAVING COUNT(*) &gt; 4 ) SUBQUERY_T </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM ( 	SELECT CASEID, VEHNO, COUNT(EQUIP) FEATURECOUNT 	FROM AVOID 	WHERE AVAIL = 1 	GROUP BY CASEID, VEHNO 	HAVING COUNT(*) &gt; 4 ) SUBQUERY_T  </t>
         </is>
       </c>
       <c r="G281" t="n">
@@ -12116,7 +12321,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM ( 	SELECT DISTINCT CASEID, VEHNO 	FROM TIREDAMAGE ) T </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM ( 	SELECT DISTINCT CASEID, VEHNO 	FROM TIREDAMAGE ) T  </t>
         </is>
       </c>
       <c r="G282" t="n">
@@ -12155,7 +12360,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM TIREPLAC WHERE GVWR &lt; 4000 </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM TIREPLAC WHERE GVWR &lt; 4000  </t>
         </is>
       </c>
       <c r="G283" t="n">
@@ -12196,7 +12401,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT GAWRFRONT, GAWRREAR FROM TIREPLAC WHERE GVWR BETWEEN 4000 AND 9000 </t>
+          <t xml:space="preserve">SELECT GAWRFRONT, GAWRREAR FROM TIREPLAC WHERE GVWR BETWEEN 4000 AND 9000  </t>
         </is>
       </c>
       <c r="G284" t="n">
@@ -12237,7 +12442,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(RECFRPRESS1) AVGFRONT, AVG(RECRRPRESS1) AVGREAR FROM TIREPLAC WHERE GVWR &lt; 3000 </t>
+          <t xml:space="preserve">SELECT AVG(RECFRPRESS1) AVGFRONT, AVG(RECRRPRESS1) AVGREAR FROM TIREPLAC WHERE GVWR &lt; 3000  </t>
         </is>
       </c>
       <c r="G285" t="n">
@@ -12278,7 +12483,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT RECFRONT1, AVG(RECFRPRESS1) AVGPRESS FROM TIREPLAC GROUP BY RECFRONT1 </t>
+          <t xml:space="preserve">SELECT RECFRONT1, AVG(RECFRPRESS1) AVGPRESS FROM TIREPLAC GROUP BY RECFRONT1  </t>
         </is>
       </c>
       <c r="G286" t="n">
@@ -12320,7 +12525,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT RECFRONT1, RECREAR1 FROM VPICDECODE V JOIN TIREPLAC T ON V.CASEID = T.CASEID  AND V.VEHNO = T.VEHNO WHERE MAKE = 'SUBARU' AND MODEL = 'WRX' </t>
+          <t xml:space="preserve">SELECT RECFRONT1, RECREAR1 FROM VPICDECODE V JOIN TIREPLAC T ON V.CASEID = T.CASEID  AND V.VEHNO = T.VEHNO WHERE MAKE = 'SUBARU' AND MODEL = 'WRX'  </t>
         </is>
       </c>
       <c r="G287" t="n">
@@ -12375,7 +12580,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT RECFRONT1, RECREAR1, RECFRPRESS1, RECRRPRESS1 FROM VPICDECODE V JOIN TIREPLAC T ON V.CASEID = T.CASEID  AND V.VEHNO = T.VEHNO WHERE MAKE = 'HONDA' AND MODEL = 'CIVIC' AND MODELYEAR &lt; 2012 </t>
+          <t xml:space="preserve">SELECT RECFRONT1, RECREAR1, RECFRPRESS1, RECRRPRESS1 FROM VPICDECODE V JOIN TIREPLAC T ON V.CASEID = T.CASEID  AND V.VEHNO = T.VEHNO WHERE MAKE = 'HONDA' AND MODEL = 'CIVIC' AND MODELYEAR &lt; 2012  </t>
         </is>
       </c>
       <c r="G288" t="n">
@@ -12416,7 +12621,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHCOUNT FROM TIRE WHERE TIREMODEL = 'WRANGLER' </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHCOUNT FROM TIRE WHERE TIREMODEL = 'WRANGLER'  </t>
         </is>
       </c>
       <c r="G289" t="n">
@@ -12452,21 +12657,17 @@
         <is>
           <t>SELECT DISTINCT TIRE.TIREMODEL
 FROM TIRE
-JOIN VPICDECODE
-  ON TIRE.CASEID = VPICDECODE.CASEID
-  AND TIRE.VEHNO = VPICDECODE.VEHNO
-WHERE VPICDECODE.Make = 'Jeep'
-  AND VPICDECODE.Model = 'Wrangler'
-  AND TIRE.TIREMODEL IS NOT NULL</t>
+JOIN VPICDECODE ON TIRE.CASEID = VPICDECODE.CASEID AND TIRE.VEHNO = VPICDECODE.VEHNO
+WHERE VPICDECODE.Make = 'Jeep' AND VPICDECODE.Model = 'Wrangler'</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT DISTINCT TIREMODEL FROM TIRE T JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO WHERE MAKE = 'JEEP' AND MODEL = 'WRANGLER' </t>
+          <t xml:space="preserve">SELECT DISTINCT TIREMODEL FROM TIRE T JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO WHERE MAKE = 'JEEP' AND MODEL = 'WRANGLER'  </t>
         </is>
       </c>
       <c r="G290" t="n">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="H290" t="b">
         <v>0</v>
@@ -12504,7 +12705,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TIREMODEL, COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHCOUNT FROM TIRE T GROUP BY TIREMODEL ORDER BY COUNT(DISTINCT CONCAT(CASEID, VEHNO)) DESC </t>
+          <t xml:space="preserve">SELECT TIREMODEL, COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHCOUNT FROM TIRE T GROUP BY TIREMODEL ORDER BY COUNT(DISTINCT CONCAT(CASEID, VEHNO)) DESC  </t>
         </is>
       </c>
       <c r="G291" t="n">
@@ -12548,7 +12749,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TIREMODEL, COUNT(DISTINCT CONCAT(T.CASEID, T.VEHNO)) VEHCOUNT FROM TIRE T LEFT JOIN TIREDAMAGE TD ON T.CASEID = TD.CASEID AND T.VEHNO = TD.VEHNO WHERE DAMAGE &gt; 0 AND DAMAGE &lt;&gt; 9 GROUP BY TIREMODEL ORDER BY COUNT(DISTINCT CONCAT(T.CASEID, T.VEHNO)) DESC </t>
+          <t xml:space="preserve">SELECT TIREMODEL, COUNT(DISTINCT CONCAT(T.CASEID, T.VEHNO)) VEHCOUNT FROM TIRE T LEFT JOIN TIREDAMAGE TD ON T.CASEID = TD.CASEID AND T.VEHNO = TD.VEHNO WHERE DAMAGE &gt; 0 AND DAMAGE &lt;&gt; 9 GROUP BY TIREMODEL ORDER BY COUNT(DISTINCT CONCAT(T.CASEID, T.VEHNO)) DESC  </t>
         </is>
       </c>
       <c r="G292" t="n">
@@ -12582,26 +12783,35 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>SELECT t.CASEID, t.VEHNO, tp.RECFRONT1 AS recommended_tire_size, t.TIRESIZE AS actual_tire_size
-FROM TIRE t
-JOIN TIREPLAC tp ON t.CASEID = tp.CASEID AND t.VEHNO = tp.VEHNO
-WHERE t.TIRELOC = 'Left Front' AND t.TIRESIZE = tp.RECFRONT1</t>
+          <t>SELECT 
+    t.CASEID, 
+    t.VEHNO, 
+    tp.RECFRONT1 AS recommended_tiresize, 
+    t.TIRESIZE AS actual_tiresize
+FROM 
+    TIRE t
+JOIN 
+    TIREPLAC tp
+    ON t.CASEID = tp.CASEID AND t.VEHNO = tp.VEHNO
+WHERE 
+    t.TIRELOC = 'LF'
+    AND t.TIRESIZE = tp.RECFRONT1</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT T.CASEID, T.VEHNO, TIRESIZE, RECFRONT1 FROM TIRE T JOIN TIREPLAC TP ON T.CASEID = TP.CASEID AND T.VEHNO = TP.VEHNO WHERE TIRELOC = 'LF' AND TIRESIZE = RECFRONT1 </t>
+          <t xml:space="preserve">SELECT T.CASEID, T.VEHNO, TIRESIZE, RECFRONT1 FROM TIRE T JOIN TIREPLAC TP ON T.CASEID = TP.CASEID AND T.VEHNO = TP.VEHNO WHERE TIRELOC = 'LF' AND TIRESIZE = RECFRONT1  </t>
         </is>
       </c>
       <c r="G293" t="n">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="H293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -12628,8 +12838,8 @@
     t.CASEID, 
     v.Make, 
     v.Model, 
-    tp.RECFRONT1 AS recommended_tire_size, 
-    t.TIRESIZE AS actual_tire_size
+    tp.RECFRONT1 AS Recommended_Tire_Size, 
+    t.TIRESIZE AS Actual_Tire_Size
 FROM 
     TIRE t
 JOIN 
@@ -12643,7 +12853,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT T.CASEID, MAKE, MODEL, T.VEHNO, TIRESIZE, RECFRONT1 FROM TIRE T JOIN TIREPLAC TP ON T.CASEID = TP.CASEID AND T.VEHNO = TP.VEHNO JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO WHERE TIRELOC = 'LF' AND TIRESIZE &lt;&gt; RECFRONT1 </t>
+          <t xml:space="preserve">SELECT T.CASEID, MAKE, MODEL, T.VEHNO, TIRESIZE, RECFRONT1 FROM TIRE T JOIN TIREPLAC TP ON T.CASEID = TP.CASEID AND T.VEHNO = TP.VEHNO JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO WHERE TIRELOC = 'LF' AND TIRESIZE &lt;&gt; RECFRONT1  </t>
         </is>
       </c>
       <c r="G294" t="n">
@@ -12675,21 +12885,35 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E295" t="inlineStr"/>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>SELECT v.Make, COUNT(*) AS mismatched_count
+FROM TIRE t
+JOIN TIREPLAC tp ON t.CASEID = tp.CASEID AND t.VEHNO = tp.VEHNO
+JOIN VPICDECODE v ON t.CASEID = v.CASEID AND t.VEHNO = v.VEHNO
+WHERE t.TIRELOC = 'LF'
+  AND t.TIRESIZE IS NOT NULL
+  AND tp.RECFRONT1 IS NOT NULL
+  AND t.TIRESIZE != tp.RECFRONT1
+GROUP BY v.Make
+ORDER BY mismatched_count DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 MAKE FROM TIRE T JOIN TIREPLAC TP ON T.CASEID = TP.CASEID AND T.VEHNO = TP.VEHNO JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO WHERE TIRELOC = 'LF' AND TIRESIZE &lt;&gt; RECFRONT1 GROUP BY MAKE ORDER BY COUNT(DISTINCT T.CASEID) DESC </t>
+          <t xml:space="preserve">SELECT  MAKE FROM TIRE T JOIN TIREPLAC TP ON T.CASEID = TP.CASEID AND T.VEHNO = TP.VEHNO JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO WHERE TIRELOC = 'LF' AND TIRESIZE &lt;&gt; RECFRONT1 GROUP BY MAKE ORDER BY COUNT(DISTINCT T.CASEID) DESC limit 1 </t>
         </is>
       </c>
       <c r="G295" t="n">
-        <v>-1</v>
+        <v>346</v>
       </c>
       <c r="H295" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -12717,7 +12941,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) DISTRACTACCIDENTCOUNT FROM DISTRACT D </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) DISTRACTACCIDENTCOUNT FROM DISTRACT D  </t>
         </is>
       </c>
       <c r="G296" t="n">
@@ -12758,7 +12982,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT D.CASEID) ACCIDENTCOUNT FROM DISTRACT D JOIN ( 	SELECT DISTINCT CASEID FROM CHILDSEAT WHERE OCCNO IS NOT NULL ) S ON D.CASEID = S.CASEID </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT D.CASEID) ACCIDENTCOUNT FROM DISTRACT D JOIN ( 	SELECT DISTINCT CASEID FROM CHILDSEAT WHERE OCCNO IS NOT NULL ) S ON D.CASEID = S.CASEID  </t>
         </is>
       </c>
       <c r="G297" t="n">
@@ -12792,20 +13016,20 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>SELECT v.Make, v.Model, COUNT(*) AS car_seat_count
-FROM VPICDECODE v
-JOIN CHILDSEAT c ON v.CASEID = c.CASEID AND v.VEHNO = c.VEHNO
+          <t>SELECT v.Make, v.Model, COUNT(*) AS vehicle_count
+FROM CHILDSEAT c
+JOIN VPICDECODE v ON c.CASEID = v.CASEID AND c.VEHNO = v.VEHNO
 GROUP BY v.Make, v.Model
-ORDER BY car_seat_count DESC</t>
+ORDER BY vehicle_count DESC</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MAKE, MODEL, COUNT(*) AS VEHICLE_COUNT FROM VPICDECODE V JOIN CHILDSEAT C ON V.CASEID = C.CASEID AND V.VEHNO = C.VEHNO  GROUP BY MAKE, MODEL ORDER BY VEHICLE_COUNT DESC </t>
+          <t xml:space="preserve">SELECT MAKE, MODEL, COUNT(*) AS VEHICLE_COUNT FROM VPICDECODE V JOIN CHILDSEAT C ON V.CASEID = C.CASEID AND V.VEHNO = C.VEHNO  GROUP BY MAKE, MODEL ORDER BY VEHICLE_COUNT DESC  </t>
         </is>
       </c>
       <c r="G298" t="n">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H298" t="b">
         <v>1</v>
@@ -12852,7 +13076,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MAKE, MODEL, COUNT(*) AS VEHICLE_COUNT, COUNT(DISTRACTN) AS DISTRACTION_COUNT FROM VPICDECODE V JOIN CHILDSEAT C ON V.CASEID = C.CASEID AND V.VEHNO = C.VEHNO  LEFT JOIN DISTRACT D ON D.CASEID = V.CASEID AND D.VEHNO = V.VEHNO GROUP BY MAKE, MODEL ORDER BY DISTRACTION_COUNT DESC </t>
+          <t xml:space="preserve">SELECT MAKE, MODEL, COUNT(*) AS VEHICLE_COUNT, COUNT(DISTRACTN) AS DISTRACTION_COUNT FROM VPICDECODE V JOIN CHILDSEAT C ON V.CASEID = C.CASEID AND V.VEHNO = C.VEHNO  LEFT JOIN DISTRACT D ON D.CASEID = V.CASEID AND D.VEHNO = V.VEHNO GROUP BY MAKE, MODEL ORDER BY DISTRACTION_COUNT DESC  </t>
         </is>
       </c>
       <c r="G299" t="n">
@@ -12904,7 +13128,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MAKE, COUNT(*) AS VEHICLE_COUNT, COUNT(DISTRACTN) AS DISTRACT_COUNT, 	CAST(COUNT(DISTRACTN) AS FLOAT) / CAST(COUNT(*) AS FLOAT) AS PROP_DISTRACT FROM VPICDECODE V LEFT JOIN DISTRACT D ON V.CASEID = D.CASEID AND V.VEHNO = D.VEHNO GROUP BY MAKE HAVING COUNT(*) &gt; 5 ORDER BY PROP_DISTRACT DESC </t>
+          <t xml:space="preserve">SELECT MAKE, COUNT(*) AS VEHICLE_COUNT, COUNT(DISTRACTN) AS DISTRACT_COUNT, 	CAST(COUNT(DISTRACTN) AS FLOAT) / CAST(COUNT(*) AS FLOAT) AS PROP_DISTRACT FROM VPICDECODE V LEFT JOIN DISTRACT D ON V.CASEID = D.CASEID AND V.VEHNO = D.VEHNO GROUP BY MAKE HAVING COUNT(*) &gt; 5 ORDER BY PROP_DISTRACT DESC  </t>
         </is>
       </c>
       <c r="G300" t="n">
@@ -12940,17 +13164,13 @@
         <is>
           <t>SELECT 
     v.Make,
-    COUNT(DISTINCT v.CASEID) AS total_crashes,
-    COUNT(DISTINCT CASE WHEN f.FIRE = 1 THEN v.CASEID END) AS crashes_with_fire,
-    ROUND(
-        CAST(COUNT(DISTINCT v.CASEID) AS FLOAT) /
-        NULLIF(COUNT(DISTINCT CASE WHEN f.FIRE = 1 THEN v.CASEID END), 0), 2
-    ) AS proportion_total_to_fire
+    COUNT(*) AS total_crashes,
+    SUM(f.FIRE = 1) AS crashes_with_fire,
+    ROUND(CAST(SUM(f.FIRE = 1) AS FLOAT) / COUNT(*), 3) AS fire_proportion
 FROM 
     VPICDECODE v
 LEFT JOIN 
-    FIRE f
-    ON v.CASEID = f.CASEID AND v.VEHNO = f.VEHNO
+    FIRE f ON v.CASEID = f.CASEID AND v.VEHNO = f.VEHNO
 GROUP BY 
     v.Make
 ORDER BY 
@@ -12959,11 +13179,11 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MAKE, COUNT(*) AS CASE_COUNT, SUM(FIRE) AS FIRE_COUNT, (CAST(SUM(FIRE) AS FLOAT)/ CAST(COUNT(*) AS FLOAT)) AS FIRE_PROPORTION FROM VPICDECODE VD 	JOIN FIRE F ON F.CASEID = VD.CASEID AND F.VEHNO = VD.VEHNO GROUP BY MAKE ORDER BY FIRE_PROPORTION DESC </t>
+          <t xml:space="preserve">SELECT MAKE, COUNT(*) AS CASE_COUNT, SUM(FIRE) AS FIRE_COUNT, (CAST(SUM(FIRE) AS FLOAT)/ CAST(COUNT(*) AS FLOAT)) AS FIRE_PROPORTION FROM VPICDECODE VD 	JOIN FIRE F ON F.CASEID = VD.CASEID AND F.VEHNO = VD.VEHNO GROUP BY MAKE ORDER BY FIRE_PROPORTION DESC  </t>
         </is>
       </c>
       <c r="G301" t="n">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="H301" t="b">
         <v>0</v>
@@ -13002,7 +13222,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t xml:space="preserve">select institution_id, ENTITY_NAME, LEVEL from [Accountability_Levels] where SUBGROUP_NAME = 'Multiracial' and INDICATOR = 'HS Grad Rate' and entity_name like '%friendship%' </t>
+          <t xml:space="preserve">select institution_id, ENTITY_NAME, LEVEL from [Accountability_Levels] where SUBGROUP_NAME = 'Multiracial' and INDICATOR = 'HS Grad Rate' and entity_name like '%friendship%'  </t>
         </is>
       </c>
       <c r="G302" t="n">
@@ -13045,7 +13265,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SUBGROUP_NAME, pct_not_tested from [Annual_EM_ELA] where entity_name = 'PEMBROKE INTERMEDIATE SCHOOL'      and ASSESSMENT_NAME = 'ELA4'     and year = 2021 </t>
+          <t xml:space="preserve">select SUBGROUP_NAME, pct_not_tested from [Annual_EM_ELA] where entity_name = 'PEMBROKE INTERMEDIATE SCHOOL'      and ASSESSMENT_NAME = 'ELA4'     and year = 2021  </t>
         </is>
       </c>
       <c r="G303" t="n">
@@ -13086,11 +13306,11 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) entryCount from [Annual_NYSAA] where year = 2022 </t>
+          <t xml:space="preserve">select count(*) entryCount from [Annual_NYSAA] where year = 2022  </t>
         </is>
       </c>
       <c r="G304" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H304" t="b">
         <v>1</v>
@@ -13127,7 +13347,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PUPIL_COUNT_TOT, FEDERAL_EXP, PER_FEDERAL_EXP from [Expenditures_per_Pupil] where entity_name = 'MONTESSORI MAGNET SCHOOL' and year = 2022 </t>
+          <t xml:space="preserve">select PUPIL_COUNT_TOT, FEDERAL_EXP, PER_FEDERAL_EXP from [Expenditures_per_Pupil] where entity_name = 'MONTESSORI MAGNET SCHOOL' and year = 2022  </t>
         </is>
       </c>
       <c r="G305" t="n">
@@ -13162,11 +13382,11 @@
       <c r="E306" t="inlineStr">
         <is>
           <t>SELECT 
-    e.PUPIL_COUNT_TOT,
-    e.FEDERAL_EXP,
-    e.PER_FEDERAL_EXP,
+    e.PUPIL_COUNT_TOT AS student_count,
+    e.FEDERAL_EXP AS federal_expenditure,
+    e.PER_FEDERAL_EXP AS federal_expenditure_per_student,
     a.SUBGROUP_NAME,
-    a.MEAN_SCORE
+    a.MEAN_SCORE AS mean_math_assessment_score
 FROM 
     Expenditures_per_Pupil e
 JOIN 
@@ -13175,16 +13395,16 @@
 WHERE 
     e.ENTITY_NAME = 'MONTESSORI MAGNET SCHOOL'
     AND a.ASSESSMENT_NAME = 'MATH5'
-    AND a.YEAR = 2022</t>
+    AND e.YEAR = 2022</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PUPIL_COUNT_TOT, FEDERAL_EXP, PER_FEDERAL_EXP, SUBGROUP_NAME, MEAN_SCORE from [Expenditures_per_Pupil] ex join [Annual_EM_MATH] mth on ex.ENTITY_CD = mth.ENTITY_CD and ex.YEAR = mth.YEAR where ex.entity_name = 'MONTESSORI MAGNET SCHOOL' and ASSESSMENT_NAME = 'MATH5' and ex.YEAR = 2022 </t>
+          <t xml:space="preserve">select PUPIL_COUNT_TOT, FEDERAL_EXP, PER_FEDERAL_EXP, SUBGROUP_NAME, MEAN_SCORE from [Expenditures_per_Pupil] ex join [Annual_EM_MATH] mth on ex.ENTITY_CD = mth.ENTITY_CD and ex.YEAR = mth.YEAR where ex.entity_name = 'MONTESSORI MAGNET SCHOOL' and ASSESSMENT_NAME = 'MATH5' and ex.YEAR = 2022  </t>
         </is>
       </c>
       <c r="G306" t="n">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="H306" t="b">
         <v>1</v>
@@ -13220,23 +13440,26 @@
     p.SUBGROUP_NAME,
     p.RATE AS PARTICIPATION_RATE,
     g.GRAD_RATE AS GRADUATION_RATE
-FROM ACC_HS_Participation_Rate p
-JOIN ACC_HS_Graduation_Rate g
+FROM 
+    ACC_HS_Participation_Rate p
+JOIN 
+    ACC_HS_Graduation_Rate g
     ON p.INSTITUTION_ID = g.INSTITUTION_ID
     AND p.YEAR = g.YEAR
     AND p.SUBGROUP_NAME = g.SUBGROUP_NAME
-WHERE p.ENTITY_NAME = 'Brooklyn Collegiate'
-  AND p.YEAR = '2022'
-  AND p.SUBGROUP_NAME = 'All Students'</t>
+WHERE 
+    p.ENTITY_NAME = 'Brooklyn Collegiate'
+    AND p.YEAR = '2022'
+    AND p.SUBGROUP_NAME = 'All Students'</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t xml:space="preserve">select rate, grad_rate from [ACC_HS_Participation_Rate] p join [ACC_HS_Graduation_Rate] g  	on p.ENTITY_CD = g.ENTITY_CD  	and p.SUBGROUP_NAME = g.SUBGROUP_NAME  	and p.YEAR = g.YEAR  	and p.ENTITY_NAME = g.ENTITY_NAME 	and p.INSTITUTION_ID = g.INSTITUTION_ID where p.ENTITY_NAME = 'Brooklyn Collegiate' and p.SUBGROUP_NAME = 'All Students' and p.year = 2022 </t>
+          <t xml:space="preserve">select rate, grad_rate from [ACC_HS_Participation_Rate] p join [ACC_HS_Graduation_Rate] g  	on p.ENTITY_CD = g.ENTITY_CD  	and p.SUBGROUP_NAME = g.SUBGROUP_NAME  	and p.YEAR = g.YEAR  	and p.ENTITY_NAME = g.ENTITY_NAME 	and p.INSTITUTION_ID = g.INSTITUTION_ID where p.ENTITY_NAME = 'Brooklyn Collegiate' and p.SUBGROUP_NAME = 'All Students' and p.year = 2022  </t>
         </is>
       </c>
       <c r="G307" t="n">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H307" t="b">
         <v>0</v>
@@ -13275,7 +13498,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t xml:space="preserve">select enrollment, absent_count, absent_rate from [ACC_EM_Chronic_Absenteeism] where entity_name = 'KENNEY MIDDLE SCHOOL' and year = 2021 and SUBGROUP_NAME = 'Students with disabilities' </t>
+          <t xml:space="preserve">select enrollment, absent_count, absent_rate from [ACC_EM_Chronic_Absenteeism] where entity_name = 'KENNEY MIDDLE SCHOOL' and year = 2021 and SUBGROUP_NAME = 'Students with disabilities'  </t>
         </is>
       </c>
       <c r="G308" t="n">
@@ -13309,29 +13532,20 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>SELECT 
-    SUBGROUP_NAME, 
-    TESTED, 
-    PER_LEVEL1, 
-    PER_LEVEL2, 
-    PER_LEVEL3, 
-    PER_LEVEL4, 
-    PER_LEVEL5
-FROM 
-    Annual_Regents_Exams
-WHERE 
-    ENTITY_NAME = 'LONGWOOD HIGH SCHOOL'
-    AND SUBJECT = 'Regents Common Core Algebra I'
-    AND YEAR = 2022</t>
+          <t>SELECT SUBGROUP_NAME, TESTED, PER_LEVEL1, PER_LEVEL2, PER_LEVEL3, PER_LEVEL4, PER_LEVEL5
+FROM Annual_Regents_Exams
+WHERE ENTITY_NAME = 'LONGWOOD HIGH SCHOOL'
+  AND SUBJECT = 'Regents Common Core Algebra I'
+  AND YEAR = 2022</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SUBGROUP_NAME, tested, PER_LEVEL1, PER_LEVEL2, PER_LEVEL3, PER_LEVEL4, PER_LEVEL5 from [Annual_Regents_Exams] where ENTITY_NAME like '%LONGWOOD HIGH SCHOOL%' 	and year = 2022 	and subject = 'Regents Common Core Algebra I' </t>
+          <t xml:space="preserve">select SUBGROUP_NAME, tested, PER_LEVEL1, PER_LEVEL2, PER_LEVEL3, PER_LEVEL4, PER_LEVEL5 from [Annual_Regents_Exams] where ENTITY_NAME like '%LONGWOOD HIGH SCHOOL%' 	and year = 2022 	and subject = 'Regents Common Core Algebra I'  </t>
         </is>
       </c>
       <c r="G309" t="n">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="H309" t="b">
         <v>1</v>
@@ -13361,20 +13575,20 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>SELECT a.OVERALL_STATUS, COUNT(DISTINCT a.ENTITY_CD) AS num_public_schools
+          <t>SELECT a.OVERALL_STATUS, COUNT(DISTINCT a.ENTITY_CD) AS num_entities
 FROM Accountability_Status a
 JOIN Institution_Grouping ig ON a.ENTITY_CD = ig.ENTITY_CD
-WHERE ig.GROUP_NAME = 'public school' AND a.YEAR = '2022'
+WHERE a.YEAR = '2022' AND ig.GROUP_NAME = 'Public Schools'
 GROUP BY a.OVERALL_STATUS</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t xml:space="preserve">select overall_status, count(*) statusCount from [Accountability_Status] where year = 2022 and ENTITY_CD in ( 	select entity_cd 	from [Institution_Grouping] 	where group_name = 'Public School' ) group by overall_status </t>
+          <t xml:space="preserve">select overall_status, count(*) statusCount from [Accountability_Status] where year = 2022 and ENTITY_CD in ( 	select entity_cd 	from [Institution_Grouping] 	where group_name = 'Public School' ) group by overall_status  </t>
         </is>
       </c>
       <c r="G310" t="n">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="H310" t="b">
         <v>0</v>
@@ -13411,7 +13625,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t xml:space="preserve">select overall_status, made_progress from [Accountability_Status] where entity_name = 'bronx career and college prep hs' and year = 2022 </t>
+          <t xml:space="preserve">select overall_status, made_progress from [Accountability_Status] where entity_name = 'bronx career and college prep hs' and year = 2022  </t>
         </is>
       </c>
       <c r="G311" t="n">
@@ -13453,7 +13667,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t xml:space="preserve">select core_cohort, weighted_cohort  from [ACC_EM_Core_and_Weighted_Performance] where entity_name = 'May Moore Primary School' 	and subject = 'combined' 	and SUBGROUP_NAME = 'Students with Disabilities' </t>
+          <t xml:space="preserve">select core_cohort, weighted_cohort  from [ACC_EM_Core_and_Weighted_Performance] where entity_name = 'May Moore Primary School' 	and subject = 'combined' 	and SUBGROUP_NAME = 'Students with Disabilities'  </t>
         </is>
       </c>
       <c r="G312" t="n">
@@ -13489,22 +13703,21 @@
         <is>
           <t>SELECT ig.ENTITY_CD, ig.ENTITY_NAME
 FROM Institution_Grouping ig
-WHERE ig.GROUP_NAME = 'public school'
-  AND NOT EXISTS (
-    SELECT 1
-    FROM ACC_EM_Core_and_Weighted_Performance ac
-    WHERE ac.ENTITY_CD = ig.ENTITY_CD
-      AND ac.SUBGROUP_NAME = 'students with disabilities'
-  )</t>
+WHERE ig.GROUP_NAME = 'Public Elementary School'
+AND ig.ENTITY_CD NOT IN (
+    SELECT aecwp.ENTITY_CD
+    FROM ACC_EM_Core_and_Weighted_Performance aecwp
+    WHERE aecwp.SUBGROUP_NAME = 'students with disabilities'
+)</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct entity_name  from [ACC_EM_Core_and_Weighted_Performance] p where not exists ( 	select ENTITY_CD 	from [ACC_EM_Core_and_Weighted_Performance] q 	where subgroup_name = 'Students with Disabilities' and p.ENTITY_CD = q.ENTITY_CD ) 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select distinct entity_name  from [ACC_EM_Core_and_Weighted_Performance] p where p.ENTITY_CD NOT IN( 	select ENTITY_CD 	from [ACC_EM_Core_and_Weighted_Performance] q 	where subgroup_name = 'Students with Disabilities'  ) 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G313" t="n">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="H313" t="b">
         <v>0</v>
@@ -13536,19 +13749,18 @@
         <is>
           <t>SELECT COUNT(DISTINCT a.ENTITY_CD)
 FROM ACC_EM_Core_and_Weighted_Performance a
-JOIN Institution_Grouping b
-  ON a.ENTITY_CD = b.ENTITY_CD
-WHERE b.GROUP_NAME = 'public school'
-  AND a.SUBGROUP_NAME = 'multiracial'</t>
+JOIN Institution_Grouping b ON a.ENTITY_CD = b.ENTITY_CD
+WHERE b.GROUP_NAME = 'Public Elementary School'
+  AND LOWER(a.SUBGROUP_NAME) = 'multiracial'</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct ENTITY_CD) schoolCount from [ACC_EM_Core_and_Weighted_Performance] where SUBGROUP_NAME = 'multiracial' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select count(distinct ENTITY_CD) schoolCount from [ACC_EM_Core_and_Weighted_Performance] where SUBGROUP_NAME = 'multiracial' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G314" t="n">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="H314" t="b">
         <v>1</v>
@@ -13586,7 +13798,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t xml:space="preserve">select ENTITY_NAME, ELL_COUNT from [ACC_EM_ELP] where SUBGROUP_NAME = 'all students' 	and ENTITY_NAME like '%preparatory%' </t>
+          <t xml:space="preserve">select ENTITY_NAME, ELL_COUNT from [ACC_EM_ELP] where SUBGROUP_NAME = 'all students' 	and ENTITY_NAME like '%preparatory%'  </t>
         </is>
       </c>
       <c r="G315" t="n">
@@ -13620,21 +13832,21 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>SELECT COUNT(DISTINCT a.ENTITY_CD) AS num_public_elem_schools
+          <t>SELECT COUNT(DISTINCT a.ENTITY_CD) AS num_public_elementary_entities
 FROM ACC_EM_ELP a
 JOIN Institution_Grouping ig ON a.ENTITY_CD = ig.ENTITY_CD
-WHERE ig.GROUP_NAME = 'public school'
+WHERE ig.GROUP_NAME = 'Public Elementary School'
   AND a.SUBGROUP_NAME = 'White'
   AND CAST(a.ELL_COUNT AS INTEGER) &gt; 0</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) schoolCount from [ACC_EM_ELP] where subgroup_name = 'white' 	and ell_count &lt;&gt; '0' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select count(*) schoolCount from [ACC_EM_ELP] where subgroup_name = 'white' 	and ell_count &lt;&gt; '0' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G316" t="n">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="H316" t="b">
         <v>1</v>
@@ -13671,7 +13883,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t xml:space="preserve">select ell_count, benchmark, progress_rate, success_ratio from [ACC_EM_ELP] where ENTITY_NAME = 'PINE BUSH'  	and SUBGROUP_NAME = 'All Students' </t>
+          <t xml:space="preserve">select ell_count, benchmark, progress_rate, success_ratio from [ACC_EM_ELP] where ENTITY_NAME = 'PINE BUSH'  	and SUBGROUP_NAME = 'All Students'  </t>
         </is>
       </c>
       <c r="G317" t="n">
@@ -13707,17 +13919,17 @@
         <is>
           <t>SELECT COUNT(DISTINCT a.ENTITY_CD)
 FROM ACC_EM_NYSESLAT_for_Participation a
-JOIN Institution_Grouping b ON a.ENTITY_CD = b.ENTITY_CD
-WHERE b.GROUP_NAME = 'public school' AND a.NYSESLAT_PART = 0</t>
+JOIN Institution_Grouping ig ON a.ENTITY_CD = ig.ENTITY_CD
+WHERE ig.GROUP_NAME = 'Public Elementary School' AND a.NYSESLAT_PART = 0</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct entity_cd) noPartCount from [ACC_EM_NYSESLAT_for_Participation] where NYSESLAT_PART = '0' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select count(distinct entity_cd) noPartCount from [ACC_EM_NYSESLAT_for_Participation] where NYSESLAT_PART = '0' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G318" t="n">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="H318" t="b">
         <v>0</v>
@@ -13752,7 +13964,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct subject) subjectCount from [ACC_EM_NYSESLAT_for_Participation] </t>
+          <t xml:space="preserve">select count(distinct subject) subjectCount from [ACC_EM_NYSESLAT_for_Participation]  </t>
         </is>
       </c>
       <c r="G319" t="n">
@@ -13790,7 +14002,7 @@
 FROM ACC_EM_ELP a
 JOIN Institution_Grouping ig ON a.ENTITY_CD = ig.ENTITY_CD
 LEFT JOIN ACC_EM_NYSESLAT_for_Participation n ON a.ENTITY_CD = n.ENTITY_CD
-WHERE ig.GROUP_NAME = 'public school'
+WHERE ig.GROUP_NAME = 'Public Elementary School'
   AND a.LEVEL = '2'
   AND a.SUBGROUP_NAME = 'All Students'
   AND CAST(a.ELL_COUNT AS INTEGER) &gt; 0
@@ -13799,11 +14011,11 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct entity_name from [ACC_EM_ELP]  where entity_cd in ( 	select distinct entity_cd 	from [ACC_EM_NYSESLAT_for_Participation] 	where NYSESLAT_PART = '0' )  	and ELL_COUNT &lt;&gt; '0'  	and SUBGROUP_NAME = 'all students'  	and level = '2' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select distinct entity_name from [ACC_EM_ELP]  where entity_cd in ( 	select distinct entity_cd 	from [ACC_EM_NYSESLAT_for_Participation] 	where NYSESLAT_PART = '0' )  	and ELL_COUNT &lt;&gt; '0'  	and SUBGROUP_NAME = 'all students'  	and level = '2' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G320" t="n">
-        <v>426</v>
+        <v>387</v>
       </c>
       <c r="H320" t="b">
         <v>0</v>
@@ -13835,16 +14047,17 @@
         <is>
           <t>SELECT SUBJECT, SUBGROUP_NAME, COHORT, RATE
 FROM ACC_EM_Participation_Rate
-WHERE ENTITY_NAME = 'ELMWOOD ELEMENTARY SCHOOL' AND YEAR = '2022'</t>
+WHERE ENTITY_NAME = 'ELMWOOD ELEMENTARY SCHOOL'
+  AND YEAR = '2022'</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SUBGROUP_NAME, subject, cohort, rate from [ACC_EM_Participation_Rate] where entity_name = 'elmwood elementary school' and year = 2022 </t>
+          <t xml:space="preserve">select SUBGROUP_NAME, subject, cohort, rate from [ACC_EM_Participation_Rate] where entity_name = 'elmwood elementary school' and year = 2022  </t>
         </is>
       </c>
       <c r="G321" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H321" t="b">
         <v>0</v>
@@ -13874,20 +14087,20 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>SELECT COUNT(DISTINCT a.ENTITY_CD)
-FROM ACC_EM_Participation_Rate a
-JOIN Institution_Grouping ig ON a.ENTITY_CD = ig.ENTITY_CD
-WHERE ig.GROUP_NAME = 'public school'
-  AND a.MET_95_PERCENT = 'Y'</t>
+          <t>SELECT COUNT(DISTINCT ig.ENTITY_CD) AS num_entities
+FROM Institution_Grouping ig
+JOIN ACC_EM_Participation_Rate pr ON ig.ENTITY_CD = pr.ENTITY_CD
+WHERE ig.GROUP_NAME = 'Public Elementary School'
+  AND pr.MET_95_PERCENT = 'Y'</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct entity_cd) schoolCount from [ACC_EM_Participation_Rate] where MET_95_PERCENT = 'Y' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select count(distinct entity_cd) schoolCount from [ACC_EM_Participation_Rate] where MET_95_PERCENT = 'Y' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G322" t="n">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="H322" t="b">
         <v>0</v>
@@ -13920,17 +14133,17 @@
           <t>SELECT AVG(CAST(a.RATE AS FLOAT)) AS avg_participation_rate
 FROM ACC_EM_Participation_Rate a
 JOIN Institution_Grouping ig ON a.ENTITY_CD = ig.ENTITY_CD
-WHERE ig.GROUP_NAME = 'public school'
+WHERE ig.GROUP_NAME = 'Public Elementary School'
   AND a.RATE != 's'</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(cast(rate as float)) as avgRate from [ACC_EM_Participation_Rate] where rate &lt;&gt; 's' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select avg(cast(rate as float)) as avgRate from [ACC_EM_Participation_Rate] where rate &lt;&gt; 's' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G323" t="n">
-        <v>298</v>
+        <v>238</v>
       </c>
       <c r="H323" t="b">
         <v>0</v>
@@ -13961,27 +14174,26 @@
       <c r="E324" t="inlineStr">
         <is>
           <t>SELECT 
-    ae.SUBJECT, 
-    AVG(CAST(ae.ABSENT_RATE AS FLOAT)) AS avg_absent_rate
+    SUBJECT, 
+    AVG(CAST(ABSENT_RATE AS FLOAT)) AS avg_absent_rate
 FROM 
-    ACC_EM_Chronic_Absenteeism ae
+    ACC_EM_Chronic_Absenteeism a
 JOIN 
-    Institution_Grouping ig
-    ON ae.ENTITY_CD = ig.ENTITY_CD
+    Institution_Grouping ig ON a.ENTITY_CD = ig.ENTITY_CD
 WHERE 
-    ig.GROUP_NAME = 'public school'
-    AND ae.ABSENT_RATE != 's'
+    ig.GROUP_NAME = 'Public High School'
+    AND ABSENT_RATE != 's'
 GROUP BY 
-    ae.SUBJECT</t>
+    SUBJECT</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t xml:space="preserve">select subject, avg(cast(absent_rate as float)) avgRate from [ACC_EM_Chronic_Absenteeism] where ABSENT_RATE &lt;&gt; 's' and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) group by subject </t>
+          <t xml:space="preserve">select subject, avg(cast(absent_rate as float)) avgRate from [ACC_EM_Chronic_Absenteeism] where ABSENT_RATE &lt;&gt; 's' and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) group by subject  </t>
         </is>
       </c>
       <c r="G324" t="n">
-        <v>342</v>
+        <v>269</v>
       </c>
       <c r="H324" t="b">
         <v>0</v>
@@ -14009,21 +14221,30 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E325" t="inlineStr"/>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>SELECT ENTITY_NAME
+FROM ACC_EM_Chronic_Absenteeism
+WHERE SUBGROUP_NAME = 'Students with Disabilities'
+  AND ABSENT_RATE != 's'
+ORDER BY CAST(ABSENT_RATE AS FLOAT) ASC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 entity_name from [ACC_EM_Chronic_Absenteeism] where SUBGROUP_NAME = 'students with disabilities' and absent_rate &lt;&gt; 's' order by cast(absent_rate as float) desc </t>
+          <t xml:space="preserve">select  entity_name from [ACC_EM_Chronic_Absenteeism] where SUBGROUP_NAME = 'students with disabilities' and absent_rate &lt;&gt; 's' order by cast(absent_rate as float) desc limit 1 </t>
         </is>
       </c>
       <c r="G325" t="n">
-        <v>-1</v>
+        <v>230</v>
       </c>
       <c r="H325" t="b">
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -14047,37 +14268,36 @@
       <c r="E326" t="inlineStr">
         <is>
           <t>SELECT 
-    a.ENTITY_NAME, 
-    a.SUBGROUP_NAME, 
-    a.ENROLLMENT
+    a.ENTITY_NAME AS school_name,
+    a.SUBGROUP_NAME AS sub_group_name,
+    a.ENROLLMENT AS total_enrollment
 FROM 
     ACC_EM_Chronic_Absenteeism a
 JOIN 
     Institution_Grouping ig
-    ON a.ENTITY_CD = ig.ENTITY_CD AND a.ENTITY_NAME = ig.ENTITY_NAME
+    ON a.ENTITY_CD = ig.ENTITY_CD
 WHERE 
-    ig.GROUP_NAME = 'public school'
+    ig.GROUP_NAME = 'Public Elementary School'
     AND a.YEAR = '2022'
     AND a.ABSENT_RATE != 's'
     AND CAST(a.ABSENT_RATE AS FLOAT) = (
         SELECT MAX(CAST(ABSENT_RATE AS FLOAT))
-        FROM ACC_EM_Chronic_Absenteeism aa
-        JOIN Institution_Grouping ig2
-            ON aa.ENTITY_CD = ig2.ENTITY_CD AND aa.ENTITY_NAME = ig2.ENTITY_NAME
+        FROM ACC_EM_Chronic_Absenteeism a2
+        JOIN Institution_Grouping ig2 ON a2.ENTITY_CD = ig2.ENTITY_CD
         WHERE 
-            ig2.GROUP_NAME = 'public school'
-            AND aa.YEAR = '2022'
-            AND aa.ABSENT_RATE != 's'
+            ig2.GROUP_NAME = 'Public Elementary School'
+            AND a2.YEAR = '2022'
+            AND a2.ABSENT_RATE != 's'
     )</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t xml:space="preserve">select a.entity_name, subgroup_name, enrollment from [ACC_EM_Chronic_Absenteeism] a join [Institution_Grouping] g on a.ENTITY_CD = g.ENTITY_CD where cast(absent_rate as float) = ( 	select max(cast(absent_rate as float))  	from [ACC_EM_Chronic_Absenteeism]  	where absent_rate &lt;&gt; 's' 	and year = 2022 	) 	and absent_rate &lt;&gt; 's' 	and year = 2022 	and group_name = 'public school' </t>
+          <t xml:space="preserve">select a.entity_name, subgroup_name, enrollment from [ACC_EM_Chronic_Absenteeism] a join [Institution_Grouping] g on a.ENTITY_CD = g.ENTITY_CD where cast(absent_rate as float) = ( 	select max(cast(absent_rate as float))  	from [ACC_EM_Chronic_Absenteeism]  	where absent_rate &lt;&gt; 's' 	and year = 2022 	) 	and absent_rate &lt;&gt; 's' 	and year = 2022 	and group_name = 'public school'  </t>
         </is>
       </c>
       <c r="G326" t="n">
-        <v>492</v>
+        <v>419</v>
       </c>
       <c r="H326" t="b">
         <v>0</v>
@@ -14113,10 +14333,9 @@
 FROM 
     ACC_HS_Chronic_Absenteeism a
 JOIN 
-    Institution_Grouping ig
-    ON a.ENTITY_CD = ig.ENTITY_CD
+    Institution_Grouping ig ON a.ENTITY_CD = ig.ENTITY_CD
 WHERE 
-    ig.GROUP_NAME = 'public school'
+    ig.GROUP_NAME = 'Public High School'
     AND a.ABSENT_RATE != 's'
 GROUP BY 
     a.SUBGROUP_NAME</t>
@@ -14124,11 +14343,11 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t xml:space="preserve">select subgroup_name, avg(cast(absent_rate as float)) avgRate from [ACC_HS_Chronic_Absenteeism] a join [Institution_Grouping] g on a.ENTITY_CD = g.ENTITY_CD where absent_rate &lt;&gt; 's' 	and group_name = 'Public School' group by subgroup_name </t>
+          <t xml:space="preserve">select subgroup_name, avg(cast(absent_rate as float)) avgRate from [ACC_HS_Chronic_Absenteeism] a join [Institution_Grouping] g on a.ENTITY_CD = g.ENTITY_CD where absent_rate &lt;&gt; 's' 	and group_name = 'Public School' group by subgroup_name  </t>
         </is>
       </c>
       <c r="G327" t="n">
-        <v>354</v>
+        <v>289</v>
       </c>
       <c r="H327" t="b">
         <v>0</v>
@@ -14156,21 +14375,52 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E328" t="inlineStr"/>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>SELECT 
+    a.ENTITY_NAME, 
+    a.ABSENT_COUNT, 
+    a.ABSENT_RATE
+FROM 
+    ACC_HS_Chronic_Absenteeism a
+JOIN (
+    SELECT 
+        ENTITY_CD, 
+        MAX(CAST(ENROLLMENT AS INTEGER)) AS max_enrollment
+    FROM 
+        ACC_HS_Chronic_Absenteeism
+    WHERE 
+        YEAR = '2021'
+        AND SUBGROUP_NAME = 'All students'
+        AND ENROLLMENT != 's'
+    GROUP BY 
+        ENTITY_CD
+) b ON a.ENTITY_CD = b.ENTITY_CD AND CAST(a.ENROLLMENT AS INTEGER) = b.max_enrollment
+JOIN Institution_Grouping ig ON a.ENTITY_CD = ig.ENTITY_CD
+WHERE 
+    a.YEAR = '2021'
+    AND a.SUBGROUP_NAME = 'All students'
+    AND a.ENROLLMENT != 's'
+    AND ig.GROUP_NAME = 'Public High School'
+ORDER BY 
+    CAST(a.ENROLLMENT AS INTEGER) DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 entity_name, absent_count, absent_rate from [ACC_HS_Chronic_Absenteeism] where enrollment &lt;&gt; 's' 	and year = 2021 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) 	and SUBGROUP_NAME = 'All Students' order by cast(enrollment as float) desc </t>
+          <t xml:space="preserve">select  entity_name, absent_count, absent_rate from [ACC_HS_Chronic_Absenteeism] where enrollment &lt;&gt; 's' 	and year = 2021 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) 	and SUBGROUP_NAME = 'All Students' order by cast(enrollment as float) desc limit 1 </t>
         </is>
       </c>
       <c r="G328" t="n">
-        <v>-1</v>
+        <v>459</v>
       </c>
       <c r="H328" t="b">
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -14198,16 +14448,16 @@
 WHERE ENTITY_NAME = 'Albany High School'
   AND YEAR = '2022'
   AND SUBJECT = 'Math'
-  AND SUBGROUP_NAME = 'Economically Disadvantaged Students'</t>
+  AND SUBGROUP_NAME = 'Economically Disadvantaged'</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t xml:space="preserve">select core_cohort, weighted_cohort, core_index, weighted_index from [ACC_HS_Core_and_Weighted_Performance] where year = 2022 	and subject = 'MATH' 	and subgroup_name = 'Economically Disadvantaged' 	and entity_name = 'ALBANY HIGH SCHOOL' </t>
+          <t xml:space="preserve">select core_cohort, weighted_cohort, core_index, weighted_index from [ACC_HS_Core_and_Weighted_Performance] where year = 2022 	and subject = 'MATH' 	and subgroup_name = 'Economically Disadvantaged' 	and entity_name = 'ALBANY HIGH SCHOOL'  </t>
         </is>
       </c>
       <c r="G329" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H329" t="b">
         <v>0</v>
@@ -14235,21 +14485,34 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E330" t="inlineStr"/>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>SELECT ahcwp.ENTITY_NAME
+FROM ACC_HS_Core_and_Weighted_Performance ahcwp
+JOIN Institution_Grouping ig ON ahcwp.ENTITY_CD = ig.ENTITY_CD
+WHERE ahcwp.YEAR = '2022'
+  AND ahcwp.SUBJECT = 'Math'
+  AND ahcwp.SUBGROUP_NAME = 'All Students'
+  AND ig.GROUP_NAME = 'Public High School'
+  AND ahcwp.WEIGHTED_INDEX != 's'
+ORDER BY CAST(ahcwp.WEIGHTED_INDEX AS FLOAT) DESC
+LIMIT 5</t>
+        </is>
+      </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 5 p.ENTITY_NAME  from [ACC_HS_Core_and_Weighted_Performance] p join [Institution_Grouping] g on p.ENTITY_CD = g.ENTITY_CD where WEIGHTED_INDEX &lt;&gt; 's' 	and group_name = 'Public School' 	and subject = 'MATH' 	and subgroup_name = 'All Students' 	and year = 2022 order by cast(weighted_index as float) desc </t>
+          <t xml:space="preserve">select  p.ENTITY_NAME  from [ACC_HS_Core_and_Weighted_Performance] p join [Institution_Grouping] g on p.ENTITY_CD = g.ENTITY_CD where WEIGHTED_INDEX &lt;&gt; 's' 	and group_name = 'Public School' 	and subject = 'MATH' 	and subgroup_name = 'All Students' 	and year = 2022 order by cast(weighted_index as float) desc limit 5 </t>
         </is>
       </c>
       <c r="G330" t="n">
-        <v>-1</v>
+        <v>349</v>
       </c>
       <c r="H330" t="b">
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -14270,14 +14533,34 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E331" t="inlineStr"/>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>SELECT 
+    ah.ENTITY_NAME AS school_name,
+    AVG(CAST(ah.WEIGHTED_INDEX AS FLOAT)) AS avg_weighted_index
+FROM 
+    ACC_HS_Core_and_Weighted_Performance ah
+JOIN 
+    Institution_Grouping ig
+    ON ah.ENTITY_CD = ig.ENTITY_CD
+WHERE 
+    ah.SUBJECT = 'Science'
+    AND ah.WEIGHTED_INDEX != 's'
+    AND ig.GROUP_NAME = 'Public School District'
+GROUP BY 
+    ah.ENTITY_NAME
+ORDER BY 
+    avg_weighted_index ASC
+LIMIT 5</t>
+        </is>
+      </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 5 entity_name, avg(cast(weighted_index as float)) averageScienceScore from [ACC_HS_Core_and_Weighted_Performance] where weighted_index &lt;&gt; 's' and subject = 'SCIENCE' and entity_cd in ( 	select entity_cd 	from [Institution_Grouping] 	where GROUP_NAME = 'public school district' ) group by entity_name order by avg(cast(weighted_index as float)) asc </t>
+          <t xml:space="preserve">select  entity_name, avg(cast(weighted_index as float)) averageScienceScore from [ACC_HS_Core_and_Weighted_Performance] where weighted_index &lt;&gt; 's' and subject = 'SCIENCE' and entity_cd in ( 	select entity_cd 	from [Institution_Grouping] 	where GROUP_NAME = 'public school district' ) group by entity_name order by avg(cast(weighted_index as float)) asc limit 5 </t>
         </is>
       </c>
       <c r="G331" t="n">
-        <v>-1</v>
+        <v>329</v>
       </c>
       <c r="H331" t="b">
         <v>0</v>
@@ -14316,7 +14599,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t xml:space="preserve">select ELL_COUNT, BENCHMARK, PROGRESS_RATE, SUCCESS_RATIO, LEVEL from [ACC_HS_ELP] where ENTITY_NAME = 'ALFRED E SMITH CAREER-TECH HS' 	and SUBGROUP_NAME = 'All Students' 	and year = 2022 </t>
+          <t xml:space="preserve">select ELL_COUNT, BENCHMARK, PROGRESS_RATE, SUCCESS_RATIO, LEVEL from [ACC_HS_ELP] where ENTITY_NAME = 'ALFRED E SMITH CAREER-TECH HS' 	and SUBGROUP_NAME = 'All Students' 	and year = 2022  </t>
         </is>
       </c>
       <c r="G332" t="n">
@@ -14351,26 +14634,26 @@
       <c r="E333" t="inlineStr">
         <is>
           <t>SELECT 
-    a.SUBGROUP_NAME,
-    AVG(CAST(a.ELL_COUNT AS FLOAT)) AS avg_ell_count
+    a.SUBGROUP_NAME, 
+    AVG(CAST(a.ELL_COUNT AS INTEGER)) AS avg_ell_count
 FROM 
     ACC_HS_ELP a
 JOIN 
     Institution_Grouping ig
     ON a.ENTITY_CD = ig.ENTITY_CD
 WHERE 
-    ig.GROUP_NAME = 'public school'
+    ig.GROUP_NAME = 'Public High School'
 GROUP BY 
     a.SUBGROUP_NAME</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t xml:space="preserve">select subgroup_name, avg(cast(ell_count as float)) ELLAvg from [ACC_HS_ELP] where entity_cd in ( 	select entity_cd 	from [Institution_Grouping] 	where GROUP_NAME = 'public school' ) group by subgroup_name </t>
+          <t xml:space="preserve">select subgroup_name, avg(cast(ell_count as float)) ELLAvg from [ACC_HS_ELP] where entity_cd in ( 	select entity_cd 	from [Institution_Grouping] 	where GROUP_NAME = 'public school' ) group by subgroup_name  </t>
         </is>
       </c>
       <c r="G333" t="n">
-        <v>307</v>
+        <v>256</v>
       </c>
       <c r="H333" t="b">
         <v>0</v>
@@ -14398,21 +14681,35 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E334" t="inlineStr"/>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>SELECT 
+    a.ENTITY_NAME AS school_name,
+    CAST(a.ELL_COUNT AS INTEGER) AS ell_count,
+    e.PER_FED_STATE_LOCAL_EXP AS federal_expenditure_per_student
+FROM ACC_HS_ELP a
+JOIN Expenditures_per_Pupil e
+    ON a.ENTITY_CD = e.ENTITY_CD AND e.YEAR = 2022
+WHERE a.YEAR = '2022'
+  AND a.SUBGROUP_NAME = 'All Students'
+ORDER BY CAST(a.ELL_COUNT AS INTEGER) DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 el.ENTITY_NAME, ELL_COUNT, PER_FED_STATE_LOCAL_EXP from [ACC_HS_ELP] el join [Expenditures_per_Pupil] ex  	on el.ENTITY_CD = ex.ENTITY_CD  	and el.year = ex.year where SUBGROUP_NAME = 'All Students' 	and ELL_COUNT &lt;&gt; 's' 	and ex.YEAR = 2022 	and el.entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) order by cast(ELL_COUNT as float) desc </t>
+          <t xml:space="preserve">select  el.ENTITY_NAME, ELL_COUNT, PER_FED_STATE_LOCAL_EXP from [ACC_HS_ELP] el join [Expenditures_per_Pupil] ex  	on el.ENTITY_CD = ex.ENTITY_CD  	and el.year = ex.year where SUBGROUP_NAME = 'All Students' 	and ELL_COUNT &lt;&gt; 's' 	and ex.YEAR = 2022 	and el.entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) order by cast(ELL_COUNT as float) desc limit 1 </t>
         </is>
       </c>
       <c r="G334" t="n">
-        <v>-1</v>
+        <v>367</v>
       </c>
       <c r="H334" t="b">
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -14443,7 +14740,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t xml:space="preserve">select YEAR, OVERALL_STATUS, count(*) entCount from [Accountability_Status_by_Subgroup] where SUBGROUP_NAME = 'All Students' group by year, OVERALL_STATUS </t>
+          <t xml:space="preserve">select YEAR, OVERALL_STATUS, count(*) entCount from [Accountability_Status_by_Subgroup] where SUBGROUP_NAME = 'All Students' group by year, OVERALL_STATUS  </t>
         </is>
       </c>
       <c r="G335" t="n">
@@ -14487,7 +14784,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) HSCount from [Accountability_Status_by_Subgroup] where SCHOOL_TYPE = 'HS' 	and SUBGROUP_NAME = 'Multiracial' 	and year = 2021 </t>
+          <t xml:space="preserve">select count(*) HSCount from [Accountability_Status_by_Subgroup] where SCHOOL_TYPE = 'HS' 	and SUBGROUP_NAME = 'Multiracial' 	and year = 2021  </t>
         </is>
       </c>
       <c r="G336" t="n">
@@ -14528,7 +14825,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SCHOOL_TYPE, SUBGROUP_NAME, OVERALL_STATUS from [Accountability_Status_by_Subgroup] where year = 2021 	and ENTITY_NAME = 'ALBANY CITY SD' </t>
+          <t xml:space="preserve">select SCHOOL_TYPE, SUBGROUP_NAME, OVERALL_STATUS from [Accountability_Status_by_Subgroup] where year = 2021 	and ENTITY_NAME = 'ALBANY CITY SD'  </t>
         </is>
       </c>
       <c r="G337" t="n">
@@ -14564,90 +14861,76 @@
         <is>
           <t>SELECT 
     a.ASSESSMENT_NAME,
-    AVG(CAST(a.LEVEL1_%TESTED AS FLOAT)) AS avg_level1_percent_tested,
-    AVG(CAST(a.LEVEL2_%TESTED AS FLOAT)) AS avg_level2_percent_tested,
-    AVG(CAST(a.LEVEL3_%TESTED AS FLOAT)) AS avg_level3_percent_tested,
-    AVG(CAST(a.LEVEL4_%TESTED AS FLOAT)) AS avg_level4_percent_tested
+    AVG(CASE WHEN a.LEVEL1_%TESTED != 's' THEN CAST(a.LEVEL1_%TESTED AS FLOAT) END) AS avg_level1_tested,
+    AVG(CASE WHEN a.LEVEL2_%TESTED != 's' THEN CAST(a.LEVEL2_%TESTED AS FLOAT) END) AS avg_level2_tested,
+    AVG(CASE WHEN a.LEVEL3_%TESTED != 's' THEN CAST(a.LEVEL3_%TESTED AS FLOAT) END) AS avg_level3_tested,
+    AVG(CASE WHEN a.LEVEL4_%TESTED != 's' THEN CAST(a.LEVEL4_%TESTED AS FLOAT) END) AS avg_level4_tested
+FROM Annual_EM_SCIENCE a
+JOIN Institution_Grouping ig ON a.ENTITY_CD = ig.ENTITY_CD
+WHERE ig.GROUP_NAME = 'Public Elementary School'
+GROUP BY a.ASSESSMENT_NAME</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t xml:space="preserve">select ASSESSMENT_NAME, avg(cast([LEVEL1_%TESTED] as float)) L1, avg(cast([LEVEL2_%TESTED] as float)) L2, avg(cast([LEVEL3_%TESTED] as float)) L3, avg(cast([LEVEL4_%TESTED] as float)) L4 from [Annual_EM_Science] where [LEVEL1_%TESTED] &lt;&gt; 's' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) group by ASSESSMENT_NAME  </t>
+        </is>
+      </c>
+      <c r="G338" t="n">
+        <v>432</v>
+      </c>
+      <c r="H338" t="b">
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>Insufficient number of columns in generated result set</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>NYSED_SRC2022</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>37</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>gpt-4.1</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>SELECT 
+    a.SUBGROUP_NAME,
+    AVG(CASE WHEN a.LEVEL1_%TESTED != 's' THEN CAST(a.LEVEL1_%TESTED AS FLOAT) END) AS avg_level1_tested,
+    AVG(CASE WHEN a.LEVEL2_%TESTED != 's' THEN CAST(a.LEVEL2_%TESTED AS FLOAT) END) AS avg_level2_tested,
+    AVG(CASE WHEN a.LEVEL3_%TESTED != 's' THEN CAST(a.LEVEL3_%TESTED AS FLOAT) END) AS avg_level3_tested,
+    AVG(CASE WHEN a.LEVEL4_%TESTED != 's' THEN CAST(a.LEVEL4_%TESTED AS FLOAT) END) AS avg_level4_tested
 FROM 
     Annual_EM_SCIENCE a
 JOIN 
-    Institution_Grouping ig
-    ON a.ENTITY_CD = ig.ENTITY_CD
+    Institution_Grouping ig ON a.ENTITY_CD = ig.ENTITY_CD
 WHERE 
-    ig.GROUP_NAME = 'public school'
-    AND a.LEVEL1_%TESTED != 's'
-    AND a.LEVEL2_%TESTED != 's'
-    AND a.LEVEL3_%TESTED != 's'
-    AND a.LEVEL4_%TESTED != 's'
-GROUP BY 
-    a.ASSESSMENT_NAME</t>
-        </is>
-      </c>
-      <c r="F338" t="inlineStr">
-        <is>
-          <t xml:space="preserve">select ASSESSMENT_NAME, avg(cast([LEVEL1_%TESTED] as float)) L1, avg(cast([LEVEL2_%TESTED] as float)) L2, avg(cast([LEVEL3_%TESTED] as float)) L3, avg(cast([LEVEL4_%TESTED] as float)) L4 from [Annual_EM_Science] where [LEVEL1_%TESTED] &lt;&gt; 's' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) group by ASSESSMENT_NAME </t>
-        </is>
-      </c>
-      <c r="G338" t="n">
-        <v>497</v>
-      </c>
-      <c r="H338" t="b">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr">
-        <is>
-          <t>Insufficient number of columns in generated result set</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>NYSED_SRC2022</t>
-        </is>
-      </c>
-      <c r="C339" t="n">
-        <v>37</v>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>gpt-4.1</t>
-        </is>
-      </c>
-      <c r="E339" t="inlineStr">
-        <is>
-          <t>SELECT 
-    a.SUBGROUP_NAME,
-    AVG(CAST(a.LEVEL1_%TESTED AS FLOAT)) AS avg_level1_percent_tested,
-    AVG(CAST(a.LEVEL2_%TESTED AS FLOAT)) AS avg_level2_percent_tested,
-    AVG(CAST(a.LEVEL3_%TESTED AS FLOAT)) AS avg_level3_percent_tested,
-    AVG(CAST(a.LEVEL4_%TESTED AS FLOAT)) AS avg_level4_percent_tested
-FROM 
-    Annual_EM_SCIENCE a
-JOIN 
-    Institution_Grouping ig
-    ON a.ENTITY_CD = ig.ENTITY_CD
-WHERE 
-    ig.GROUP_NAME = 'public school'
+    ig.GROUP_NAME = 'Public Elementary School'
     AND a.ASSESSMENT_NAME = 'Science8'
-    AND a.LEVEL1_%TESTED != 's'
-    AND a.LEVEL2_%TESTED != 's'
-    AND a.LEVEL3_%TESTED != 's'
-    AND a.LEVEL4_%TESTED != 's'
 GROUP BY 
     a.SUBGROUP_NAME</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SUBGROUP_NAME, avg(cast([LEVEL1_%TESTED] as float)) L1, avg(cast([LEVEL2_%TESTED] as float)) L2, avg(cast([LEVEL3_%TESTED] as float)) L3, avg(cast([LEVEL4_%TESTED] as float)) L4 from [Annual_EM_Science] where [LEVEL1_%TESTED] &lt;&gt; 's' 	and ASSESSMENT_NAME = 'Science8' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) group by SUBGROUP_NAME </t>
+          <t xml:space="preserve">select SUBGROUP_NAME, avg(cast([LEVEL1_%TESTED] as float)) L1, avg(cast([LEVEL2_%TESTED] as float)) L2, avg(cast([LEVEL3_%TESTED] as float)) L3, avg(cast([LEVEL4_%TESTED] as float)) L4 from [Annual_EM_Science] where [LEVEL1_%TESTED] &lt;&gt; 's' 	and ASSESSMENT_NAME = 'Science8' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) group by SUBGROUP_NAME  </t>
         </is>
       </c>
       <c r="G339" t="n">
-        <v>516</v>
+        <v>459</v>
       </c>
       <c r="H339" t="b">
         <v>0</v>
@@ -14682,11 +14965,11 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct subject) subjectCount from [Annual_NYSESLAT] </t>
+          <t xml:space="preserve">select count(distinct subject) subjectCount from [Annual_NYSESLAT]  </t>
         </is>
       </c>
       <c r="G340" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H340" t="b">
         <v>1</v>
@@ -14726,7 +15009,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PER_EXP from [Annual_NYSESLAT] where SUBGROUP_NAME = 'Parent Not In Armed Forces' 	and SUBJECT = 'TS_6' 	and ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 	and year = 2021 </t>
+          <t xml:space="preserve">select PER_EXP from [Annual_NYSESLAT] where SUBGROUP_NAME = 'Parent Not In Armed Forces' 	and SUBJECT = 'TS_6' 	and ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 	and year = 2021  </t>
         </is>
       </c>
       <c r="G341" t="n">
@@ -14761,26 +15044,25 @@
       <c r="E342" t="inlineStr">
         <is>
           <t>SELECT 
-    PER_ENT, 
-    PER_EMER, 
-    PER_TRAN, 
-    PER_EXP
-FROM 
-    Annual_NYSESLAT
+  PER_ENT, 
+  PER_EMER, 
+  PER_TRAN, 
+  PER_EXP
+FROM Annual_NYSESLAT
 WHERE 
-    ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL'
-    AND YEAR = 2021
-    AND SUBJECT = 'TS_6'
-    AND SUBGROUP_NAME = 'parent not in armed forces'</t>
+  ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL'
+  AND YEAR = 2021
+  AND SUBJECT = 'TS_6'
+  AND SUBGROUP_NAME = 'parent not in armed forces'</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PER_ENT, PER_EMER, PER_TRAN, PER_EXP from [Annual_NYSESLAT] where SUBGROUP_NAME = 'Parent Not In Armed Forces' 	and SUBJECT = 'TS_6' 	and ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 	and year = 2021 </t>
+          <t xml:space="preserve">select PER_ENT, PER_EMER, PER_TRAN, PER_EXP from [Annual_NYSESLAT] where SUBGROUP_NAME = 'Parent Not In Armed Forces' 	and SUBJECT = 'TS_6' 	and ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 	and year = 2021  </t>
         </is>
       </c>
       <c r="G342" t="n">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H342" t="b">
         <v>0</v>
@@ -14812,15 +15094,15 @@
         <is>
           <t>SELECT 
     a.SUBJECT, 
-    AVG(CAST(a.PER_ENT AS FLOAT)) AS avg_percent_entering_level
+    AVG(CASE WHEN a.PER_ENT != 's' THEN CAST(a.PER_ENT AS FLOAT) END) AS avg_percent_entering
 FROM 
     Annual_NYSESLAT a
 JOIN 
-    Institution_Grouping ig
-    ON a.ENTITY_CD = ig.ENTITY_CD
+    Institution_Grouping ig ON a.ENTITY_CD = ig.ENTITY_CD
 WHERE 
     a.YEAR = 2021
-    AND ig.GROUP_NAME = 'public school'
+    AND a.SUBJECT = 'Entering'
+    AND ig.GROUP_NAME = 'Public Schools'
     AND a.PER_ENT != 's'
 GROUP BY 
     a.SUBJECT</t>
@@ -14828,11 +15110,11 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t xml:space="preserve">select subject, avg(cast(per_ent as float)) avgScore from [Annual_NYSESLAT] where per_ent &lt;&gt; 's' 	and year = 2021 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) group by subject </t>
+          <t xml:space="preserve">select subject, avg(cast(per_ent as float)) avgScore from [Annual_NYSESLAT] where per_ent &lt;&gt; 's' 	and year = 2021 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) group by subject  </t>
         </is>
       </c>
       <c r="G343" t="n">
-        <v>367</v>
+        <v>324</v>
       </c>
       <c r="H343" t="b">
         <v>0</v>
@@ -14863,36 +15145,26 @@
       <c r="E344" t="inlineStr">
         <is>
           <t>SELECT 
-    a.SUBJECT,
-    AVG(CAST(a.PER_ENT AS FLOAT)) AS avg_per_ent,
-    AVG(CAST(a.PER_EMER AS FLOAT)) AS avg_per_emer,
-    AVG(CAST(a.PER_TRAN AS FLOAT)) AS avg_per_tran,
-    AVG(CAST(a.PER_EXP AS FLOAT)) AS avg_per_exp,
-    AVG(CAST(a.PER_COM AS FLOAT)) AS avg_per_com
-FROM 
-    Annual_NYSESLAT a
-JOIN 
-    Institution_Grouping ig
-    ON a.ENTITY_CD = ig.ENTITY_CD
-WHERE 
-    ig.GROUP_NAME = 'public school'
-    AND a.YEAR = 2021
-    AND a.PER_ENT != 's'
-    AND a.PER_EMER != 's'
-    AND a.PER_TRAN != 's'
-    AND a.PER_EXP != 's'
-    AND a.PER_COM != 's'
-GROUP BY 
-    a.SUBJECT</t>
+    SUBJECT,
+    AVG(CASE WHEN PER_ENT != 's' THEN CAST(PER_ENT AS FLOAT) END) AS avg_per_ent,
+    AVG(CASE WHEN PER_EMER != 's' THEN CAST(PER_EMER AS FLOAT) END) AS avg_per_emer,
+    AVG(CASE WHEN PER_TRAN != 's' THEN CAST(PER_TRAN AS FLOAT) END) AS avg_per_tran,
+    AVG(CASE WHEN PER_EXP != 's' THEN CAST(PER_EXP AS FLOAT) END) AS avg_per_exp,
+    AVG(CASE WHEN PER_COM != 's' THEN CAST(PER_COM AS FLOAT) END) AS avg_per_com
+FROM Annual_NYSESLAT a
+JOIN Institution_Grouping ig ON a.ENTITY_CD = ig.ENTITY_CD
+WHERE a.YEAR = 2021
+  AND ig.GROUP_NAME = 'Public Schools'
+GROUP BY SUBJECT</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t xml:space="preserve">select subject,  	avg(cast(per_ent as float)) avgEnt, 	avg(cast(per_emer as float)) avgEmer, 	avg(cast(per_tran as float)) avgTran, 	avg(cast(per_exp as float)) avgExp, 	avg(cast(per_com as float)) avgCom from [Annual_NYSESLAT] where per_ent &lt;&gt; 's' 	and year = 2021 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) group by subject </t>
+          <t xml:space="preserve">select subject,  	avg(cast(per_ent as float)) avgEnt, 	avg(cast(per_emer as float)) avgEmer, 	avg(cast(per_tran as float)) avgTran, 	avg(cast(per_exp as float)) avgExp, 	avg(cast(per_com as float)) avgCom from [Annual_NYSESLAT] where per_ent &lt;&gt; 's' 	and year = 2021 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) group by subject  </t>
         </is>
       </c>
       <c r="G344" t="n">
-        <v>511</v>
+        <v>434</v>
       </c>
       <c r="H344" t="b">
         <v>0</v>
@@ -14938,7 +15210,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t xml:space="preserve">select NUM_ENT, NUM_EMER, NUM_TRAN, NUM_EXP from [Annual_NYSESLAT] where SUBGROUP_NAME = 'Parent Not In Armed Forces' 	and SUBJECT = 'TS_6' 	and ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 	and year = 2021 </t>
+          <t xml:space="preserve">select NUM_ENT, NUM_EMER, NUM_TRAN, NUM_EXP from [Annual_NYSESLAT] where SUBGROUP_NAME = 'Parent Not In Armed Forces' 	and SUBJECT = 'TS_6' 	and ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 	and year = 2021  </t>
         </is>
       </c>
       <c r="G345" t="n">
@@ -14980,7 +15252,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t xml:space="preserve">select BOCES_NAME, count(distinct school_name) SchoolCount from [BOCES_and_N/RC] where year = 2020 group by BOCES_NAME </t>
+          <t xml:space="preserve">select BOCES_NAME, count(distinct school_name) SchoolCount from [BOCES_and_N/RC] where year = 2020 group by BOCES_NAME  </t>
         </is>
       </c>
       <c r="G346" t="n">
@@ -15014,19 +15286,19 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>SELECT COUNTY_NAME, COUNT(DISTINCT SCHOOL_NAME) AS school_count
-FROM BOCES_and_N/RC
+          <t>SELECT COUNTY_NAME, COUNT(SCHOOL_NAME) AS school_count
+FROM BOCES_and_N_RC
 WHERE YEAR = 2020
 GROUP BY COUNTY_NAME</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t xml:space="preserve">select COUNTY_NAME, count(distinct school_name) SchoolCount from [BOCES_and_N/RC] where year = 2020 group by COUNTY_NAME </t>
+          <t xml:space="preserve">select COUNTY_NAME, count(distinct school_name) SchoolCount from [BOCES_and_N/RC] where year = 2020 group by COUNTY_NAME  </t>
         </is>
       </c>
       <c r="G347" t="n">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H347" t="b">
         <v>0</v>
@@ -15058,8 +15330,8 @@
         <is>
           <t>SELECT 
     B.BOCES_NAME,
-    AVG(CAST(E.PER_FEDERAL_EXP AS FLOAT)) AS avg_federal_expenditure_per_pupil,
-    AVG(CAST(E.PER_STATE_LOCAL_EXP AS FLOAT)) AS avg_state_local_expenditure_per_pupil
+    AVG(E.PER_FEDERAL_EXP) AS avg_federal_expenditure_per_pupil,
+    AVG(E.PER_STATE_LOCAL_EXP) AS avg_state_local_expenditure_per_pupil
 FROM 
     BOCES_and_N/RC B
 JOIN 
@@ -15073,11 +15345,11 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t xml:space="preserve">select BOCES_NAME, avg(cast(PER_FEDERAL_EXP as float)) avgFedExp, avg(cast(PER_STATE_LOCAL_EXP as float)) avgLocExp from [BOCES_and_N/RC] b join [Expenditures_per_Pupil] e on b.ENTITY_CD = e.ENTITY_CD and b.YEAR = e.YEAR where b.year = 2021 group by BOCES_NAME </t>
+          <t xml:space="preserve">select BOCES_NAME, avg(cast(PER_FEDERAL_EXP as float)) avgFedExp, avg(cast(PER_STATE_LOCAL_EXP as float)) avgLocExp from [BOCES_and_N/RC] b join [Expenditures_per_Pupil] e on b.ENTITY_CD = e.ENTITY_CD and b.YEAR = e.YEAR where b.year = 2021 group by BOCES_NAME  </t>
         </is>
       </c>
       <c r="G348" t="n">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="H348" t="b">
         <v>0</v>
@@ -15107,16 +15379,16 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>SELECT COUNT(DISTINCT BOCES_NAME) AS num_boces FROM BOCES_and_N_RC</t>
+          <t>SELECT COUNT(*) FROM BOCES_and_N_RC</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct BOCES_NAME) BOCESCount from [BOCES_and_N/RC] </t>
+          <t xml:space="preserve">select count(distinct BOCES_NAME) BOCESCount from [BOCES_and_N/RC]  </t>
         </is>
       </c>
       <c r="G349" t="n">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H349" t="b">
         <v>0</v>
@@ -15154,7 +15426,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t xml:space="preserve">select BOCES_NAME, count(distinct COUNTY_NAME) CountyCount from [BOCES_and_N/RC] group by BOCES_NAME having count(distinct COUNTY_NAME) &gt; 1 </t>
+          <t xml:space="preserve">select BOCES_NAME, count(distinct COUNTY_NAME) CountyCount from [BOCES_and_N/RC] group by BOCES_NAME having count(distinct COUNTY_NAME) &gt; 1  </t>
         </is>
       </c>
       <c r="G350" t="n">
@@ -15195,7 +15467,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t xml:space="preserve">select NUM_TEACH, NUM_TEACH_INEXP, PER_TEACH_INEXP from [Inexperienced_Teachers_and_Principals] where entity_name = 'SHERIDAN PREP ACADEMY' and year = 2021 </t>
+          <t xml:space="preserve">select NUM_TEACH, NUM_TEACH_INEXP, PER_TEACH_INEXP from [Inexperienced_Teachers_and_Principals] where entity_name = 'SHERIDAN PREP ACADEMY' and year = 2021  </t>
         </is>
       </c>
       <c r="G351" t="n">
@@ -15227,14 +15499,23 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E352" t="inlineStr"/>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>SELECT it.ENTITY_CD, it.ENTITY_NAME, it.PER_TEACH_INEXP
+FROM Inexperienced_Teachers_and_Principals it
+JOIN Institution_Grouping ig ON it.ENTITY_CD = ig.ENTITY_CD
+WHERE it.YEAR = 2021 AND ig.GROUP_NAME = 'Public Schools'
+ORDER BY it.PER_TEACH_INEXP DESC
+LIMIT 5</t>
+        </is>
+      </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 5 i.ENTITY_CD, i.ENTITY_NAME, PER_TEACH_INEXP from [Inexperienced_Teachers_and_Principals] i join [Institution_Grouping] g on i.ENTITY_CD = g.ENTITY_CD where year = 2021 	and GROUP_NAME = 'public school' order by PER_TEACH_INEXP desc </t>
+          <t xml:space="preserve">select  i.ENTITY_CD, i.ENTITY_NAME, PER_TEACH_INEXP from [Inexperienced_Teachers_and_Principals] i join [Institution_Grouping] g on i.ENTITY_CD = g.ENTITY_CD where year = 2021 	and GROUP_NAME = 'public school' order by PER_TEACH_INEXP desc limit 5 </t>
         </is>
       </c>
       <c r="G352" t="n">
-        <v>-1</v>
+        <v>282</v>
       </c>
       <c r="H352" t="b">
         <v>0</v>
@@ -15262,21 +15543,30 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E353" t="inlineStr"/>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>SELECT b.DISTRICT_NAME, AVG(i.PER_TEACH_INEXP) AS avg_inexperienced_percentage
+FROM Inexperienced_Teachers_and_Principals i
+JOIN BOCES_and_N_RC b ON i.ENTITY_CD = b.ENTITY_CD
+GROUP BY b.DISTRICT_NAME
+ORDER BY avg_inexperienced_percentage DESC
+LIMIT 5</t>
+        </is>
+      </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 5 DISTRICT_NAME, AVG(PER_TEACH_INEXP) teachCount from [Inexperienced_Teachers_and_Principals] i join [BOCES_and_N/RC] b on i.ENTITY_CD = b.ENTITY_CD group by DISTRICT_NAME order by AVG(PER_TEACH_INEXP) desc </t>
+          <t xml:space="preserve">select  DISTRICT_NAME, AVG(PER_TEACH_INEXP) teachCount from [Inexperienced_Teachers_and_Principals] i join [BOCES_and_N/RC] b on i.ENTITY_CD = b.ENTITY_CD group by DISTRICT_NAME order by AVG(PER_TEACH_INEXP) desc limit 5 </t>
         </is>
       </c>
       <c r="G353" t="n">
-        <v>-1</v>
+        <v>264</v>
       </c>
       <c r="H353" t="b">
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -15305,7 +15595,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(TOT_PRINC_LOW) princLow, avg(TOT_TEACH_LOW) teachLow from [Inexperienced_Teachers_and_Principals] </t>
+          <t xml:space="preserve">select avg(TOT_PRINC_LOW) princLow, avg(TOT_TEACH_LOW) teachLow from [Inexperienced_Teachers_and_Principals]  </t>
         </is>
       </c>
       <c r="G354" t="n">
@@ -15347,11 +15637,11 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t xml:space="preserve">select sum(cast(OUT_4_YR_CNT as int)) studentCount from [Postsecondary_Enrollment] where SUBGROUP_NAME in ('male', 'female') 	and ENTITY_NAME = 'BROCTON MIDDLE HIGH SCHOOL' </t>
+          <t xml:space="preserve">select sum(cast(OUT_4_YR_CNT as int)) studentCount from [Postsecondary_Enrollment] where SUBGROUP_NAME in ('male', 'female') 	and ENTITY_NAME = 'BROCTON MIDDLE HIGH SCHOOL'  </t>
         </is>
       </c>
       <c r="G355" t="n">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="H355" t="b">
         <v>1</v>
@@ -15386,8 +15676,7 @@
     SUBGROUP_NAME,
     PER_NYS_PUB_2_YR,
     PER_NYS_PUB_4_YR
-FROM 
-    Postsecondary_Enrollment
+FROM Postsecondary_Enrollment
 WHERE 
     ENTITY_NAME = 'Oneida Senior High School'
     AND YEAR = 2022
@@ -15396,11 +15685,11 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PER_NYS_PUB_2_YR, PER_NYS_PUB_4_YR from [Postsecondary_Enrollment] where year = 2022 	and ENTITY_NAME = 'ONEIDA SENIOR HIGH SCHOOL' 	and SUBGROUP_NAME = 'All Students' </t>
+          <t xml:space="preserve">select PER_NYS_PUB_2_YR, PER_NYS_PUB_4_YR from [Postsecondary_Enrollment] where year = 2022 	and ENTITY_NAME = 'ONEIDA SENIOR HIGH SCHOOL' 	and SUBGROUP_NAME = 'All Students'  </t>
         </is>
       </c>
       <c r="G356" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H356" t="b">
         <v>0</v>
@@ -15428,21 +15717,30 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E357" t="inlineStr"/>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>SELECT ig.ENTITY_NAME
+FROM Teachers_Teaching_Out_of_Certification t
+JOIN Institution_Grouping ig ON t.ENTITY_CD = ig.ENTITY_CD
+WHERE t.YEAR = 2021 AND ig.GROUP_NAME = 'Public School District'
+ORDER BY t.NUM_OUT_CERT DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 ENTITY_NAME from [Teachers_Teaching_Out_of_Certification] where year = 2021 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) order by NUM_OUT_CERT desc </t>
+          <t xml:space="preserve">select  ENTITY_NAME from [Teachers_Teaching_Out_of_Certification] where year = 2021 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) order by NUM_OUT_CERT desc limit 1 </t>
         </is>
       </c>
       <c r="G357" t="n">
-        <v>-1</v>
+        <v>258</v>
       </c>
       <c r="H357" t="b">
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -15472,7 +15770,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t xml:space="preserve">select NUM_OUT_CERT, PER_OUT_CERT from [Teachers_Teaching_Out_of_Certification] where ENTITY_NAME = 'BOLTON CENTRAL SCHOOL' 	and year = 2021 </t>
+          <t xml:space="preserve">select NUM_OUT_CERT, PER_OUT_CERT from [Teachers_Teaching_Out_of_Certification] where ENTITY_NAME = 'BOLTON CENTRAL SCHOOL' 	and year = 2021  </t>
         </is>
       </c>
       <c r="G358" t="n">
@@ -15506,7 +15804,7 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>SELECT B.COUNTY_NAME, SUM(T.NUM_OUT_CERT) AS TOTAL_OUT_CERT
+          <t>SELECT B.COUNTY_NAME, SUM(T.NUM_OUT_CERT) AS TOTAL_OUT_OF_CERT
 FROM Teachers_Teaching_Out_of_Certification T
 JOIN BOCES_and_N/RC B ON T.ENTITY_CD = B.ENTITY_CD
 GROUP BY B.COUNTY_NAME</t>
@@ -15514,11 +15812,11 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t xml:space="preserve">select COUNTY_NAME, sum(NUM_OUT_CERT) OOCCount from [Teachers_Teaching_Out_of_Certification] c join [BOCES_and_N/RC] b on c.ENTITY_CD = b.ENTITY_CD group by COUNTY_NAME </t>
+          <t xml:space="preserve">select COUNTY_NAME, sum(NUM_OUT_CERT) OOCCount from [Teachers_Teaching_Out_of_Certification] c join [BOCES_and_N/RC] b on c.ENTITY_CD = b.ENTITY_CD group by COUNTY_NAME  </t>
         </is>
       </c>
       <c r="G359" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H359" t="b">
         <v>0</v>
@@ -15566,7 +15864,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t xml:space="preserve">select subgroup_name, COHORT_COUNT, TEST_COUNT, LEVEL1_COUNT, LEVEL2_COUNT, LEVEL3_COUNT, LEVEL4_COUNT from [Total_Cohort_Regents_Exams] where ENTITY_NAME = 'WAVERLY HIGH SCHOOL' 	and COHORT = 2017 	and SUBGROUP_NAME in ('female', 'male') 	and SUBJECT = 'MATH' </t>
+          <t xml:space="preserve">select subgroup_name, COHORT_COUNT, TEST_COUNT, LEVEL1_COUNT, LEVEL2_COUNT, LEVEL3_COUNT, LEVEL4_COUNT from [Total_Cohort_Regents_Exams] where ENTITY_NAME = 'WAVERLY HIGH SCHOOL' 	and COHORT = 2017 	and SUBGROUP_NAME in ('female', 'male') 	and SUBJECT = 'MATH'  </t>
         </is>
       </c>
       <c r="G360" t="n">
@@ -15598,21 +15896,32 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E361" t="inlineStr"/>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>SELECT ENTITY_NAME
+FROM Total_Cohort_Regents_Exams
+WHERE SUBJECT = 'Math'
+  AND SUBGROUP_NAME = 'All Students'
+  AND COHORT = 2017
+  AND LEVEL4_%COHORT != 's'
+ORDER BY CAST(LEVEL4_%COHORT AS FLOAT) DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t xml:space="preserve">select TOP 1 ENTITY_NAME from [Total_Cohort_Regents_Exams] where COHORT = 2017 	and SUBGROUP_NAME = 'All Students' 	and SUBJECT = 'MATH' 	and [LEVEL4_%COHORT] &lt;&gt; 's' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) order by cast([LEVEL4_%COHORT] as int) desc </t>
+          <t xml:space="preserve">select  ENTITY_NAME from [Total_Cohort_Regents_Exams] where COHORT = 2017 	and SUBGROUP_NAME = 'All Students' 	and SUBJECT = 'MATH' 	and [LEVEL4_%COHORT] &lt;&gt; 's' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) order by cast([LEVEL4_%COHORT] as int) desc limit 1 </t>
         </is>
       </c>
       <c r="G361" t="n">
-        <v>-1</v>
+        <v>302</v>
       </c>
       <c r="H361" t="b">
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>Insufficient number of columns in generated result set</t>
         </is>
       </c>
     </row>
@@ -15640,7 +15949,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct ASSESSMENT_NAME) AssessmentCount from [Annual_EM_MATH] </t>
+          <t xml:space="preserve">select count(distinct ASSESSMENT_NAME) AssessmentCount from [Annual_EM_MATH]  </t>
         </is>
       </c>
       <c r="G362" t="n">
@@ -15684,7 +15993,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t xml:space="preserve">select total_count from [Annual_EM_Science] where year = 2021 	and SUBGROUP_NAME = 'male' 	and ASSESSMENT_NAME = 'Science4' 	and ENTITY_NAME = 'FORTS FERRY SCHOOL' </t>
+          <t xml:space="preserve">select total_count from [Annual_EM_Science] where year = 2021 	and SUBGROUP_NAME = 'male' 	and ASSESSMENT_NAME = 'Science4' 	and ENTITY_NAME = 'FORTS FERRY SCHOOL'  </t>
         </is>
       </c>
       <c r="G363" t="n">
@@ -15716,14 +16025,25 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E364" t="inlineStr"/>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>SELECT pe.ENTITY_NAME
+FROM Postsecondary_Enrollment pe
+JOIN Institution_Grouping ig ON pe.ENTITY_CD = ig.ENTITY_CD
+WHERE pe.YEAR = 2022
+  AND pe.PER_OUT_4_YR != 's'
+  AND ig.GROUP_NAME = 'Public Schools'
+ORDER BY CAST(pe.PER_OUT_4_YR AS FLOAT) DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 ENTITY_NAME from [Postsecondary_Enrollment] where year = 2022 	and SUBGROUP_NAME = 'All Students' 	and PER_OUT_4_YR &lt;&gt; 's' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) order by cast(PER_OUT_4_YR as int) desc </t>
+          <t xml:space="preserve">select  ENTITY_NAME from [Postsecondary_Enrollment] where year = 2022 	and SUBGROUP_NAME = 'All Students' 	and PER_OUT_4_YR &lt;&gt; 's' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) order by cast(PER_OUT_4_YR as int) desc limit 1 </t>
         </is>
       </c>
       <c r="G364" t="n">
-        <v>-1</v>
+        <v>294</v>
       </c>
       <c r="H364" t="b">
         <v>0</v>
@@ -15753,16 +16073,16 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) FROM tbl_Stations</t>
+          <t>SELECT COUNT(*) AS station_count FROM tbl_Stations</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) as station_count  from tbl_stations </t>
+          <t xml:space="preserve">select count(*) as station_count  from tbl_stations  </t>
         </is>
       </c>
       <c r="G365" t="n">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H365" t="b">
         <v>1</v>
@@ -15797,7 +16117,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct Island) from tbl_locations </t>
+          <t xml:space="preserve">select count(distinct Island) from tbl_locations  </t>
         </is>
       </c>
       <c r="G366" t="n">
@@ -15838,11 +16158,11 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Island, count(distinct site_id) as site_count from tbl_locations group by Island </t>
+          <t xml:space="preserve">select Island, count(distinct site_id) as site_count from tbl_locations group by Island  </t>
         </is>
       </c>
       <c r="G367" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H367" t="b">
         <v>0</v>
@@ -15877,7 +16197,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) densityCount from tbl_Density where Half_meter &gt; 8 </t>
+          <t xml:space="preserve">select count(*) densityCount from tbl_Density where Half_meter &gt; 8  </t>
         </is>
       </c>
       <c r="G368" t="n">
@@ -15918,7 +16238,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t xml:space="preserve">select station_id, count(*) event_count from tbl_events group by station_id </t>
+          <t xml:space="preserve">select station_id, count(*) event_count from tbl_events group by station_id  </t>
         </is>
       </c>
       <c r="G369" t="n">
@@ -15959,7 +16279,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t xml:space="preserve">select organization, count(*) person_count from tlu_contacts group by organization </t>
+          <t xml:space="preserve">select organization, count(*) person_count from tlu_contacts group by organization  </t>
         </is>
       </c>
       <c r="G370" t="n">
@@ -16000,7 +16320,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct zip_code  from tlu_contacts where city = 'Hilo' </t>
+          <t xml:space="preserve">select distinct zip_code  from tlu_contacts where city = 'Hilo'  </t>
         </is>
       </c>
       <c r="G371" t="n">
@@ -16042,7 +16362,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t xml:space="preserve">select event_id, station_id, start_date  from tbl_events where repeat_sample = 1 and verified_by = 'Lauren Smith' </t>
+          <t xml:space="preserve">select event_id, station_id, start_date  from tbl_events where repeat_sample = 1 and verified_by = 'Lauren Smith'  </t>
         </is>
       </c>
       <c r="G372" t="n">
@@ -16084,7 +16404,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) obsCount from tbl_observations o join tlu_species s on o.Species_ID = s.Species_ID where habitat = 'Forest Bird' </t>
+          <t xml:space="preserve">select count(*) obsCount from tbl_observations o join tlu_species s on o.Species_ID = s.Species_ID where habitat = 'Forest Bird'  </t>
         </is>
       </c>
       <c r="G373" t="n">
@@ -16126,7 +16446,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t xml:space="preserve">select habitat, count(*) obsCount from tlu_species s join tbl_observations o on o.Species_ID = s.Species_ID group by habitat </t>
+          <t xml:space="preserve">select habitat, count(*) obsCount from tlu_species s join tbl_observations o on o.Species_ID = s.Species_ID group by habitat  </t>
         </is>
       </c>
       <c r="G374" t="n">
@@ -16168,7 +16488,7 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t xml:space="preserve">select e.event_id from tbl_events e join tbl_observations o on e.Event_ID = o.Event_ID group by e.event_id having count(*) &gt; 7 </t>
+          <t xml:space="preserve">select e.event_id from tbl_events e join tbl_observations o on e.Event_ID = o.Event_ID group by e.event_id having count(*) &gt; 7  </t>
         </is>
       </c>
       <c r="G375" t="n">
@@ -16200,21 +16520,30 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E376" t="inlineStr"/>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>SELECT s.Scientific_Name, s.Common_Name
+FROM tlu_Species s
+JOIN tbl_Observations o ON s.Species_ID = o.Species_ID
+GROUP BY s.Species_ID, s.Scientific_Name, s.Common_Name
+ORDER BY COUNT(*) DESC
+LIMIT 3</t>
+        </is>
+      </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 3 scientific_name, common_name from tbl_observations o join tlu_species s on o.Species_ID = s.Species_ID group by scientific_name, common_name order by count(*) desc </t>
+          <t xml:space="preserve">select  scientific_name, common_name from tbl_observations o join tlu_species s on o.Species_ID = s.Species_ID group by scientific_name, common_name order by count(*) desc limit 3 </t>
         </is>
       </c>
       <c r="G376" t="n">
-        <v>-1</v>
+        <v>231</v>
       </c>
       <c r="H376" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -16235,21 +16564,31 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E377" t="inlineStr"/>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>SELECT Understory_Comp, Canopy_Comp, COUNT(*) as combo_count
+FROM tbl_Habitat
+JOIN tbl_Events ON tbl_Habitat.Event_ID = tbl_Events.Event_ID
+WHERE tbl_Events.Entered_by = 'Caitlin Jensen'
+GROUP BY Understory_Comp, Canopy_Comp
+ORDER BY combo_count DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 canopy_comp, understory_comp from tbl_habitat h join tbl_events e on h.event_id = e.event_id where entered_by = 'caitlin jensen' group by canopy_comp, understory_comp order by count(*) desc </t>
+          <t xml:space="preserve">select  canopy_comp, understory_comp from tbl_habitat h join tbl_events e on h.event_id = e.event_id where entered_by = 'caitlin jensen' group by canopy_comp, understory_comp order by count(*) desc limit 1 </t>
         </is>
       </c>
       <c r="G377" t="n">
-        <v>-1</v>
+        <v>259</v>
       </c>
       <c r="H377" t="b">
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -16280,7 +16619,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t xml:space="preserve">select cloud, rain, wind, gust  from tbl_events e join tbl_Event_Details ed on e.Event_ID = ed.Event_ID where updated_by = 'Seth Judge' and entered_by = 'Cari Squibb' </t>
+          <t xml:space="preserve">select cloud, rain, wind, gust  from tbl_events e join tbl_Event_Details ed on e.Event_ID = ed.Event_ID where updated_by = 'Seth Judge' and entered_by = 'Cari Squibb'  </t>
         </is>
       </c>
       <c r="G378" t="n">
@@ -16325,7 +16664,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) obsCount from ( 	select observation_id  	from tbl_detections d 	group by Observation_ID 	having count(Detection_ID) &gt; 15 ) t </t>
+          <t xml:space="preserve">select count(*) obsCount from ( 	select observation_id  	from tbl_detections d 	group by Observation_ID 	having count(Detection_ID) &gt; 15 ) t  </t>
         </is>
       </c>
       <c r="G379" t="n">
@@ -16364,11 +16703,11 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(distance) avgdist from tbl_detections </t>
+          <t xml:space="preserve">select avg(distance) avgdist from tbl_detections  </t>
         </is>
       </c>
       <c r="G380" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H380" t="b">
         <v>1</v>
@@ -16396,21 +16735,30 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E381" t="inlineStr"/>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>SELECT tlu_Species.Common_Name
+FROM tbl_Detections
+JOIN tbl_Observations ON tbl_Detections.Observation_ID = tbl_Observations.Observation_ID
+JOIN tlu_Species ON tbl_Observations.Species_ID = tlu_Species.Species_ID
+ORDER BY tbl_Detections.Distance DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 common_name from tlu_species s join tbl_observations o on s.species_id = o.species_id join tbl_detections t on t.observation_id = o.observation_id order by distance desc </t>
+          <t xml:space="preserve">select  common_name from tlu_species s join tbl_observations o on s.species_id = o.species_id join tbl_detections t on t.observation_id = o.observation_id order by distance desc limit 1 </t>
         </is>
       </c>
       <c r="G381" t="n">
-        <v>-1</v>
+        <v>255</v>
       </c>
       <c r="H381" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -16433,15 +16781,15 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>SELECT t.Common_Name, x.Alternate_Name
-FROM tlu_Species t
-LEFT JOIN xref_Species_Alternate_Names x ON t.Species_ID = x.Species_ID
-WHERE t.Family = 'Laridae'</t>
+          <t>SELECT s.Common_Name, a.Alternate_Name
+FROM tlu_Species s
+LEFT JOIN xref_Species_Alternate_Names a ON s.Species_ID = a.Species_ID
+WHERE s.Family = 'Laridae'</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t xml:space="preserve">select common_name, alternate_name from tlu_species s join xref_species_alternate_names a on s.species_id = a.species_id where family = 'laridae' </t>
+          <t xml:space="preserve">select common_name, alternate_name from tlu_species s join xref_species_alternate_names a on s.species_id = a.species_id where family = 'laridae'  </t>
         </is>
       </c>
       <c r="G382" t="n">
@@ -16480,7 +16828,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct source from tlu_species </t>
+          <t xml:space="preserve">select distinct source from tlu_species  </t>
         </is>
       </c>
       <c r="G383" t="n">
@@ -16522,7 +16870,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Station  from tbl_stations  join tbl_Stations_UTMs on tbl_stations.Station_ID = tbl_stations_utms.Station_ID where X_final = 272454 and Y_final = 2141631 </t>
+          <t xml:space="preserve">select Station  from tbl_stations  join tbl_Stations_UTMs on tbl_stations.Station_ID = tbl_stations_utms.Station_ID where X_final = 272454 and Y_final = 2141631  </t>
         </is>
       </c>
       <c r="G384" t="n">
@@ -16563,7 +16911,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t xml:space="preserve">select position_title, organization from tlu_contacts where First_Name = 'Patrick' and Last_Name = 'Hart' </t>
+          <t xml:space="preserve">select position_title, organization from tlu_contacts where First_Name = 'Patrick' and Last_Name = 'Hart'  </t>
         </is>
       </c>
       <c r="G385" t="n">
@@ -16604,7 +16952,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct Island, Site_name from tbl_locations join tbl_sites on tbl_locations.site_id = tbl_sites.site_id </t>
+          <t xml:space="preserve">select distinct Island, Site_name from tbl_locations join tbl_sites on tbl_locations.site_id = tbl_sites.site_id  </t>
         </is>
       </c>
       <c r="G386" t="n">
@@ -16643,7 +16991,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Island from tbl_locations where loc_name = 'Northwest Kahuku' </t>
+          <t xml:space="preserve">select Island from tbl_locations where loc_name = 'Northwest Kahuku'  </t>
         </is>
       </c>
       <c r="G387" t="n">
@@ -16684,11 +17032,11 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct family, scientific_name, common_name  from tlu_species where habitat = 'Forest Bird' </t>
+          <t xml:space="preserve">select distinct family, scientific_name, common_name  from tlu_species where habitat = 'Forest Bird'  </t>
         </is>
       </c>
       <c r="G388" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H388" t="b">
         <v>1</v>
@@ -16726,11 +17074,11 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct datum, count(*) stationCount from tbl_stations_utms where datum in ('WGS84', 'NAD83') group by datum </t>
+          <t xml:space="preserve">select distinct datum, count(*) stationCount from tbl_stations_utms where datum in ('WGS84', 'NAD83') group by datum  </t>
         </is>
       </c>
       <c r="G389" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H389" t="b">
         <v>1</v>
@@ -16768,7 +17116,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) obs_count from tbl_observations obs join tbl_event_details det on obs.Event_ID = det.Event_ID where Cloud = 0 </t>
+          <t xml:space="preserve">select count(*) obs_count from tbl_observations obs join tbl_event_details det on obs.Event_ID = det.Event_ID where Cloud = 0  </t>
         </is>
       </c>
       <c r="G390" t="n">
@@ -16809,7 +17157,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) windy_day_count from tbl_event_details where wind in ( 	select max(wind) from tbl_event_details ) </t>
+          <t xml:space="preserve">select count(*) windy_day_count from tbl_event_details where wind in ( 	select max(wind) from tbl_event_details )  </t>
         </is>
       </c>
       <c r="G391" t="n">
@@ -16852,7 +17200,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Island, count(*) as station_count from tbl_locations loc join tbl_transect trans on loc.location_id = trans.location_id join tbl_stations sta on trans.transect_id = sta.Transect_ID group by Island </t>
+          <t xml:space="preserve">select Island, count(*) as station_count from tbl_locations loc join tbl_transect trans on loc.location_id = trans.location_id join tbl_stations sta on trans.transect_id = sta.Transect_ID group by Island  </t>
         </is>
       </c>
       <c r="G392" t="n">
@@ -16884,21 +17232,31 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E393" t="inlineStr"/>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>SELECT l.Island, COUNT(s.Transect_ID) AS Station_Count
+FROM tbl_Stations s
+JOIN tbl_Transect t ON s.Transect_ID = t.Transect_ID
+JOIN tbl_Locations l ON t.Location_ID = l.Location_ID
+GROUP BY l.Island
+ORDER BY Station_Count ASC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Island, count(*) as station_count from tbl_locations loc join tbl_transect trans on loc.location_id = trans.location_id join tbl_stations sta on trans.transect_id = sta.Transect_ID group by Island order by station_count asc </t>
+          <t xml:space="preserve">select  Island, count(*) as station_count from tbl_locations loc join tbl_transect trans on loc.location_id = trans.location_id join tbl_stations sta on trans.transect_id = sta.Transect_ID group by Island order by station_count asc limit 1 </t>
         </is>
       </c>
       <c r="G393" t="n">
-        <v>-1</v>
+        <v>249</v>
       </c>
       <c r="H393" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -16930,7 +17288,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct family, species_code from tlu_species s join tbl_observations o on s.species_id = o.species_id join tbl_events e on o.event_id = e.event_id join tbl_event_details ed on e.event_id = ed.event_id where rain = 1 </t>
+          <t xml:space="preserve">select distinct family, species_code from tlu_species s join tbl_observations o on s.species_id = o.species_id join tbl_events e on o.event_id = e.event_id join tbl_event_details ed on e.event_id = ed.event_id where rain = 1  </t>
         </is>
       </c>
       <c r="G394" t="n">
@@ -16974,7 +17332,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct scientific_name, common_name from tlu_species spc join tbl_observations obs on spc.Species_ID = obs.species_id join xref_event_contacts xcon on xcon.Event_ID = obs.event_id join tlu_contacts con on xcon.Contact_ID = con.Contact_ID where last_name = 'Hart' and first_name = 'Patrick' order by Scientific_Name </t>
+          <t xml:space="preserve">select distinct scientific_name, common_name from tlu_species spc join tbl_observations obs on spc.Species_ID = obs.species_id join xref_event_contacts xcon on xcon.Event_ID = obs.event_id join tlu_contacts con on xcon.Contact_ID = con.Contact_ID where last_name = 'Hart' and first_name = 'Patrick' order by Scientific_Name  </t>
         </is>
       </c>
       <c r="G395" t="n">
@@ -17028,7 +17386,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Station, Common_Name, count(*) NumObservations from tbl_Stations t_s  join tbl_Events t_e on t_e.Station_ID = t_s.Station_ID join tbl_Observations t_o on t_o.Event_ID = t_e.Event_ID join tlu_Species t_sp on t_o.Species_ID = t_sp.Species_iD where Station = '2' or Station = '3' group by Station, Common_Name order by Station </t>
+          <t xml:space="preserve">select Station, Common_Name, count(*) NumObservations from tbl_Stations t_s  join tbl_Events t_e on t_e.Station_ID = t_s.Station_ID join tbl_Observations t_o on t_o.Event_ID = t_e.Event_ID join tlu_Species t_sp on t_o.Species_ID = t_sp.Species_iD where Station = '2' or Station = '3' group by Station, Common_Name order by Station  </t>
         </is>
       </c>
       <c r="G396" t="n">
@@ -17065,17 +17423,17 @@
           <t>SELECT s.Station, COUNT(e.Station_ID) AS event_count
 FROM tbl_Stations s
 LEFT JOIN tbl_Events e ON s.Station_ID = e.Station_ID
-GROUP BY s.Station
+GROUP BY s.Station, s.Station_ID
 ORDER BY event_count DESC</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t xml:space="preserve">select station, count(*) as event_count from tbl_stations ts join tbl_events te on ts.station_id = te.station_id group by ts.station order by event_count desc </t>
+          <t xml:space="preserve">select station, count(*) as event_count from tbl_stations ts join tbl_events te on ts.station_id = te.station_id group by ts.station order by event_count desc  </t>
         </is>
       </c>
       <c r="G397" t="n">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H397" t="b">
         <v>0</v>
@@ -17103,21 +17461,28 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E398" t="inlineStr"/>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>SELECT Station, Lat_final, Long_final
+FROM tbl_Stations
+ORDER BY Lat_final DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 lat_final, long_final, Station  from tbl_stations order by lat_final desc </t>
+          <t xml:space="preserve">select  lat_final, long_final, Station  from tbl_stations order by lat_final desc limit 1 </t>
         </is>
       </c>
       <c r="G398" t="n">
-        <v>-1</v>
+        <v>174</v>
       </c>
       <c r="H398" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -17149,7 +17514,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct tbl_stations.station_id) as station_count from tbl_stations join tbl_events on tbl_stations.station_id = tbl_events.station_id join tbl_observations on tbl_observations.event_id = tbl_events.event_id join tlu_species on tlu_species.species_id = tbl_observations.species_id where common_name = 'Hawaii Amakihi' </t>
+          <t xml:space="preserve">select count(distinct tbl_stations.station_id) as station_count from tbl_stations join tbl_events on tbl_stations.station_id = tbl_events.station_id join tbl_observations on tbl_observations.event_id = tbl_events.event_id join tlu_species on tlu_species.species_id = tbl_observations.species_id where common_name = 'Hawaii Amakihi'  </t>
         </is>
       </c>
       <c r="G399" t="n">
@@ -17193,7 +17558,7 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t xml:space="preserve">select 100 * (sum(sighted) / count(distinct station_id)) as perc_stations from ( 	select distinct tbl_stations.station_id, case  			when tlu_species.common_name = 'Hawaii Amakihi' then 1.0 else 0.0 			end as sighted 	from tbl_stations 	join tbl_events on tbl_stations.station_id = tbl_events.station_id 	join tbl_observations on tbl_observations.event_id = tbl_events.event_id 	join tlu_species on tlu_species.species_id = tbl_observations.species_id ) sightings </t>
+          <t xml:space="preserve">select 100 * (sum(sighted) / count(distinct station_id)) as perc_stations from ( 	select distinct tbl_stations.station_id, case  			when tlu_species.common_name = 'Hawaii Amakihi' then 1.0 else 0.0 			end as sighted 	from tbl_stations 	join tbl_events on tbl_stations.station_id = tbl_events.station_id 	join tbl_observations on tbl_observations.event_id = tbl_events.event_id 	join tlu_species on tlu_species.species_id = tbl_observations.species_id ) sightings  </t>
         </is>
       </c>
       <c r="G400" t="n">
@@ -17236,7 +17601,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t xml:space="preserve">select last_name, first_name, count(*) num_events from tlu_contacts tlc join xref_event_contacts xrec on tlc.Contact_ID = xrec.Contact_ID where organization = 'National Park Service' group by last_name, first_name, organization order by last_name desc </t>
+          <t xml:space="preserve">select last_name, first_name, count(*) num_events from tlu_contacts tlc join xref_event_contacts xrec on tlc.Contact_ID = xrec.Contact_ID where organization = 'National Park Service' group by last_name, first_name, organization order by last_name desc  </t>
         </is>
       </c>
       <c r="G401" t="n">
@@ -17271,13 +17636,13 @@
       <c r="E402" t="inlineStr">
         <is>
           <t>SELECT 
-    s.Common_Name,
-    s.Scientific_Name,
+    s.Common_Name, 
+    s.Scientific_Name, 
     AVG(h.Canopy_Height * 1.0) AS Avg_Canopy_Height
 FROM 
-    tbl_Observations o
+    tlu_Species s
 JOIN 
-    tlu_Species s ON o.Species_ID = s.Species_ID
+    tbl_Observations o ON s.Species_ID = o.Species_ID
 JOIN 
     tbl_Habitat h ON o.Event_ID = h.Event_ID
 GROUP BY 
@@ -17286,11 +17651,11 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Scientific_Name, Common_Name, avg(cast(canopy_height as float)) as avg_canopy_height from tbl_habitat hab join tbl_events ev on hab.Event_ID = ev.Event_ID join tbl_Observations obs on obs.Event_ID = ev.Event_ID join tlu_species spec on spec.species_id = obs.species_id group by Scientific_Name, common_name order by Scientific_Name </t>
+          <t xml:space="preserve">select Scientific_Name, Common_Name, avg(cast(canopy_height as float)) as avg_canopy_height from tbl_habitat hab join tbl_events ev on hab.Event_ID = ev.Event_ID join tbl_Observations obs on obs.Event_ID = ev.Event_ID join tlu_species spec on spec.species_id = obs.species_id group by Scientific_Name, common_name order by Scientific_Name  </t>
         </is>
       </c>
       <c r="G402" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H402" t="b">
         <v>1</v>
@@ -17321,53 +17686,53 @@
       <c r="E403" t="inlineStr">
         <is>
           <t>SELECT
-    tbl_Locations.Island,
-    tbl_Sites.Site_Name,
-    tbl_Locations.Loc_Name AS Location_Name,
-    tbl_Transect.Transect,
-    tbl_Transect.Transect_Type,
-    tbl_Stations.Station,
-    tbl_Stations.Lat_final AS Station_Latitude,
-    tbl_Observations.Event_ID,
-    GROUP_CONCAT(DISTINCT tlu_Contacts.Last_Name) AS Observer_Last_Names,
-    tbl_Events.Event_Notes,
-    tlu_Species.Family,
-    tlu_Species.Scientific_Name,
-    tlu_Species.Common_Name,
-    GROUP_CONCAT(DISTINCT xref_Species_Alternate_Names.Alternate_Name) AS Alternate_Names
+    l.Island,
+    s.Site_Name,
+    l.Loc_Name AS Location_Name,
+    t.Transect,
+    t.Transect_Type,
+    st.Station,
+    st.Lat_final AS Station_Latitude,
+    e.Event_ID,
+    GROUP_CONCAT(DISTINCT c.Last_Name) AS Observer_Last_Names,
+    e.Event_Notes,
+    sp.Family,
+    sp.Scientific_Name,
+    sp.Common_Name,
+    GROUP_CONCAT(DISTINCT san.Alternate_Name) AS Alternate_Names
 FROM
-    tbl_Observations
-    JOIN tbl_Events ON tbl_Observations.Event_ID = tbl_Events.Event_ID
-    JOIN tbl_Stations ON tbl_Events.Station_ID = tbl_Stations.Station_ID
-    JOIN tbl_Transect ON tbl_Stations.Transect_ID = tbl_Transect.Transect_ID
-    JOIN tbl_Locations ON tbl_Transect.Location_ID = tbl_Locations.Location_ID
-    JOIN tbl_Sites ON tbl_Locations.Site_ID = tbl_Sites.Site_ID
-    JOIN tlu_Species ON tbl_Observations.Species_ID = tlu_Species.Species_ID
-    LEFT JOIN xref_Species_Alternate_Names ON tlu_Species.Species_ID = xref_Species_Alternate_Names.Species_ID
-    LEFT JOIN xref_Event_Contacts ON tbl_Events.Event_ID = xref_Event_Contacts.Event_ID
-    LEFT JOIN tlu_Contacts ON xref_Event_Contacts.Contact_ID = tlu_Contacts.Contact_ID
+    tbl_Observations o
+    JOIN tbl_Events e ON o.Event_ID = e.Event_ID
+    JOIN tbl_Stations st ON e.Station_ID = st.Station_ID
+    JOIN tbl_Transect t ON st.Transect_ID = t.Transect_ID
+    JOIN tbl_Locations l ON t.Location_ID = l.Location_ID
+    JOIN tbl_Sites s ON l.Site_ID = s.Site_ID
+    LEFT JOIN xref_Event_Contacts ec ON e.Event_ID = ec.Event_ID
+    LEFT JOIN tlu_Contacts c ON ec.Contact_ID = c.Contact_ID
+    JOIN tlu_Species sp ON o.Species_ID = sp.Species_ID
+    LEFT JOIN xref_Species_Alternate_Names san ON sp.Species_ID = san.Species_ID
 GROUP BY
-    tbl_Locations.Island,
-    tbl_Sites.Site_Name,
-    tbl_Locations.Loc_Name,
-    tbl_Transect.Transect,
-    tbl_Transect.Transect_Type,
-    tbl_Stations.Station,
-    tbl_Stations.Lat_final,
-    tbl_Observations.Event_ID,
-    tbl_Events.Event_Notes,
-    tlu_Species.Family,
-    tlu_Species.Scientific_Name,
-    tlu_Species.Common_Name</t>
+    l.Island,
+    s.Site_Name,
+    l.Loc_Name,
+    t.Transect,
+    t.Transect_Type,
+    st.Station,
+    st.Lat_final,
+    e.Event_ID,
+    e.Event_Notes,
+    sp.Family,
+    sp.Scientific_Name,
+    sp.Common_Name</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t xml:space="preserve">select island, site_name, Loc_Name, transect, transect_type, Station, lat_final, te.event_id, last_name, event_notes, family, Scientific_Name, Common_Name, Alternate_Name from tbl_locations tl join tbl_sites ts on tl.Site_ID = ts.Site_ID join tbl_transect tr on tr.Location_ID = tl.Location_ID join tbl_stations st on st.Transect_ID = tr.Transect_ID join tbl_events te on te.station_id = st.station_id join xref_Event_Contacts ec on ec.Event_ID = te.Event_ID join tlu_Contacts con on ec.Contact_ID = con.Contact_ID join tbl_Observations obs on te.Event_ID = obs.Event_ID join tlu_species spc on obs.Species_ID = spc.Species_ID join xref_Species_Alternate_Names spc_alt on spc.Species_ID = spc_alt.Species_ID </t>
+          <t xml:space="preserve">select island, site_name, Loc_Name, transect, transect_type, Station, lat_final, te.event_id, last_name, event_notes, family, Scientific_Name, Common_Name, Alternate_Name from tbl_locations tl join tbl_sites ts on tl.Site_ID = ts.Site_ID join tbl_transect tr on tr.Location_ID = tl.Location_ID join tbl_stations st on st.Transect_ID = tr.Transect_ID join tbl_events te on te.station_id = st.station_id join xref_Event_Contacts ec on ec.Event_ID = te.Event_ID join tlu_Contacts con on ec.Contact_ID = con.Contact_ID join tbl_Observations obs on te.Event_ID = obs.Event_ID join tlu_species spc on obs.Species_ID = spc.Species_ID join xref_Species_Alternate_Names spc_alt on spc.Species_ID = spc_alt.Species_ID  </t>
         </is>
       </c>
       <c r="G403" t="n">
-        <v>858</v>
+        <v>746</v>
       </c>
       <c r="H403" t="b">
         <v>0</v>
@@ -17395,21 +17760,35 @@
           <t>gpt-4.1</t>
         </is>
       </c>
-      <c r="E404" t="inlineStr"/>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>SELECT l.Island
+FROM tbl_Observations o
+JOIN tlu_Species s ON o.Species_ID = s.Species_ID
+JOIN tbl_Events e ON o.Event_ID = e.Event_ID
+JOIN tbl_Stations st ON e.Station_ID = st.Station_ID
+JOIN tbl_Transect t ON st.Transect_ID = t.Transect_ID
+JOIN tbl_Locations l ON t.Location_ID = l.Location_ID
+WHERE s.Common_Name = 'Pacific Kingfisher'
+GROUP BY l.Island
+ORDER BY COUNT(*) DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 island, count(*) as kingfisher_count from tbl_locations tl join tbl_transect tr on tr.Location_ID = tl.Location_ID join tbl_stations st on st.Transect_ID = tr.Transect_ID join tbl_events te on te.station_id = st.station_id join xref_Event_Contacts ec on ec.Event_ID = te.Event_ID join tlu_Contacts con on ec.Contact_ID = con.Contact_ID join tbl_Observations obs on te.Event_ID = obs.Event_ID join tlu_species spc on obs.Species_ID = spc.Species_ID where common_name = 'Pacific Kingfisher' group by island order by kingfisher_count </t>
+          <t xml:space="preserve">select  island, count(*) as kingfisher_count from tbl_locations tl join tbl_transect tr on tr.Location_ID = tl.Location_ID join tbl_stations st on st.Transect_ID = tr.Transect_ID join tbl_events te on te.station_id = st.station_id join xref_Event_Contacts ec on ec.Event_ID = te.Event_ID join tlu_Contacts con on ec.Contact_ID = con.Contact_ID join tbl_Observations obs on te.Event_ID = obs.Event_ID join tlu_species spc on obs.Species_ID = spc.Species_ID where common_name = 'Pacific Kingfisher' group by island order by kingfisher_count limit 1 </t>
         </is>
       </c>
       <c r="G404" t="n">
-        <v>-1</v>
+        <v>379</v>
       </c>
       <c r="H404" t="b">
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>Insufficient number of columns in generated result set</t>
         </is>
       </c>
     </row>
@@ -17432,7 +17811,7 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>SELECT COUNT(DISTINCT ReconType) FROM OITR</t>
+          <t>SELECT COUNT(DISTINCT ReconType) AS num_recon_types FROM OITR</t>
         </is>
       </c>
       <c r="F405" t="inlineStr">
@@ -17441,7 +17820,7 @@
         </is>
       </c>
       <c r="G405" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H405" t="b">
         <v>1</v>
@@ -17515,13 +17894,13 @@
         <is>
           <t>SELECT DISTINCT OCHO.AcctNum
 FROM OCHO
-JOIN CHO1 ON OCHO.CheckKey = CHO1.CheckKey
-WHERE OCHO.CheckKey IN (
+JOIN (
     SELECT CheckKey
-    FROM OCHO
+    FROM CHO1
     GROUP BY CheckKey
     HAVING COUNT(*) &gt; 1
-)</t>
+) AS multi_line_checks
+ON OCHO.CheckKey = multi_line_checks.CheckKey</t>
         </is>
       </c>
       <c r="F407" t="inlineStr">
@@ -17530,14 +17909,14 @@
         </is>
       </c>
       <c r="G407" t="n">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H407" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -18267,10 +18646,10 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>SELECT OACT.AcctName, COUNT(*) AS NumberOfJournalEntries
-FROM JDT1
-JOIN OACT ON JDT1.Account = OACT.AcctCode
-WHERE JDT1.Account = '_SYS00000000002'
+          <t>SELECT OACT.AcctName, COUNT(JDT1.Account) AS NumberOfJournalEntries
+FROM OACT
+LEFT JOIN JDT1 ON OACT.AcctCode = JDT1.Account
+WHERE OACT.AcctCode = '_SYS00000000002'
 GROUP BY OACT.AcctName</t>
         </is>
       </c>
@@ -18280,7 +18659,7 @@
         </is>
       </c>
       <c r="G425" t="n">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H425" t="b">
         <v>1</v>
@@ -19310,7 +19689,7 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>SELECT OHEM.lastName, OHTY.name AS education_status, OHEM.nChildren
+          <t>SELECT OHEM.lastName, OHEM.StatusOfE, OHEM.nChildren
 FROM OHEM
 JOIN OHTY ON OHEM.type = OHTY.typeID
 WHERE OHTY.name = 'Technician'</t>
@@ -19322,14 +19701,14 @@
         </is>
       </c>
       <c r="G450" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H450" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>full tuple compare failed</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -19440,7 +19819,7 @@
         </is>
       </c>
       <c r="G453" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H453" t="b">
         <v>1</v>
@@ -19731,7 +20110,7 @@
         </is>
       </c>
       <c r="G460" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H460" t="b">
         <v>0</v>
@@ -20061,9 +20440,10 @@
       <c r="E468" t="inlineStr">
         <is>
           <t>SELECT ITM4.Height1, ITM4.Width1, ITM4.Length1, ITM4.Volume
-FROM ITM4
-JOIN OITM ON ITM4.ItemCode = OITM.ItemCode
-WHERE OITM.ItemName = 'Printer Paper A4 White' AND ITM4.QtyPerPack = 24</t>
+FROM OITM
+JOIN ITM4 ON OITM.ItemCode = ITM4.ItemCode
+WHERE OITM.ItemName = 'Printer Paper A4 White'
+  AND ITM4.QtyPerPack = 24</t>
         </is>
       </c>
       <c r="F468" t="inlineStr">
@@ -20072,7 +20452,7 @@
         </is>
       </c>
       <c r="G468" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H468" t="b">
         <v>1</v>
@@ -20635,18 +21015,11 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>SELECT 
-    RDOC.DocCode, 
-    RDOC.DocName, 
-    COUNT(RITM.DocCode) AS ReportingElementCount
-FROM 
-    RDOC
-LEFT JOIN 
-    RITM ON RDOC.DocCode = RITM.DocCode
-WHERE 
-    RDOC.TypeCode = 'WTR1'
-GROUP BY 
-    RDOC.DocCode, RDOC.DocName</t>
+          <t>SELECT RDOC.DocCode, RDOC.DocName, COUNT(RITM.DocCode) AS ReportingElementCount
+FROM RDOC
+LEFT JOIN RITM ON RDOC.DocCode = RITM.DocCode
+WHERE RDOC.TypeCode = 'WTR1'
+GROUP BY RDOC.DocCode, RDOC.DocName</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
@@ -20655,7 +21028,7 @@
         </is>
       </c>
       <c r="G482" t="n">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="H482" t="b">
         <v>1</v>
@@ -20941,8 +21314,8 @@
           <t>SELECT PrcCode, PrcName, Balance, DataSource AS DimensionCode
 FROM OPRC
 WHERE Active = 'Y'
-  AND ValidFrom &lt;= '2021-12-31'
-  AND (ValidFrom &gt;= '2021-01-01' OR ValidFrom IS NULL)</t>
+  AND ValidFrom &gt;= '2021-01-01'
+  AND ValidFrom &lt; '2022-01-01'</t>
         </is>
       </c>
       <c r="F489" t="inlineStr">
@@ -20951,7 +21324,7 @@
         </is>
       </c>
       <c r="G489" t="n">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="H489" t="b">
         <v>0</v>
@@ -21523,17 +21896,9 @@
       <c r="E503" t="inlineStr">
         <is>
           <t>SELECT OCTR.CstmrName, COUNT(OSCL.customer) AS call_count
-FROM OCTR
-JOIN OSCL ON OCTR.CstmrCode = OSCL.customer
-WHERE OCTR.CstmrName IN (
-    SELECT CstmrName
-    FROM OCTR
-    WHERE CstmrCode IN (
-        SELECT CstmrCode
-        FROM OCTR
-        WHERE CstmrName LIKE '%Silver Warranty%'
-    )
-)
+FROM OSCL
+JOIN OCTR ON OSCL.customer = OCTR.CstmrCode
+WHERE OCTR.CstmrName = 'Silver Warranty'
 GROUP BY OCTR.CstmrName</t>
         </is>
       </c>
@@ -21543,7 +21908,7 @@
         </is>
       </c>
       <c r="G503" t="n">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="H503" t="b">
         <v>0</v>
